--- a/data/DataMapasInteractivos-Json.xlsx
+++ b/data/DataMapasInteractivos-Json.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William.DESKTOP-BCSPGOT\Desktop\Development\PNUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William.DESKTOP-BCSPGOT\Desktop\Development\PNUD\map_web_page\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10512" windowHeight="4968" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="136">
   <si>
     <t>POBLACION</t>
   </si>
@@ -419,9 +419,6 @@
     <t>Población</t>
   </si>
   <si>
-    <t>Arreglar que si es igual a 0 aparece vacio</t>
-  </si>
-  <si>
     <t>empleo informal</t>
   </si>
   <si>
@@ -446,7 +443,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -627,7 +624,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -640,7 +637,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -677,14 +674,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -702,6 +691,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,7 +918,7 @@
   <dimension ref="A1:AH1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -933,7 +930,7 @@
     <col min="7" max="7" width="22.21875" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15" style="34" customWidth="1"/>
     <col min="11" max="22" width="15" customWidth="1"/>
     <col min="23" max="24" width="17" customWidth="1"/>
     <col min="25" max="34" width="15" customWidth="1"/>
@@ -946,33 +943,33 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="33"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,7 +992,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="37"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -1052,7 +1049,7 @@
         <f>CONCATENATE("""" &amp; "highlight3"  &amp; """:{ ","""" &amp; "name"  &amp; """", ": ", """" &amp; $E$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(E3,"#,###") &amp; """","}, ")</f>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"14"}, </v>
       </c>
-      <c r="J3" s="36" t="str">
+      <c r="J3" s="32" t="str">
         <f>CONCATENATE("{",F3,'Sub-temas'!O3,G3,H3,I3)</f>
         <v xml:space="preserve">{"name": "El Salvador", "abbreviation":"esv", "highlightTable1": "52% tasa de dependencia", "highlightTable2": "7.3 escolaridad promedio", "highlightTable3": "70% empleo informal", "highlightTable4": "25% pobreza multidimensional", "highlightTable5": "43%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"21,040.56"}, "highlight2":{ "name": "Densidad poblacional", "value":"301.27"}, "highlight3":{ "name": "Número de distritos", "value":"14"}, </v>
       </c>
@@ -1112,7 +1109,7 @@
         <f t="shared" ref="I4:I47" si="3">CONCATENATE("""" &amp; "highlight3"  &amp; """:{ ","""" &amp; "name"  &amp; """", ": ", """" &amp; $E$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(E4,"#,###") &amp; """","}, ")</f>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
-      <c r="J4" s="36" t="str">
+      <c r="J4" s="32" t="str">
         <f>CONCATENATE("{",F4,'Sub-temas'!O4,G4,H4,I4)</f>
         <v xml:space="preserve">{"name": "Ahuachapán Norte", "abbreviation":"ahn", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.2 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "61%  sin recolección de basura","highlightTable6": "15% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"146.89"}, "highlight2":{ "name": "Densidad poblacional", "value":"493.01"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
@@ -1172,7 +1169,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
-      <c r="J5" s="36" t="str">
+      <c r="J5" s="32" t="str">
         <f>CONCATENATE("{",F5,'Sub-temas'!O5,G5,H5,I5)</f>
         <v xml:space="preserve">{"name": "Ahuachapán Centro", "abbreviation":"ahc", "highlightTable1": "53% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "40% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "13% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"501.01"}, "highlight2":{ "name": "Densidad poblacional", "value":"360.85"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
@@ -1235,7 +1232,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
-      <c r="J6" s="36" t="str">
+      <c r="J6" s="32" t="str">
         <f>CONCATENATE("{",F6,'Sub-temas'!O6,G6,H6,I6)</f>
         <v xml:space="preserve">{"name": "Ahuachapán Sur", "abbreviation":"ahs", "highlightTable1": "62% tasa de dependencia","highlightTable2": "5.1 escolaridad promedio","highlightTable3": "86% empleo informal","highlightTable4": "50% pobreza multidimensional","highlightTable5": "71%  sin recolección de basura","highlightTable6": "23% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"591.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"193.77"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
@@ -1295,7 +1292,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
-      <c r="J7" s="36" t="str">
+      <c r="J7" s="32" t="str">
         <f>CONCATENATE("{",F7,'Sub-temas'!O7,G7,H7,I7)</f>
         <v xml:space="preserve">{"name": "Cabañas Oeste", "abbreviation":"cbo", "highlightTable1": "68% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "45% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"401.84"}, "highlight2":{ "name": "Densidad poblacional", "value":"210.63"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
@@ -1355,7 +1352,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
-      <c r="J8" s="36" t="str">
+      <c r="J8" s="32" t="str">
         <f>CONCATENATE("{",F8,'Sub-temas'!O8,G8,H8,I8)</f>
         <v xml:space="preserve">{"name": "Cabañas Este", "abbreviation":"cbe", "highlightTable1": "67% tasa de dependencia","highlightTable2": "5.6 escolaridad promedio","highlightTable3": "89% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "54%  sin recolección de basura","highlightTable6": "50% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"701.67"}, "highlight2":{ "name": "Densidad poblacional", "value":"98.24"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
@@ -1415,7 +1412,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"3"}, </v>
       </c>
-      <c r="J9" s="36" t="str">
+      <c r="J9" s="32" t="str">
         <f>CONCATENATE("{",F9,'Sub-temas'!O9,G9,H9,I9)</f>
         <v xml:space="preserve">{"name": "Chalatenango Norte", "abbreviation":"chn", "highlightTable1": "65% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "86% empleo informal","highlightTable4": "10% pobreza multidimensional","highlightTable5": "26%  sin recolección de basura","highlightTable6": "46% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"284.11"}, "highlight2":{ "name": "Densidad poblacional", "value":"89.67"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, </v>
       </c>
@@ -1475,7 +1472,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"10"}, </v>
       </c>
-      <c r="J10" s="36" t="str">
+      <c r="J10" s="32" t="str">
         <f>CONCATENATE("{",F10,'Sub-temas'!O10,G10,H10,I10)</f>
         <v xml:space="preserve">{"name": "Chalatenango Centro", "abbreviation":"chc", "highlightTable1": "63% tasa de dependencia","highlightTable2": "5.4 escolaridad promedio","highlightTable3": "90% empleo informal","highlightTable4": "27% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "41% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"1,018.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"83.84"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, </v>
       </c>
@@ -1535,7 +1532,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"20"}, </v>
       </c>
-      <c r="J11" s="36" t="str">
+      <c r="J11" s="32" t="str">
         <f>CONCATENATE("{",F11,'Sub-temas'!O11,G11,H11,I11)</f>
         <v xml:space="preserve">{"name": "Chalatenango Sur", "abbreviation":"chs", "highlightTable1": "59% tasa de dependencia","highlightTable2": "6.3 escolaridad promedio","highlightTable3": "89% empleo informal","highlightTable4": "20% pobreza multidimensional","highlightTable5": "26%  sin recolección de basura","highlightTable6": "35% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"713.99"}, "highlight2":{ "name": "Densidad poblacional", "value":"94.26"}, "highlight3":{ "name": "Número de distritos", "value":"20"}, </v>
       </c>
@@ -1595,7 +1592,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
-      <c r="J12" s="36" t="str">
+      <c r="J12" s="32" t="str">
         <f>CONCATENATE("{",F12,'Sub-temas'!O12,G12,H12,I12)</f>
         <v xml:space="preserve">{"name": "Cuscatlán Norte", "abbreviation":"csn", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.1 escolaridad promedio","highlightTable3": "78% empleo informal","highlightTable4": "29% pobreza multidimensional","highlightTable5": "77%  sin recolección de basura","highlightTable6": "19% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"499.17"}, "highlight2":{ "name": "Densidad poblacional", "value":"212.04"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
@@ -1655,7 +1652,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"11"}, </v>
       </c>
-      <c r="J13" s="36" t="str">
+      <c r="J13" s="32" t="str">
         <f>CONCATENATE("{",F13,'Sub-temas'!O13,G13,H13,I13)</f>
         <v xml:space="preserve">{"name": "Cuscatlán Sur", "abbreviation":"css", "highlightTable1": "52% tasa de dependencia","highlightTable2": "7.3 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "29% pobreza multidimensional","highlightTable5": "44%  sin recolección de basura","highlightTable6": "17% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"257.02"}, "highlight2":{ "name": "Densidad poblacional", "value":"630.12"}, "highlight3":{ "name": "Número de distritos", "value":"11"}, </v>
       </c>
@@ -1715,7 +1712,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"3"}, </v>
       </c>
-      <c r="J14" s="36" t="str">
+      <c r="J14" s="32" t="str">
         <f>CONCATENATE("{",F14,'Sub-temas'!O14,G14,H14,I14)</f>
         <v xml:space="preserve">{"name": "La Libertad Norte", "abbreviation":"lln", "highlightTable1": "49% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "49%  sin recolección de basura","highlightTable6": "26% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"307.39"}, "highlight2":{ "name": "Densidad poblacional", "value":"322.31"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, </v>
       </c>
@@ -1775,7 +1772,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"2"}, </v>
       </c>
-      <c r="J15" s="36" t="str">
+      <c r="J15" s="32" t="str">
         <f>CONCATENATE("{",F15,'Sub-temas'!O15,G15,H15,I15)</f>
         <v xml:space="preserve">{"name": "La Libertad Centro", "abbreviation":"llc", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7. escolaridad promedio","highlightTable3": "66% empleo informal","highlightTable4": "25% pobreza multidimensional","highlightTable5": "44%  sin recolección de basura","highlightTable6": "24% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"305.7"}, "highlight2":{ "name": "Densidad poblacional", "value":"531.15"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, </v>
       </c>
@@ -1835,7 +1832,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
-      <c r="J16" s="36" t="str">
+      <c r="J16" s="32" t="str">
         <f>CONCATENATE("{",F16,'Sub-temas'!O16,G16,H16,I16)</f>
         <v xml:space="preserve">{"name": "La Libertad Oeste", "abbreviation":"llo", "highlightTable1": "45% tasa de dependencia","highlightTable2": "7. escolaridad promedio","highlightTable3": "55% empleo informal","highlightTable4": "25% pobreza multidimensional","highlightTable5": "25%  sin recolección de basura","highlightTable6": "18% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"276.98"}, "highlight2":{ "name": "Densidad poblacional", "value":"652.96"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
@@ -1895,7 +1892,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
-      <c r="J17" s="36" t="str">
+      <c r="J17" s="32" t="str">
         <f>CONCATENATE("{",F17,'Sub-temas'!O17,G17,H17,I17)</f>
         <v xml:space="preserve">{"name": "La Libertad Este", "abbreviation":"lle", "highlightTable1": "42% tasa de dependencia","highlightTable2": "8.9 escolaridad promedio","highlightTable3": "50% empleo informal","highlightTable4": "15% pobreza multidimensional","highlightTable5": "14%  sin recolección de basura","highlightTable6": "9% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"134.58"}, "highlight2":{ "name": "Densidad poblacional", "value":"860.52"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
@@ -1955,7 +1952,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
-      <c r="J18" s="36" t="str">
+      <c r="J18" s="32" t="str">
         <f>CONCATENATE("{",F18,'Sub-temas'!O18,G18,H18,I18)</f>
         <v xml:space="preserve">{"name": "La Libertad Costa", "abbreviation":"llco", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6. escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "38% pobreza multidimensional","highlightTable5": "55%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"440.98"}, "highlight2":{ "name": "Densidad poblacional", "value":"234.78"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
@@ -2015,7 +2012,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"2"}, </v>
       </c>
-      <c r="J19" s="36" t="str">
+      <c r="J19" s="32" t="str">
         <f>CONCATENATE("{",F19,'Sub-temas'!O19,G19,H19,I19)</f>
         <v xml:space="preserve">{"name": "La Libertad Sur", "abbreviation":"lls", "highlightTable1": "38% tasa de dependencia","highlightTable2": "8.3 escolaridad promedio","highlightTable3": "61% empleo informal","highlightTable4": "24% pobreza multidimensional","highlightTable5": "40%  sin recolección de basura","highlightTable6": "13% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"187.25"}, "highlight2":{ "name": "Densidad poblacional", "value":"759.88"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, </v>
       </c>
@@ -2075,7 +2072,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"12"}, </v>
       </c>
-      <c r="J20" s="36" t="str">
+      <c r="J20" s="32" t="str">
         <f>CONCATENATE("{",F20,'Sub-temas'!O20,G20,H20,I20)</f>
         <v xml:space="preserve">{"name": "La Paz Centro", "abbreviation":"lpc", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.4 escolaridad promedio","highlightTable3": "78% empleo informal","highlightTable4": "31% pobreza multidimensional","highlightTable5": "65%  sin recolección de basura","highlightTable6": "28% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"450.42"}, "highlight2":{ "name": "Densidad poblacional", "value":"288.18"}, "highlight3":{ "name": "Número de distritos", "value":"12"}, </v>
       </c>
@@ -2135,7 +2132,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"7"}, </v>
       </c>
-      <c r="J21" s="36" t="str">
+      <c r="J21" s="32" t="str">
         <f>CONCATENATE("{",F21,'Sub-temas'!O21,G21,H21,I21)</f>
         <v xml:space="preserve">{"name": "La Paz Oeste", "abbreviation":"lpo", "highlightTable1": "48% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "69% empleo informal","highlightTable4": "30% pobreza multidimensional","highlightTable5": "73%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"381.23"}, "highlight2":{ "name": "Densidad poblacional", "value":"308.74"}, "highlight3":{ "name": "Número de distritos", "value":"7"}, </v>
       </c>
@@ -2195,7 +2192,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"3"}, </v>
       </c>
-      <c r="J22" s="36" t="str">
+      <c r="J22" s="32" t="str">
         <f>CONCATENATE("{",F22,'Sub-temas'!O22,G22,H22,I22)</f>
         <v xml:space="preserve">{"name": "La Paz Este", "abbreviation":"lpe", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.7 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "33% pobreza multidimensional","highlightTable5": "67%  sin recolección de basura","highlightTable6": "20% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"391.96"}, "highlight2":{ "name": "Densidad poblacional", "value":"285.85"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, </v>
       </c>
@@ -2255,7 +2252,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"10"}, </v>
       </c>
-      <c r="J23" s="36" t="str">
+      <c r="J23" s="32" t="str">
         <f>CONCATENATE("{",F23,'Sub-temas'!O23,G23,H23,I23)</f>
         <v xml:space="preserve">{"name": "La Unión Norte", "abbreviation":"lun", "highlightTable1": "76% tasa de dependencia","highlightTable2": "5.2 escolaridad promedio","highlightTable3": "91% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "68%  sin recolección de basura","highlightTable6": "60% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"1,155.65"}, "highlight2":{ "name": "Densidad poblacional", "value":"93.17"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, </v>
       </c>
@@ -2315,7 +2312,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"8"}, </v>
       </c>
-      <c r="J24" s="36" t="str">
+      <c r="J24" s="32" t="str">
         <f>CONCATENATE("{",F24,'Sub-temas'!O24,G24,H24,I24)</f>
         <v xml:space="preserve">{"name": "La Unión Sur", "abbreviation":"lus", "highlightTable1": "72% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "30% pobreza multidimensional","highlightTable5": "64%  sin recolección de basura","highlightTable6": "45% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"918.74"}, "highlight2":{ "name": "Densidad poblacional", "value":"131.39"}, "highlight3":{ "name": "Número de distritos", "value":"8"}, </v>
       </c>
@@ -2375,7 +2372,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"11"}, </v>
       </c>
-      <c r="J25" s="36" t="str">
+      <c r="J25" s="32" t="str">
         <f>CONCATENATE("{",F25,'Sub-temas'!O25,G25,H25,I25)</f>
         <v xml:space="preserve">{"name": "Morazán Norte", "abbreviation":"mzn", "highlightTable1": "63% tasa de dependencia","highlightTable2": "5.5 escolaridad promedio","highlightTable3": "94% empleo informal","highlightTable4": "47% pobreza multidimensional","highlightTable5": "69%  sin recolección de basura","highlightTable6": "30% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"735.15"}, "highlight2":{ "name": "Densidad poblacional", "value":"86.26"}, "highlight3":{ "name": "Número de distritos", "value":"11"}, </v>
       </c>
@@ -2435,7 +2432,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"15"}, </v>
       </c>
-      <c r="J26" s="36" t="str">
+      <c r="J26" s="32" t="str">
         <f>CONCATENATE("{",F26,'Sub-temas'!O26,G26,H26,I26)</f>
         <v xml:space="preserve">{"name": "Morazán Sur", "abbreviation":"mzs", "highlightTable1": "58% tasa de dependencia","highlightTable2": "6.1 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "31% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "39% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"712.3"}, "highlight2":{ "name": "Densidad poblacional", "value":"183.73"}, "highlight3":{ "name": "Número de distritos", "value":"15"}, </v>
       </c>
@@ -2495,7 +2492,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"8"}, </v>
       </c>
-      <c r="J27" s="36" t="str">
+      <c r="J27" s="32" t="str">
         <f>CONCATENATE("{",F27,'Sub-temas'!O27,G27,H27,I27)</f>
         <v xml:space="preserve">{"name": "San Miguel Norte", "abbreviation":"smn", "highlightTable1": "66% tasa de dependencia","highlightTable2": "5.1 escolaridad promedio","highlightTable3": "94% empleo informal","highlightTable4": "36% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "54% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"758.96"}, "highlight2":{ "name": "Densidad poblacional", "value":"107.46"}, "highlight3":{ "name": "Número de distritos", "value":"8"}, </v>
       </c>
@@ -2555,7 +2552,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
-      <c r="J28" s="36" t="str">
+      <c r="J28" s="32" t="str">
         <f>CONCATENATE("{",F28,'Sub-temas'!O28,G28,H28,I28)</f>
         <v xml:space="preserve">{"name": "San Miguel Centro", "abbreviation":"smc", "highlightTable1": "54% tasa de dependencia","highlightTable2": "8. escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "41%  sin recolección de basura","highlightTable6": "34% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"997.08"}, "highlight2":{ "name": "Densidad poblacional", "value":"281.39"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
@@ -2615,7 +2612,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
-      <c r="J29" s="36" t="str">
+      <c r="J29" s="32" t="str">
         <f>CONCATENATE("{",F29,'Sub-temas'!O29,G29,H29,I29)</f>
         <v xml:space="preserve">{"name": "San Miguel Oeste", "abbreviation":"smo", "highlightTable1": "61% tasa de dependencia","highlightTable2": "6.4 escolaridad promedio","highlightTable3": "81% empleo informal","highlightTable4": "36% pobreza multidimensional","highlightTable5": "83%  sin recolección de basura","highlightTable6": "36% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"321.06"}, "highlight2":{ "name": "Densidad poblacional", "value":"317.83"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
@@ -2675,7 +2672,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"3"}, </v>
       </c>
-      <c r="J30" s="36" t="str">
+      <c r="J30" s="32" t="str">
         <f>CONCATENATE("{",F30,'Sub-temas'!O30,G30,H30,I30)</f>
         <v xml:space="preserve">{"name": "San Salvador Norte", "abbreviation":"ssn", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "37%  sin recolección de basura","highlightTable6": "30% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"222.86"}, "highlight2":{ "name": "Densidad poblacional", "value":"337.77"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, </v>
       </c>
@@ -2735,7 +2732,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
-      <c r="J31" s="36" t="str">
+      <c r="J31" s="32" t="str">
         <f>CONCATENATE("{",F31,'Sub-temas'!O31,G31,H31,I31)</f>
         <v xml:space="preserve">{"name": "San Salvador Centro", "abbreviation":"ssc", "highlightTable1": "45% tasa de dependencia","highlightTable2": "9.8 escolaridad promedio","highlightTable3": "51% empleo informal","highlightTable4": "10% pobreza multidimensional","highlightTable5": "11%  sin recolección de basura","highlightTable6": "17% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"141.6"}, "highlight2":{ "name": "Densidad poblacional", "value":"4,984.52"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
@@ -2795,7 +2792,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"2"}, </v>
       </c>
-      <c r="J32" s="36" t="str">
+      <c r="J32" s="32" t="str">
         <f>CONCATENATE("{",F32,'Sub-temas'!O32,G32,H32,I32)</f>
         <v xml:space="preserve">{"name": "San Salvador Oeste", "abbreviation":"sso", "highlightTable1": "45% tasa de dependencia","highlightTable2": "8. escolaridad promedio","highlightTable3": "59% empleo informal","highlightTable4": "17% pobreza multidimensional","highlightTable5": "21%  sin recolección de basura","highlightTable6": "18% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"135.2"}, "highlight2":{ "name": "Densidad poblacional", "value":"1,418.12"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, </v>
       </c>
@@ -2855,7 +2852,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
-      <c r="J33" s="36" t="str">
+      <c r="J33" s="32" t="str">
         <f>CONCATENATE("{",F33,'Sub-temas'!O33,G33,H33,I33)</f>
         <v xml:space="preserve">{"name": "San Salvador Este", "abbreviation":"sse", "highlightTable1": "43% tasa de dependencia","highlightTable2": "8.7 escolaridad promedio","highlightTable3": "55% empleo informal","highlightTable4": "11% pobreza multidimensional","highlightTable5": "19%  sin recolección de basura","highlightTable6": "19% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"187.74"}, "highlight2":{ "name": "Densidad poblacional", "value":"3,056.67"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
@@ -2915,7 +2912,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
-      <c r="J34" s="36" t="str">
+      <c r="J34" s="32" t="str">
         <f>CONCATENATE("{",F34,'Sub-temas'!O34,G34,H34,I34)</f>
         <v xml:space="preserve">{"name": "San Salvador Sur", "abbreviation":"sss", "highlightTable1": "51% tasa de dependencia","highlightTable2": "8.3 escolaridad promedio","highlightTable3": "58% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "27%  sin recolección de basura","highlightTable6": "11% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"198.75"}, "highlight2":{ "name": "Densidad poblacional", "value":"924.66"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
@@ -2975,7 +2972,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"7"}, </v>
       </c>
-      <c r="J35" s="36" t="str">
+      <c r="J35" s="32" t="str">
         <f>CONCATENATE("{",F35,'Sub-temas'!O35,G35,H35,I35)</f>
         <v xml:space="preserve">{"name": "San Vicente Norte", "abbreviation":"svn", "highlightTable1": "56% tasa de dependencia","highlightTable2": "7.1 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "28% pobreza multidimensional","highlightTable5": "70%  sin recolección de basura","highlightTable6": "35% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"556.48"}, "highlight2":{ "name": "Densidad poblacional", "value":"122.58"}, "highlight3":{ "name": "Número de distritos", "value":"7"}, </v>
       </c>
@@ -3035,7 +3032,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
-      <c r="J36" s="36" t="str">
+      <c r="J36" s="32" t="str">
         <f>CONCATENATE("{",F36,'Sub-temas'!O36,G36,H36,I36)</f>
         <v xml:space="preserve">{"name": "San Vicente Sur", "abbreviation":"svs", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.7 escolaridad promedio","highlightTable3": "82% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "36%  sin recolección de basura","highlightTable6": "31% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"627.54"}, "highlight2":{ "name": "Densidad poblacional", "value":"169.68"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
@@ -3095,7 +3092,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
-      <c r="J37" s="36" t="str">
+      <c r="J37" s="32" t="str">
         <f>CONCATENATE("{",F37,'Sub-temas'!O37,G37,H37,I37)</f>
         <v xml:space="preserve">{"name": "Santa Ana Norte", "abbreviation":"san", "highlightTable1": "60% tasa de dependencia","highlightTable2": "5.6 escolaridad promedio","highlightTable3": "83% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "42%  sin recolección de basura","highlightTable6": "46% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"956.97"}, "highlight2":{ "name": "Densidad poblacional", "value":"106.35"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
@@ -3155,7 +3152,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"1"}, </v>
       </c>
-      <c r="J38" s="36" t="str">
+      <c r="J38" s="32" t="str">
         <f>CONCATENATE("{",F38,'Sub-temas'!O38,G38,H38,I38)</f>
         <v xml:space="preserve">{"name": "Santa Ana Centro", "abbreviation":"sac", "highlightTable1": "49% tasa de dependencia","highlightTable2": "6.8 escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "27% pobreza multidimensional","highlightTable5": "29%  sin recolección de basura","highlightTable6": "31% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"400.05"}, "highlight2":{ "name": "Densidad poblacional", "value":"625.72"}, "highlight3":{ "name": "Número de distritos", "value":"1"}, </v>
       </c>
@@ -3215,7 +3212,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
-      <c r="J39" s="36" t="str">
+      <c r="J39" s="32" t="str">
         <f>CONCATENATE("{",F39,'Sub-temas'!O39,G39,H39,I39)</f>
         <v xml:space="preserve">{"name": "Santa Ana Oeste", "abbreviation":"sao", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "20% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "23% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"447.87"}, "highlight2":{ "name": "Densidad poblacional", "value":"314.89"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
@@ -3275,7 +3272,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"2"}, </v>
       </c>
-      <c r="J40" s="36" t="str">
+      <c r="J40" s="32" t="str">
         <f>CONCATENATE("{",F40,'Sub-temas'!O40,G40,H40,I40)</f>
         <v xml:space="preserve">{"name": "Santa Ana Este", "abbreviation":"sae", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.3 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "55%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"218.28"}, "highlight2":{ "name": "Densidad poblacional", "value":"308.71"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, </v>
       </c>
@@ -3335,7 +3332,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
-      <c r="J41" s="36" t="str">
+      <c r="J41" s="32" t="str">
         <f>CONCATENATE("{",F41,'Sub-temas'!O41,G41,H41,I41)</f>
         <v xml:space="preserve">{"name": "Sonsonate Norte", "abbreviation":"snn", "highlightTable1": "56% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "77% empleo informal","highlightTable4": "46% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "8% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"186.91"}, "highlight2":{ "name": "Densidad poblacional", "value":"537.12"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
@@ -3395,7 +3392,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
-      <c r="J42" s="36" t="str">
+      <c r="J42" s="32" t="str">
         <f>CONCATENATE("{",F42,'Sub-temas'!O42,G42,H42,I42)</f>
         <v xml:space="preserve">{"name": "Sonsonate Centro", "abbreviation":"snc", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.8 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "25%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"329.38"}, "highlight2":{ "name": "Densidad poblacional", "value":"482.76"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, </v>
       </c>
@@ -3455,7 +3452,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"1"}, </v>
       </c>
-      <c r="J43" s="36" t="str">
+      <c r="J43" s="32" t="str">
         <f>CONCATENATE("{",F43,'Sub-temas'!O43,G43,H43,I43)</f>
         <v xml:space="preserve">{"name": "Sonsonate Oeste", "abbreviation":"sno", "highlightTable1": "49% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "35% pobreza multidimensional","highlightTable5": "70%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"166.59"}, "highlight2":{ "name": "Densidad poblacional", "value":"350.81"}, "highlight3":{ "name": "Número de distritos", "value":"1"}, </v>
       </c>
@@ -3515,7 +3512,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
-      <c r="J44" s="36" t="str">
+      <c r="J44" s="32" t="str">
         <f>CONCATENATE("{",F44,'Sub-temas'!O44,G44,H44,I44)</f>
         <v xml:space="preserve">{"name": "Sonsonate Este", "abbreviation":"sne", "highlightTable1": "53% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "69% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "50%  sin recolección de basura","highlightTable6": "14% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"542.89"}, "highlight2":{ "name": "Densidad poblacional", "value":"347.83"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, </v>
       </c>
@@ -3575,7 +3572,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"9"}, </v>
       </c>
-      <c r="J45" s="36" t="str">
+      <c r="J45" s="32" t="str">
         <f>CONCATENATE("{",F45,'Sub-temas'!O45,G45,H45,I45)</f>
         <v xml:space="preserve">{"name": "Usulután Norte", "abbreviation":"usn", "highlightTable1": "63% tasa de dependencia","highlightTable2": "7.1 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "38% pobreza multidimensional","highlightTable5": "36%  sin recolección de basura","highlightTable6": "27% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"551.69"}, "highlight2":{ "name": "Densidad poblacional", "value":"202.82"}, "highlight3":{ "name": "Número de distritos", "value":"9"}, </v>
       </c>
@@ -3635,7 +3632,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
-      <c r="J46" s="36" t="str">
+      <c r="J46" s="32" t="str">
         <f>CONCATENATE("{",F46,'Sub-temas'!O46,G46,H46,I46)</f>
         <v xml:space="preserve">{"name": "Usulután Oeste", "abbreviation":"uso", "highlightTable1": "61% tasa de dependencia","highlightTable2": "5.4 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "42% pobreza multidimensional","highlightTable5": "83%  sin recolección de basura","highlightTable6": "34% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"747.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"104.03"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, </v>
       </c>
@@ -3695,7 +3692,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">"highlight3":{ "name": "Número de distritos", "value":"10"}, </v>
       </c>
-      <c r="J47" s="36" t="str">
+      <c r="J47" s="32" t="str">
         <f>CONCATENATE("{",F47,'Sub-temas'!O47,G47,H47,I47)</f>
         <v xml:space="preserve">{"name": "Usulután Este", "abbreviation":"use", "highlightTable1": "59% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "83% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "69%  sin recolección de basura","highlightTable6": "40% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"831.32"}, "highlight2":{ "name": "Densidad poblacional", "value":"191.54"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, </v>
       </c>
@@ -8531,7 +8528,7 @@
     <col min="12" max="12" width="65.21875" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="40.44140625" customWidth="1"/>
-    <col min="15" max="15" width="40.109375" style="41" customWidth="1"/>
+    <col min="15" max="15" width="40.109375" style="37" customWidth="1"/>
     <col min="16" max="17" width="15" customWidth="1"/>
     <col min="18" max="19" width="17" customWidth="1"/>
     <col min="20" max="29" width="15" customWidth="1"/>
@@ -8544,28 +8541,28 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
       <c r="F1" s="20"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="33"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="39"/>
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -8576,30 +8573,30 @@
         <v>82</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="39"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -8663,7 +8660,7 @@
         <f>CONCATENATE("""" &amp; "highlightTable6"  &amp; """", ": ", """" &amp;  TEXT(M3,"##%") &amp; " " &amp; $M$2 &amp; """, ")</f>
         <v xml:space="preserve">"highlightTable6": "25% receptores de remesas", </v>
       </c>
-      <c r="O3" s="40" t="str">
+      <c r="O3" s="36" t="str">
         <f>CONCATENATE(D3,F3,H3,J3,L3,N3)</f>
         <v xml:space="preserve">"highlightTable1": "52% tasa de dependencia", "highlightTable2": "7.3 escolaridad promedio", "highlightTable3": "70% empleo informal", "highlightTable4": "25% pobreza multidimensional", "highlightTable5": "43%  sin recolección de basura","highlightTable6": "25% receptores de remesas", </v>
       </c>
@@ -8730,7 +8727,7 @@
         <f t="shared" ref="N4:N47" si="5">CONCATENATE("""" &amp; "highlightTable6"  &amp; """", ": ", """" &amp;  TEXT(M4,"##%") &amp; " " &amp; $M$2 &amp; """, ")</f>
         <v xml:space="preserve">"highlightTable6": "15% receptores de remesas", </v>
       </c>
-      <c r="O4" s="40" t="str">
+      <c r="O4" s="36" t="str">
         <f t="shared" ref="O4:O47" si="6">CONCATENATE(D4,F4,H4,J4,L4,N4)</f>
         <v xml:space="preserve">"highlightTable1": "49% tasa de dependencia","highlightTable2": "7.2 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "61%  sin recolección de basura","highlightTable6": "15% receptores de remesas", </v>
       </c>
@@ -8797,7 +8794,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "13% receptores de remesas", </v>
       </c>
-      <c r="O5" s="40" t="str">
+      <c r="O5" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "53% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "40% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "13% receptores de remesas", </v>
       </c>
@@ -8867,7 +8864,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "23% receptores de remesas", </v>
       </c>
-      <c r="O6" s="40" t="str">
+      <c r="O6" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "62% tasa de dependencia","highlightTable2": "5.1 escolaridad promedio","highlightTable3": "86% empleo informal","highlightTable4": "50% pobreza multidimensional","highlightTable5": "71%  sin recolección de basura","highlightTable6": "23% receptores de remesas", </v>
       </c>
@@ -8934,7 +8931,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "45% receptores de remesas", </v>
       </c>
-      <c r="O7" s="40" t="str">
+      <c r="O7" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "68% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "45% receptores de remesas", </v>
       </c>
@@ -9001,7 +8998,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "50% receptores de remesas", </v>
       </c>
-      <c r="O8" s="40" t="str">
+      <c r="O8" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "67% tasa de dependencia","highlightTable2": "5.6 escolaridad promedio","highlightTable3": "89% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "54%  sin recolección de basura","highlightTable6": "50% receptores de remesas", </v>
       </c>
@@ -9068,7 +9065,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "46% receptores de remesas", </v>
       </c>
-      <c r="O9" s="40" t="str">
+      <c r="O9" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "65% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "86% empleo informal","highlightTable4": "10% pobreza multidimensional","highlightTable5": "26%  sin recolección de basura","highlightTable6": "46% receptores de remesas", </v>
       </c>
@@ -9135,7 +9132,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "41% receptores de remesas", </v>
       </c>
-      <c r="O10" s="40" t="str">
+      <c r="O10" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "63% tasa de dependencia","highlightTable2": "5.4 escolaridad promedio","highlightTable3": "90% empleo informal","highlightTable4": "27% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "41% receptores de remesas", </v>
       </c>
@@ -9202,7 +9199,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "35% receptores de remesas", </v>
       </c>
-      <c r="O11" s="40" t="str">
+      <c r="O11" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "59% tasa de dependencia","highlightTable2": "6.3 escolaridad promedio","highlightTable3": "89% empleo informal","highlightTable4": "20% pobreza multidimensional","highlightTable5": "26%  sin recolección de basura","highlightTable6": "35% receptores de remesas", </v>
       </c>
@@ -9269,7 +9266,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "19% receptores de remesas", </v>
       </c>
-      <c r="O12" s="40" t="str">
+      <c r="O12" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "52% tasa de dependencia","highlightTable2": "6.1 escolaridad promedio","highlightTable3": "78% empleo informal","highlightTable4": "29% pobreza multidimensional","highlightTable5": "77%  sin recolección de basura","highlightTable6": "19% receptores de remesas", </v>
       </c>
@@ -9336,7 +9333,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "17% receptores de remesas", </v>
       </c>
-      <c r="O13" s="40" t="str">
+      <c r="O13" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "52% tasa de dependencia","highlightTable2": "7.3 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "29% pobreza multidimensional","highlightTable5": "44%  sin recolección de basura","highlightTable6": "17% receptores de remesas", </v>
       </c>
@@ -9403,7 +9400,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "26% receptores de remesas", </v>
       </c>
-      <c r="O14" s="40" t="str">
+      <c r="O14" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "49% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "49%  sin recolección de basura","highlightTable6": "26% receptores de remesas", </v>
       </c>
@@ -9470,7 +9467,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "24% receptores de remesas", </v>
       </c>
-      <c r="O15" s="40" t="str">
+      <c r="O15" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "49% tasa de dependencia","highlightTable2": "7. escolaridad promedio","highlightTable3": "66% empleo informal","highlightTable4": "25% pobreza multidimensional","highlightTable5": "44%  sin recolección de basura","highlightTable6": "24% receptores de remesas", </v>
       </c>
@@ -9537,7 +9534,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "18% receptores de remesas", </v>
       </c>
-      <c r="O16" s="40" t="str">
+      <c r="O16" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "45% tasa de dependencia","highlightTable2": "7. escolaridad promedio","highlightTable3": "55% empleo informal","highlightTable4": "25% pobreza multidimensional","highlightTable5": "25%  sin recolección de basura","highlightTable6": "18% receptores de remesas", </v>
       </c>
@@ -9604,7 +9601,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "9% receptores de remesas", </v>
       </c>
-      <c r="O17" s="40" t="str">
+      <c r="O17" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "42% tasa de dependencia","highlightTable2": "8.9 escolaridad promedio","highlightTable3": "50% empleo informal","highlightTable4": "15% pobreza multidimensional","highlightTable5": "14%  sin recolección de basura","highlightTable6": "9% receptores de remesas", </v>
       </c>
@@ -9671,7 +9668,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "25% receptores de remesas", </v>
       </c>
-      <c r="O18" s="40" t="str">
+      <c r="O18" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "55% tasa de dependencia","highlightTable2": "6. escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "38% pobreza multidimensional","highlightTable5": "55%  sin recolección de basura","highlightTable6": "25% receptores de remesas", </v>
       </c>
@@ -9738,7 +9735,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "13% receptores de remesas", </v>
       </c>
-      <c r="O19" s="40" t="str">
+      <c r="O19" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "38% tasa de dependencia","highlightTable2": "8.3 escolaridad promedio","highlightTable3": "61% empleo informal","highlightTable4": "24% pobreza multidimensional","highlightTable5": "40%  sin recolección de basura","highlightTable6": "13% receptores de remesas", </v>
       </c>
@@ -9805,7 +9802,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "28% receptores de remesas", </v>
       </c>
-      <c r="O20" s="40" t="str">
+      <c r="O20" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "52% tasa de dependencia","highlightTable2": "6.4 escolaridad promedio","highlightTable3": "78% empleo informal","highlightTable4": "31% pobreza multidimensional","highlightTable5": "65%  sin recolección de basura","highlightTable6": "28% receptores de remesas", </v>
       </c>
@@ -9872,7 +9869,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "22% receptores de remesas", </v>
       </c>
-      <c r="O21" s="40" t="str">
+      <c r="O21" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "48% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "69% empleo informal","highlightTable4": "30% pobreza multidimensional","highlightTable5": "73%  sin recolección de basura","highlightTable6": "22% receptores de remesas", </v>
       </c>
@@ -9939,7 +9936,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "20% receptores de remesas", </v>
       </c>
-      <c r="O22" s="40" t="str">
+      <c r="O22" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "49% tasa de dependencia","highlightTable2": "7.7 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "33% pobreza multidimensional","highlightTable5": "67%  sin recolección de basura","highlightTable6": "20% receptores de remesas", </v>
       </c>
@@ -10006,7 +10003,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "60% receptores de remesas", </v>
       </c>
-      <c r="O23" s="40" t="str">
+      <c r="O23" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "76% tasa de dependencia","highlightTable2": "5.2 escolaridad promedio","highlightTable3": "91% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "68%  sin recolección de basura","highlightTable6": "60% receptores de remesas", </v>
       </c>
@@ -10073,7 +10070,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "45% receptores de remesas", </v>
       </c>
-      <c r="O24" s="40" t="str">
+      <c r="O24" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "72% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "30% pobreza multidimensional","highlightTable5": "64%  sin recolección de basura","highlightTable6": "45% receptores de remesas", </v>
       </c>
@@ -10140,7 +10137,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "30% receptores de remesas", </v>
       </c>
-      <c r="O25" s="40" t="str">
+      <c r="O25" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "63% tasa de dependencia","highlightTable2": "5.5 escolaridad promedio","highlightTable3": "94% empleo informal","highlightTable4": "47% pobreza multidimensional","highlightTable5": "69%  sin recolección de basura","highlightTable6": "30% receptores de remesas", </v>
       </c>
@@ -10207,7 +10204,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "39% receptores de remesas", </v>
       </c>
-      <c r="O26" s="40" t="str">
+      <c r="O26" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "58% tasa de dependencia","highlightTable2": "6.1 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "31% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "39% receptores de remesas", </v>
       </c>
@@ -10274,7 +10271,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "54% receptores de remesas", </v>
       </c>
-      <c r="O27" s="40" t="str">
+      <c r="O27" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "66% tasa de dependencia","highlightTable2": "5.1 escolaridad promedio","highlightTable3": "94% empleo informal","highlightTable4": "36% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "54% receptores de remesas", </v>
       </c>
@@ -10341,7 +10338,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "34% receptores de remesas", </v>
       </c>
-      <c r="O28" s="40" t="str">
+      <c r="O28" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "54% tasa de dependencia","highlightTable2": "8. escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "41%  sin recolección de basura","highlightTable6": "34% receptores de remesas", </v>
       </c>
@@ -10408,7 +10405,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "36% receptores de remesas", </v>
       </c>
-      <c r="O29" s="40" t="str">
+      <c r="O29" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "61% tasa de dependencia","highlightTable2": "6.4 escolaridad promedio","highlightTable3": "81% empleo informal","highlightTable4": "36% pobreza multidimensional","highlightTable5": "83%  sin recolección de basura","highlightTable6": "36% receptores de remesas", </v>
       </c>
@@ -10475,7 +10472,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "30% receptores de remesas", </v>
       </c>
-      <c r="O30" s="40" t="str">
+      <c r="O30" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "55% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "37%  sin recolección de basura","highlightTable6": "30% receptores de remesas", </v>
       </c>
@@ -10542,7 +10539,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "17% receptores de remesas", </v>
       </c>
-      <c r="O31" s="40" t="str">
+      <c r="O31" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "45% tasa de dependencia","highlightTable2": "9.8 escolaridad promedio","highlightTable3": "51% empleo informal","highlightTable4": "10% pobreza multidimensional","highlightTable5": "11%  sin recolección de basura","highlightTable6": "17% receptores de remesas", </v>
       </c>
@@ -10609,7 +10606,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "18% receptores de remesas", </v>
       </c>
-      <c r="O32" s="40" t="str">
+      <c r="O32" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "45% tasa de dependencia","highlightTable2": "8. escolaridad promedio","highlightTable3": "59% empleo informal","highlightTable4": "17% pobreza multidimensional","highlightTable5": "21%  sin recolección de basura","highlightTable6": "18% receptores de remesas", </v>
       </c>
@@ -10676,7 +10673,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "19% receptores de remesas", </v>
       </c>
-      <c r="O33" s="40" t="str">
+      <c r="O33" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "43% tasa de dependencia","highlightTable2": "8.7 escolaridad promedio","highlightTable3": "55% empleo informal","highlightTable4": "11% pobreza multidimensional","highlightTable5": "19%  sin recolección de basura","highlightTable6": "19% receptores de remesas", </v>
       </c>
@@ -10743,7 +10740,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "11% receptores de remesas", </v>
       </c>
-      <c r="O34" s="40" t="str">
+      <c r="O34" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "51% tasa de dependencia","highlightTable2": "8.3 escolaridad promedio","highlightTable3": "58% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "27%  sin recolección de basura","highlightTable6": "11% receptores de remesas", </v>
       </c>
@@ -10810,7 +10807,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "35% receptores de remesas", </v>
       </c>
-      <c r="O35" s="40" t="str">
+      <c r="O35" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "56% tasa de dependencia","highlightTable2": "7.1 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "28% pobreza multidimensional","highlightTable5": "70%  sin recolección de basura","highlightTable6": "35% receptores de remesas", </v>
       </c>
@@ -10877,7 +10874,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "31% receptores de remesas", </v>
       </c>
-      <c r="O36" s="40" t="str">
+      <c r="O36" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "52% tasa de dependencia","highlightTable2": "6.7 escolaridad promedio","highlightTable3": "82% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "36%  sin recolección de basura","highlightTable6": "31% receptores de remesas", </v>
       </c>
@@ -10944,7 +10941,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "46% receptores de remesas", </v>
       </c>
-      <c r="O37" s="40" t="str">
+      <c r="O37" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "60% tasa de dependencia","highlightTable2": "5.6 escolaridad promedio","highlightTable3": "83% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "42%  sin recolección de basura","highlightTable6": "46% receptores de remesas", </v>
       </c>
@@ -11011,7 +11008,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "31% receptores de remesas", </v>
       </c>
-      <c r="O38" s="40" t="str">
+      <c r="O38" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "49% tasa de dependencia","highlightTable2": "6.8 escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "27% pobreza multidimensional","highlightTable5": "29%  sin recolección de basura","highlightTable6": "31% receptores de remesas", </v>
       </c>
@@ -11078,7 +11075,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "23% receptores de remesas", </v>
       </c>
-      <c r="O39" s="40" t="str">
+      <c r="O39" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "55% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "20% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "23% receptores de remesas", </v>
       </c>
@@ -11145,7 +11142,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "22% receptores de remesas", </v>
       </c>
-      <c r="O40" s="40" t="str">
+      <c r="O40" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "55% tasa de dependencia","highlightTable2": "6.3 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "55%  sin recolección de basura","highlightTable6": "22% receptores de remesas", </v>
       </c>
@@ -11212,7 +11209,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "8% receptores de remesas", </v>
       </c>
-      <c r="O41" s="40" t="str">
+      <c r="O41" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "56% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "77% empleo informal","highlightTable4": "46% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "8% receptores de remesas", </v>
       </c>
@@ -11279,7 +11276,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "22% receptores de remesas", </v>
       </c>
-      <c r="O42" s="40" t="str">
+      <c r="O42" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "49% tasa de dependencia","highlightTable2": "7.8 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "25%  sin recolección de basura","highlightTable6": "22% receptores de remesas", </v>
       </c>
@@ -11346,7 +11343,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "25% receptores de remesas", </v>
       </c>
-      <c r="O43" s="40" t="str">
+      <c r="O43" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "49% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "35% pobreza multidimensional","highlightTable5": "70%  sin recolección de basura","highlightTable6": "25% receptores de remesas", </v>
       </c>
@@ -11413,7 +11410,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "14% receptores de remesas", </v>
       </c>
-      <c r="O44" s="40" t="str">
+      <c r="O44" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "53% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "69% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "50%  sin recolección de basura","highlightTable6": "14% receptores de remesas", </v>
       </c>
@@ -11480,7 +11477,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "27% receptores de remesas", </v>
       </c>
-      <c r="O45" s="40" t="str">
+      <c r="O45" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "63% tasa de dependencia","highlightTable2": "7.1 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "38% pobreza multidimensional","highlightTable5": "36%  sin recolección de basura","highlightTable6": "27% receptores de remesas", </v>
       </c>
@@ -11547,7 +11544,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "34% receptores de remesas", </v>
       </c>
-      <c r="O46" s="40" t="str">
+      <c r="O46" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "61% tasa de dependencia","highlightTable2": "5.4 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "42% pobreza multidimensional","highlightTable5": "83%  sin recolección de basura","highlightTable6": "34% receptores de remesas", </v>
       </c>
@@ -11614,7 +11611,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">"highlightTable6": "40% receptores de remesas", </v>
       </c>
-      <c r="O47" s="40" t="str">
+      <c r="O47" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">"highlightTable1": "59% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "83% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "69%  sin recolección de basura","highlightTable6": "40% receptores de remesas", </v>
       </c>
@@ -12603,8 +12600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1002"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12627,42 +12624,42 @@
     <row r="1" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -12755,7 +12752,7 @@
         <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $K$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(K3,"##%") &amp; """","}")</f>
         <v>{"description": "Tasa de dependencia", "value":"52%"}</v>
       </c>
-      <c r="M3" s="36" t="str">
+      <c r="M3" s="32" t="str">
         <f>CONCATENATE("""" &amp; "category1" &amp;""": [",D3,",",F3,",",H3,",",J3,",",L3,"]")</f>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"6,338,881"},{"description": "Porcentaje de personas que residen en el área rural", "value":"38%"},{"description": "Índice de masculinidad", "value":"87.6"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"52%"}]</v>
       </c>
@@ -12822,7 +12819,7 @@
         <f t="shared" ref="L4:L47" si="4">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $K$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(K4,"##%") &amp; """","}")</f>
         <v>{"description": "Tasa de dependencia", "value":"49%"}</v>
       </c>
-      <c r="M4" s="36" t="str">
+      <c r="M4" s="32" t="str">
         <f t="shared" ref="M4:M47" si="5">CONCATENATE("""" &amp; "category1" &amp;""": [",D4,",",F4,",",H4,",",J4,",",L4,"]")</f>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"72,418"},{"description": "Porcentaje de personas que residen en el área rural", "value":"39%"},{"description": "Índice de masculinidad", "value":"92.87"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"49%"}]</v>
       </c>
@@ -12889,7 +12886,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"53%"}</v>
       </c>
-      <c r="M5" s="36" t="str">
+      <c r="M5" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"18,079"},{"description": "Porcentaje de personas que residen en el área rural", "value":"47%"},{"description": "Índice de masculinidad", "value":"94.42"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"53%"}]</v>
       </c>
@@ -12959,7 +12956,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"62%"}</v>
       </c>
-      <c r="M6" s="36" t="str">
+      <c r="M6" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"114,603"},{"description": "Porcentaje de personas que residen en el área rural", "value":"73%"},{"description": "Índice de masculinidad", "value":"92.85"},{"description": "Índice de envejecimiento", "value":"22%"},{"description": "Tasa de dependencia", "value":"62%"}]</v>
       </c>
@@ -13026,7 +13023,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"68%"}</v>
       </c>
-      <c r="M7" s="36" t="str">
+      <c r="M7" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"84,641"},{"description": "Porcentaje de personas que residen en el área rural", "value":"65%"},{"description": "Índice de masculinidad", "value":"87.9"},{"description": "Índice de envejecimiento", "value":"23%"},{"description": "Tasa de dependencia", "value":"68%"}]</v>
       </c>
@@ -13093,7 +13090,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"67%"}</v>
       </c>
-      <c r="M8" s="36" t="str">
+      <c r="M8" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"6,893"},{"description": "Porcentaje de personas que residen en el área rural", "value":"71%"},{"description": "Índice de masculinidad", "value":"90"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"67%"}]</v>
       </c>
@@ -13160,7 +13157,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"65%"}</v>
       </c>
-      <c r="M9" s="36" t="str">
+      <c r="M9" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"25,476"},{"description": "Porcentaje de personas que residen en el área rural", "value":"66%"},{"description": "Índice de masculinidad", "value":"88.82"},{"description": "Índice de envejecimiento", "value":"24%"},{"description": "Tasa de dependencia", "value":"65%"}]</v>
       </c>
@@ -13227,7 +13224,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"63%"}</v>
       </c>
-      <c r="M10" s="36" t="str">
+      <c r="M10" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"85,386"},{"description": "Porcentaje de personas que residen en el área rural", "value":"75%"},{"description": "Índice de masculinidad", "value":"87.92"},{"description": "Índice de envejecimiento", "value":"30%"},{"description": "Tasa de dependencia", "value":"63%"}]</v>
       </c>
@@ -13294,7 +13291,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"59%"}</v>
       </c>
-      <c r="M11" s="36" t="str">
+      <c r="M11" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"67,304"},{"description": "Porcentaje de personas que residen en el área rural", "value":"64%"},{"description": "Índice de masculinidad", "value":"84.81"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"59%"}]</v>
       </c>
@@ -13361,7 +13358,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"52%"}</v>
       </c>
-      <c r="M12" s="36" t="str">
+      <c r="M12" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"105,844"},{"description": "Porcentaje de personas que residen en el área rural", "value":"78%"},{"description": "Índice de masculinidad", "value":"87.32"},{"description": "Índice de envejecimiento", "value":"28%"},{"description": "Tasa de dependencia", "value":"52%"}]</v>
       </c>
@@ -13428,7 +13425,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"52%"}</v>
       </c>
-      <c r="M13" s="36" t="str">
+      <c r="M13" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"161,953"},{"description": "Porcentaje de personas que residen en el área rural", "value":"48%"},{"description": "Índice de masculinidad", "value":"93.61"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"52%"}]</v>
       </c>
@@ -13495,7 +13492,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"49%"}</v>
       </c>
-      <c r="M14" s="36" t="str">
+      <c r="M14" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"99,076"},{"description": "Porcentaje de personas que residen en el área rural", "value":"52%"},{"description": "Índice de masculinidad", "value":"90.52"},{"description": "Índice de envejecimiento", "value":"47%"},{"description": "Tasa de dependencia", "value":"49%"}]</v>
       </c>
@@ -13562,7 +13559,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"49%"}</v>
       </c>
-      <c r="M15" s="36" t="str">
+      <c r="M15" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"162,373"},{"description": "Porcentaje de personas que residen en el área rural", "value":"32%"},{"description": "Índice de masculinidad", "value":"89.11"},{"description": "Índice de envejecimiento", "value":"41%"},{"description": "Tasa de dependencia", "value":"49%"}]</v>
       </c>
@@ -13629,7 +13626,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"45%"}</v>
       </c>
-      <c r="M16" s="36" t="str">
+      <c r="M16" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"180,856"},{"description": "Porcentaje de personas que residen en el área rural", "value":"15%"},{"description": "Índice de masculinidad", "value":"87.84"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"45%"}]</v>
       </c>
@@ -13696,7 +13693,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"42%"}</v>
       </c>
-      <c r="M17" s="36" t="str">
+      <c r="M17" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"115,809"},{"description": "Porcentaje de personas que residen en el área rural", "value":"%"},{"description": "Índice de masculinidad", "value":"88.81"},{"description": "Índice de envejecimiento", "value":"51%"},{"description": "Tasa de dependencia", "value":"42%"}]</v>
       </c>
@@ -13763,7 +13760,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"55%"}</v>
       </c>
-      <c r="M18" s="36" t="str">
+      <c r="M18" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"103,532"},{"description": "Porcentaje de personas que residen en el área rural", "value":"56%"},{"description": "Índice de masculinidad", "value":"81.3"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"55%"}]</v>
       </c>
@@ -13830,7 +13827,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"38%"}</v>
       </c>
-      <c r="M19" s="36" t="str">
+      <c r="M19" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"142,287"},{"description": "Porcentaje de personas que residen en el área rural", "value":"48%"},{"description": "Índice de masculinidad", "value":"91.81"},{"description": "Índice de envejecimiento", "value":"65%"},{"description": "Tasa de dependencia", "value":"38%"}]</v>
       </c>
@@ -13897,7 +13894,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"52%"}</v>
       </c>
-      <c r="M20" s="36" t="str">
+      <c r="M20" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"129,803"},{"description": "Porcentaje de personas que residen en el área rural", "value":"58%"},{"description": "Índice de masculinidad", "value":"88.99"},{"description": "Índice de envejecimiento", "value":"31%"},{"description": "Tasa de dependencia", "value":"52%"}]</v>
       </c>
@@ -13964,7 +13961,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"48%"}</v>
       </c>
-      <c r="M21" s="36" t="str">
+      <c r="M21" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"117,701"},{"description": "Porcentaje de personas que residen en el área rural", "value":"37%"},{"description": "Índice de masculinidad", "value":"90.83"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"48%"}]</v>
       </c>
@@ -14031,7 +14028,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"49%"}</v>
       </c>
-      <c r="M22" s="36" t="str">
+      <c r="M22" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"112,041"},{"description": "Porcentaje de personas que residen en el área rural", "value":"50%"},{"description": "Índice de masculinidad", "value":"92.97"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"49%"}]</v>
       </c>
@@ -14098,7 +14095,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"76%"}</v>
       </c>
-      <c r="M23" s="36" t="str">
+      <c r="M23" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"107,674"},{"description": "Porcentaje de personas que residen en el área rural", "value":"79%"},{"description": "Índice de masculinidad", "value":"87.53"},{"description": "Índice de envejecimiento", "value":"30%"},{"description": "Tasa de dependencia", "value":"76%"}]</v>
       </c>
@@ -14165,7 +14162,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"72%"}</v>
       </c>
-      <c r="M24" s="36" t="str">
+      <c r="M24" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"120,712"},{"description": "Porcentaje de personas que residen en el área rural", "value":"60%"},{"description": "Índice de masculinidad", "value":"80.84"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"72%"}]</v>
       </c>
@@ -14232,7 +14229,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"63%"}</v>
       </c>
-      <c r="M25" s="36" t="str">
+      <c r="M25" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"63,417"},{"description": "Porcentaje de personas que residen en el área rural", "value":"85%"},{"description": "Índice de masculinidad", "value":"89.66"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"63%"}]</v>
       </c>
@@ -14299,7 +14296,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"58%"}</v>
       </c>
-      <c r="M26" s="36" t="str">
+      <c r="M26" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"13,087"},{"description": "Porcentaje de personas que residen en el área rural", "value":"67%"},{"description": "Índice de masculinidad", "value":"90"},{"description": "Índice de envejecimiento", "value":"32%"},{"description": "Tasa de dependencia", "value":"58%"}]</v>
       </c>
@@ -14366,7 +14363,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"66%"}</v>
       </c>
-      <c r="M27" s="36" t="str">
+      <c r="M27" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"81,558"},{"description": "Porcentaje de personas que residen en el área rural", "value":"73%"},{"description": "Índice de masculinidad", "value":"84.47"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"66%"}]</v>
       </c>
@@ -14433,7 +14430,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"54%"}</v>
       </c>
-      <c r="M28" s="36" t="str">
+      <c r="M28" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"28,057"},{"description": "Porcentaje de personas que residen en el área rural", "value":"36%"},{"description": "Índice de masculinidad", "value":"88.57"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"54%"}]</v>
       </c>
@@ -14500,7 +14497,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"61%"}</v>
       </c>
-      <c r="M29" s="36" t="str">
+      <c r="M29" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"102,043"},{"description": "Porcentaje de personas que residen en el área rural", "value":"71%"},{"description": "Índice de masculinidad", "value":"86.19"},{"description": "Índice de envejecimiento", "value":"39%"},{"description": "Tasa de dependencia", "value":"61%"}]</v>
       </c>
@@ -14567,7 +14564,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"55%"}</v>
       </c>
-      <c r="M30" s="36" t="str">
+      <c r="M30" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"75,275"},{"description": "Porcentaje de personas que residen en el área rural", "value":"29%"},{"description": "Índice de masculinidad", "value":"79.55"},{"description": "Índice de envejecimiento", "value":"46%"},{"description": "Tasa de dependencia", "value":"55%"}]</v>
       </c>
@@ -14634,7 +14631,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"45%"}</v>
       </c>
-      <c r="M31" s="36" t="str">
+      <c r="M31" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"705,808"},{"description": "Porcentaje de personas que residen en el área rural", "value":"2%"},{"description": "Índice de masculinidad", "value":"82.91"},{"description": "Índice de envejecimiento", "value":"76%"},{"description": "Tasa de dependencia", "value":"45%"}]</v>
       </c>
@@ -14701,7 +14698,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"45%"}</v>
       </c>
-      <c r="M32" s="36" t="str">
+      <c r="M32" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"19,173"},{"description": "Porcentaje de personas que residen en el área rural", "value":"11%"},{"description": "Índice de masculinidad", "value":"83.72"},{"description": "Índice de envejecimiento", "value":"39%"},{"description": "Tasa de dependencia", "value":"45%"}]</v>
       </c>
@@ -14768,7 +14765,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"43%"}</v>
       </c>
-      <c r="M33" s="36" t="str">
+      <c r="M33" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"57,386"},{"description": "Porcentaje de personas que residen en el área rural", "value":"5%"},{"description": "Índice de masculinidad", "value":"86.25"},{"description": "Índice de envejecimiento", "value":"44%"},{"description": "Tasa de dependencia", "value":"43%"}]</v>
       </c>
@@ -14835,7 +14832,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"51%"}</v>
       </c>
-      <c r="M34" s="36" t="str">
+      <c r="M34" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"183,776"},{"description": "Porcentaje de personas que residen en el área rural", "value":"30%"},{"description": "Índice de masculinidad", "value":"82.89"},{"description": "Índice de envejecimiento", "value":"45%"},{"description": "Tasa de dependencia", "value":"51%"}]</v>
       </c>
@@ -14902,7 +14899,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"56%"}</v>
       </c>
-      <c r="M35" s="36" t="str">
+      <c r="M35" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"68,211"},{"description": "Porcentaje de personas que residen en el área rural", "value":"75%"},{"description": "Índice de masculinidad", "value":"93.06"},{"description": "Índice de envejecimiento", "value":"34%"},{"description": "Tasa de dependencia", "value":"56%"}]</v>
       </c>
@@ -14969,7 +14966,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"52%"}</v>
       </c>
-      <c r="M36" s="36" t="str">
+      <c r="M36" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"106,482"},{"description": "Porcentaje de personas que residen en el área rural", "value":"42%"},{"description": "Índice de masculinidad", "value":"91.92"},{"description": "Índice de envejecimiento", "value":"35%"},{"description": "Tasa de dependencia", "value":"52%"}]</v>
       </c>
@@ -15036,7 +15033,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"60%"}</v>
       </c>
-      <c r="M37" s="36" t="str">
+      <c r="M37" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"101,775"},{"description": "Porcentaje de personas que residen en el área rural", "value":"72%"},{"description": "Índice de masculinidad", "value":"92.02"},{"description": "Índice de envejecimiento", "value":"34%"},{"description": "Tasa de dependencia", "value":"60%"}]</v>
       </c>
@@ -15103,7 +15100,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"49%"}</v>
       </c>
-      <c r="M38" s="36" t="str">
+      <c r="M38" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"250,318"},{"description": "Porcentaje de personas que residen en el área rural", "value":"17%"},{"description": "Índice de masculinidad", "value":"86.77"},{"description": "Índice de envejecimiento", "value":"43%"},{"description": "Tasa de dependencia", "value":"49%"}]</v>
       </c>
@@ -15170,7 +15167,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"55%"}</v>
       </c>
-      <c r="M39" s="36" t="str">
+      <c r="M39" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"14,103"},{"description": "Porcentaje de personas que residen en el área rural", "value":"45%"},{"description": "Índice de masculinidad", "value":"88.06"},{"description": "Índice de envejecimiento", "value":"40%"},{"description": "Tasa de dependencia", "value":"55%"}]</v>
       </c>
@@ -15237,7 +15234,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"55%"}</v>
       </c>
-      <c r="M40" s="36" t="str">
+      <c r="M40" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"67,385"},{"description": "Porcentaje de personas que residen en el área rural", "value":"52%"},{"description": "Índice de masculinidad", "value":"88.48"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"55%"}]</v>
       </c>
@@ -15304,7 +15301,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"56%"}</v>
       </c>
-      <c r="M41" s="36" t="str">
+      <c r="M41" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"100,393"},{"description": "Porcentaje de personas que residen en el área rural", "value":"49%"},{"description": "Índice de masculinidad", "value":"89.55"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"56%"}]</v>
       </c>
@@ -15371,7 +15368,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"49%"}</v>
       </c>
-      <c r="M42" s="36" t="str">
+      <c r="M42" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"159,011"},{"description": "Porcentaje de personas que residen en el área rural", "value":"22%"},{"description": "Índice de masculinidad", "value":"91.79"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"49%"}]</v>
       </c>
@@ -15438,7 +15435,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"49%"}</v>
       </c>
-      <c r="M43" s="36" t="str">
+      <c r="M43" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"58,442"},{"description": "Porcentaje de personas que residen en el área rural", "value":"46%"},{"description": "Índice de masculinidad", "value":"89.35"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"49%"}]</v>
       </c>
@@ -15505,7 +15502,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"53%"}</v>
       </c>
-      <c r="M44" s="36" t="str">
+      <c r="M44" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"188,836"},{"description": "Porcentaje de personas que residen en el área rural", "value":"49%"},{"description": "Índice de masculinidad", "value":"88.09"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"53%"}]</v>
       </c>
@@ -15572,7 +15569,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"63%"}</v>
       </c>
-      <c r="M45" s="36" t="str">
+      <c r="M45" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"111,892"},{"description": "Porcentaje de personas que residen en el área rural", "value":"34%"},{"description": "Índice de masculinidad", "value":"84.97"},{"description": "Índice de envejecimiento", "value":"35%"},{"description": "Tasa de dependencia", "value":"63%"}]</v>
       </c>
@@ -15639,7 +15636,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"61%"}</v>
       </c>
-      <c r="M46" s="36" t="str">
+      <c r="M46" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"77,755"},{"description": "Porcentaje de personas que residen en el área rural", "value":"54%"},{"description": "Índice de masculinidad", "value":"85.56"},{"description": "Índice de envejecimiento", "value":"25%"},{"description": "Tasa de dependencia", "value":"61%"}]</v>
       </c>
@@ -15706,7 +15703,7 @@
         <f t="shared" si="4"/>
         <v>{"description": "Tasa de dependencia", "value":"59%"}</v>
       </c>
-      <c r="M47" s="36" t="str">
+      <c r="M47" s="32" t="str">
         <f t="shared" si="5"/>
         <v>"category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"159,235"},{"description": "Porcentaje de personas que residen en el área rural", "value":"56%"},{"description": "Índice de masculinidad", "value":"89.35"},{"description": "Índice de envejecimiento", "value":"32%"},{"description": "Tasa de dependencia", "value":"59%"}]</v>
       </c>
@@ -16704,7 +16701,7 @@
   <dimension ref="A1:AB1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K47"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16712,11 +16709,11 @@
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="22.77734375" customWidth="1"/>
     <col min="9" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="15" style="38" customWidth="1"/>
+    <col min="11" max="11" width="15" style="34" customWidth="1"/>
     <col min="12" max="16" width="15" customWidth="1"/>
     <col min="17" max="18" width="17" customWidth="1"/>
     <col min="19" max="28" width="15" customWidth="1"/>
@@ -16725,36 +16722,36 @@
     <row r="1" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -16777,7 +16774,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="37"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -16806,8 +16803,8 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="D3" s="30" t="str">
-        <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $C$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(C3,"#,###") &amp; """","}")</f>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $C$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(C3,"###%") &amp; """","}")</f>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"}</v>
       </c>
       <c r="E3" s="15">
         <v>0.11899999999999999</v>
@@ -16830,9 +16827,9 @@
         <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $I$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(I3,"##%") &amp; """","}")</f>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}</v>
       </c>
-      <c r="K3" s="36" t="str">
+      <c r="K3" s="32" t="str">
         <f>CONCATENATE("""" &amp; "category2" &amp;""": [",D3,",",F3,",",H3,",",J3,"]")</f>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="17"/>
@@ -16862,8 +16859,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D4" s="30" t="str">
-        <f t="shared" ref="D4:D47" si="0">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $C$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(C4,"#,###") &amp; """","}")</f>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <f t="shared" ref="D4:D47" si="0">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $C$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(C4,"###%") &amp; """","}")</f>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"7%"}</v>
       </c>
       <c r="E4" s="15">
         <v>0.08</v>
@@ -16886,9 +16883,9 @@
         <f t="shared" ref="J4:J47" si="3">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $I$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(I4,"##%") &amp; """","}")</f>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}</v>
       </c>
-      <c r="K4" s="36" t="str">
+      <c r="K4" s="32" t="str">
         <f t="shared" ref="K4:K47" si="4">CONCATENATE("""" &amp; "category2" &amp;""": [",D4,",",F4,",",H4,",",J4,"]")</f>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"7.2"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"7%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"7.2"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="17"/>
@@ -16919,7 +16916,7 @@
       </c>
       <c r="D5" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"}</v>
       </c>
       <c r="E5" s="15">
         <v>0.16</v>
@@ -16942,9 +16939,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}</v>
       </c>
-      <c r="K5" s="36" t="str">
+      <c r="K5" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="17"/>
@@ -16978,7 +16975,7 @@
       </c>
       <c r="D6" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"19%"}</v>
       </c>
       <c r="E6" s="15">
         <v>0.24</v>
@@ -17001,9 +16998,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"59%"}</v>
       </c>
-      <c r="K6" s="36" t="str">
+      <c r="K6" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"24%"},{"description": "Escolaridad promedio (en años)", "value":"5.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"59%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"19%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"24%"},{"description": "Escolaridad promedio (en años)", "value":"5.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"59%"}]</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="17"/>
@@ -17034,7 +17031,7 @@
       </c>
       <c r="D7" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"14%"}</v>
       </c>
       <c r="E7" s="15">
         <v>0.15</v>
@@ -17057,9 +17054,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}</v>
       </c>
-      <c r="K7" s="36" t="str">
+      <c r="K7" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"14%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17"/>
@@ -17090,7 +17087,7 @@
       </c>
       <c r="D8" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"}</v>
       </c>
       <c r="E8" s="15">
         <v>0.17</v>
@@ -17113,9 +17110,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}</v>
       </c>
-      <c r="K8" s="36" t="str">
+      <c r="K8" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"5.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"5.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="17"/>
@@ -17146,7 +17143,7 @@
       </c>
       <c r="D9" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"}</v>
       </c>
       <c r="E9" s="15">
         <v>0.15</v>
@@ -17169,9 +17166,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}</v>
       </c>
-      <c r="K9" s="36" t="str">
+      <c r="K9" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="17"/>
@@ -17202,7 +17199,7 @@
       </c>
       <c r="D10" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"16%"}</v>
       </c>
       <c r="E10" s="15">
         <v>0.16</v>
@@ -17225,9 +17222,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}</v>
       </c>
-      <c r="K10" s="36" t="str">
+      <c r="K10" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"5.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"16%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"5.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="17"/>
@@ -17258,7 +17255,7 @@
       </c>
       <c r="D11" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"}</v>
       </c>
       <c r="E11" s="15">
         <v>0.14000000000000001</v>
@@ -17281,9 +17278,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}</v>
       </c>
-      <c r="K11" s="36" t="str">
+      <c r="K11" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"6.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"6.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}]</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="17"/>
@@ -17314,7 +17311,7 @@
       </c>
       <c r="D12" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"13%"}</v>
       </c>
       <c r="E12" s="15">
         <v>0.14000000000000001</v>
@@ -17337,9 +17334,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}</v>
       </c>
-      <c r="K12" s="36" t="str">
+      <c r="K12" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"6.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"13%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"6.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="17"/>
@@ -17370,7 +17367,7 @@
       </c>
       <c r="D13" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"8%"}</v>
       </c>
       <c r="E13" s="15">
         <v>0.12</v>
@@ -17393,9 +17390,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}</v>
       </c>
-      <c r="K13" s="36" t="str">
+      <c r="K13" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"8%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}]</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="17"/>
@@ -17426,7 +17423,7 @@
       </c>
       <c r="D14" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"}</v>
       </c>
       <c r="E14" s="15">
         <v>0.13</v>
@@ -17449,9 +17446,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}</v>
       </c>
-      <c r="K14" s="36" t="str">
+      <c r="K14" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}]</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="17"/>
@@ -17482,7 +17479,7 @@
       </c>
       <c r="D15" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"}</v>
       </c>
       <c r="E15" s="15">
         <v>0.1</v>
@@ -17505,9 +17502,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}</v>
       </c>
-      <c r="K15" s="36" t="str">
+      <c r="K15" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"7."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"7."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}]</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="17"/>
@@ -17538,7 +17535,7 @@
       </c>
       <c r="D16" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"}</v>
       </c>
       <c r="E16" s="15">
         <v>0.12</v>
@@ -17561,9 +17558,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}</v>
       </c>
-      <c r="K16" s="36" t="str">
+      <c r="K16" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}]</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="17"/>
@@ -17594,7 +17591,7 @@
       </c>
       <c r="D17" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"}</v>
       </c>
       <c r="E17" s="15">
         <v>0.05</v>
@@ -17617,9 +17614,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"81%"}</v>
       </c>
-      <c r="K17" s="36" t="str">
+      <c r="K17" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"8.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"81%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"8.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"81%"}]</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="17"/>
@@ -17650,7 +17647,7 @@
       </c>
       <c r="D18" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"}</v>
       </c>
       <c r="E18" s="15">
         <v>0.2</v>
@@ -17673,9 +17670,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}</v>
       </c>
-      <c r="K18" s="36" t="str">
+      <c r="K18" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"20%"},{"description": "Escolaridad promedio (en años)", "value":"6."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"20%"},{"description": "Escolaridad promedio (en años)", "value":"6."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="17"/>
@@ -17706,7 +17703,7 @@
       </c>
       <c r="D19" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"5%"}</v>
       </c>
       <c r="E19" s="15">
         <v>0.08</v>
@@ -17729,9 +17726,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"77%"}</v>
       </c>
-      <c r="K19" s="36" t="str">
+      <c r="K19" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"77%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"5%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"77%"}]</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="17"/>
@@ -17762,7 +17759,7 @@
       </c>
       <c r="D20" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"11%"}</v>
       </c>
       <c r="E20" s="15">
         <v>0.12</v>
@@ -17785,9 +17782,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}</v>
       </c>
-      <c r="K20" s="36" t="str">
+      <c r="K20" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"11%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}]</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="17"/>
@@ -17818,7 +17815,7 @@
       </c>
       <c r="D21" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"}</v>
       </c>
       <c r="E21" s="15">
         <v>0.12</v>
@@ -17841,9 +17838,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}</v>
       </c>
-      <c r="K21" s="36" t="str">
+      <c r="K21" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="17"/>
@@ -17874,7 +17871,7 @@
       </c>
       <c r="D22" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"7%"}</v>
       </c>
       <c r="E22" s="15">
         <v>0.1</v>
@@ -17897,9 +17894,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}</v>
       </c>
-      <c r="K22" s="36" t="str">
+      <c r="K22" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"7.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"7%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"7.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="17"/>
@@ -17930,7 +17927,7 @@
       </c>
       <c r="D23" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"}</v>
       </c>
       <c r="E23" s="15">
         <v>0.21</v>
@@ -17953,9 +17950,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}</v>
       </c>
-      <c r="K23" s="36" t="str">
+      <c r="K23" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"5.2"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"5.2"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}]</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="17"/>
@@ -17986,7 +17983,7 @@
       </c>
       <c r="D24" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"}</v>
       </c>
       <c r="E24" s="15">
         <v>0.16</v>
@@ -18009,9 +18006,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}</v>
       </c>
-      <c r="K24" s="36" t="str">
+      <c r="K24" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}]</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="17"/>
@@ -18042,7 +18039,7 @@
       </c>
       <c r="D25" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"}</v>
       </c>
       <c r="E25" s="15">
         <v>0.21</v>
@@ -18065,9 +18062,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}</v>
       </c>
-      <c r="K25" s="36" t="str">
+      <c r="K25" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"5.5"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"5.5"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}]</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="17"/>
@@ -18098,7 +18095,7 @@
       </c>
       <c r="D26" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"}</v>
       </c>
       <c r="E26" s="15">
         <v>0.18</v>
@@ -18121,9 +18118,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}</v>
       </c>
-      <c r="K26" s="36" t="str">
+      <c r="K26" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"18%"},{"description": "Escolaridad promedio (en años)", "value":"6.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"18%"},{"description": "Escolaridad promedio (en años)", "value":"6.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="17"/>
@@ -18154,7 +18151,7 @@
       </c>
       <c r="D27" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"}</v>
       </c>
       <c r="E27" s="15">
         <v>0.23</v>
@@ -18177,9 +18174,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"64%"}</v>
       </c>
-      <c r="K27" s="36" t="str">
+      <c r="K27" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"23%"},{"description": "Escolaridad promedio (en años)", "value":"5.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"64%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"23%"},{"description": "Escolaridad promedio (en años)", "value":"5.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"64%"}]</v>
       </c>
       <c r="L27" s="15"/>
       <c r="M27" s="17"/>
@@ -18210,7 +18207,7 @@
       </c>
       <c r="D28" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"}</v>
       </c>
       <c r="E28" s="15">
         <v>0.1</v>
@@ -18233,9 +18230,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}</v>
       </c>
-      <c r="K28" s="36" t="str">
+      <c r="K28" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"8."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"8."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}]</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="17"/>
@@ -18266,7 +18263,7 @@
       </c>
       <c r="D29" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"}</v>
       </c>
       <c r="E29" s="15">
         <v>0.17</v>
@@ -18289,9 +18286,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}</v>
       </c>
-      <c r="K29" s="36" t="str">
+      <c r="K29" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"6.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"6.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="17"/>
@@ -18322,7 +18319,7 @@
       </c>
       <c r="D30" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"13%"}</v>
       </c>
       <c r="E30" s="15">
         <v>0.15</v>
@@ -18345,9 +18342,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}</v>
       </c>
-      <c r="K30" s="36" t="str">
+      <c r="K30" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"13%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}]</v>
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="17"/>
@@ -18378,7 +18375,7 @@
       </c>
       <c r="D31" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"3%"}</v>
       </c>
       <c r="E31" s="15">
         <v>0.05</v>
@@ -18401,9 +18398,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"80%"}</v>
       </c>
-      <c r="K31" s="36" t="str">
+      <c r="K31" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"9.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"80%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"3%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"9.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"80%"}]</v>
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="17"/>
@@ -18434,7 +18431,7 @@
       </c>
       <c r="D32" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"}</v>
       </c>
       <c r="E32" s="15">
         <v>0.08</v>
@@ -18457,9 +18454,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}</v>
       </c>
-      <c r="K32" s="36" t="str">
+      <c r="K32" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}]</v>
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="17"/>
@@ -18490,7 +18487,7 @@
       </c>
       <c r="D33" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"5%"}</v>
       </c>
       <c r="E33" s="15">
         <v>0.05</v>
@@ -18513,9 +18510,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}</v>
       </c>
-      <c r="K33" s="36" t="str">
+      <c r="K33" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"8.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"5%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"8.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="17"/>
@@ -18546,7 +18543,7 @@
       </c>
       <c r="D34" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"}</v>
       </c>
       <c r="E34" s="15">
         <v>0.08</v>
@@ -18569,9 +18566,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}</v>
       </c>
-      <c r="K34" s="36" t="str">
+      <c r="K34" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}]</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="17"/>
@@ -18602,7 +18599,7 @@
       </c>
       <c r="D35" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"}</v>
       </c>
       <c r="E35" s="15">
         <v>0.14000000000000001</v>
@@ -18625,9 +18622,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}</v>
       </c>
-      <c r="K35" s="36" t="str">
+      <c r="K35" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"7.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"7.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}]</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="17"/>
@@ -18658,7 +18655,7 @@
       </c>
       <c r="D36" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"}</v>
       </c>
       <c r="E36" s="15">
         <v>0.13</v>
@@ -18681,9 +18678,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}</v>
       </c>
-      <c r="K36" s="36" t="str">
+      <c r="K36" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}]</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="17"/>
@@ -18714,7 +18711,7 @@
       </c>
       <c r="D37" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"}</v>
       </c>
       <c r="E37" s="15">
         <v>0.17</v>
@@ -18737,9 +18734,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}</v>
       </c>
-      <c r="K37" s="36" t="str">
+      <c r="K37" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"5.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"5.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}]</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="17"/>
@@ -18770,7 +18767,7 @@
       </c>
       <c r="D38" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"}</v>
       </c>
       <c r="E38" s="15">
         <v>0.13</v>
@@ -18793,9 +18790,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}</v>
       </c>
-      <c r="K38" s="36" t="str">
+      <c r="K38" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}]</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="17"/>
@@ -18826,7 +18823,7 @@
       </c>
       <c r="D39" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"}</v>
       </c>
       <c r="E39" s="15">
         <v>0.11</v>
@@ -18849,9 +18846,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}</v>
       </c>
-      <c r="K39" s="36" t="str">
+      <c r="K39" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}]</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="17"/>
@@ -18882,7 +18879,7 @@
       </c>
       <c r="D40" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"}</v>
       </c>
       <c r="E40" s="15">
         <v>0.12</v>
@@ -18905,9 +18902,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"62%"}</v>
       </c>
-      <c r="K40" s="36" t="str">
+      <c r="K40" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"62%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"62%"}]</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="17"/>
@@ -18938,7 +18935,7 @@
       </c>
       <c r="D41" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"11%"}</v>
       </c>
       <c r="E41" s="15">
         <v>0.15</v>
@@ -18961,9 +18958,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}</v>
       </c>
-      <c r="K41" s="36" t="str">
+      <c r="K41" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"11%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}]</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="17"/>
@@ -18994,7 +18991,7 @@
       </c>
       <c r="D42" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"}</v>
       </c>
       <c r="E42" s="15">
         <v>0.11</v>
@@ -19017,9 +19014,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}</v>
       </c>
-      <c r="K42" s="36" t="str">
+      <c r="K42" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"7.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"7.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}]</v>
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="17"/>
@@ -19050,7 +19047,7 @@
       </c>
       <c r="D43" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"}</v>
       </c>
       <c r="E43" s="15">
         <v>0.18</v>
@@ -19073,9 +19070,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"63%"}</v>
       </c>
-      <c r="K43" s="36" t="str">
+      <c r="K43" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"18%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"63%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"18%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"63%"}]</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="17"/>
@@ -19106,7 +19103,7 @@
       </c>
       <c r="D44" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"}</v>
       </c>
       <c r="E44" s="15">
         <v>0.11</v>
@@ -19129,9 +19126,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}</v>
       </c>
-      <c r="K44" s="36" t="str">
+      <c r="K44" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}]</v>
       </c>
       <c r="L44" s="15"/>
       <c r="M44" s="17"/>
@@ -19162,7 +19159,7 @@
       </c>
       <c r="D45" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"}</v>
       </c>
       <c r="E45" s="15">
         <v>0.21</v>
@@ -19185,9 +19182,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}</v>
       </c>
-      <c r="K45" s="36" t="str">
+      <c r="K45" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"7.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"7.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}]</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="17"/>
@@ -19218,7 +19215,7 @@
       </c>
       <c r="D46" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"}</v>
       </c>
       <c r="E46" s="15">
         <v>0.23</v>
@@ -19241,9 +19238,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}</v>
       </c>
-      <c r="K46" s="36" t="str">
+      <c r="K46" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"23%"},{"description": "Escolaridad promedio (en años)", "value":"5.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"23%"},{"description": "Escolaridad promedio (en años)", "value":"5.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}]</v>
       </c>
       <c r="L46" s="15"/>
       <c r="M46" s="17"/>
@@ -19274,7 +19271,7 @@
       </c>
       <c r="D47" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""}</v>
+        <v>{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"14%"}</v>
       </c>
       <c r="E47" s="15">
         <v>0.16</v>
@@ -19297,9 +19294,9 @@
         <f t="shared" si="3"/>
         <v>{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}</v>
       </c>
-      <c r="K47" s="36" t="str">
+      <c r="K47" s="32" t="str">
         <f t="shared" si="4"/>
-        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}]</v>
+        <v>"category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"14%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}]</v>
       </c>
       <c r="L47" s="15"/>
       <c r="M47" s="17"/>
@@ -20289,8 +20286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20302,7 +20299,7 @@
     <col min="5" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
     <col min="9" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="15" style="38" customWidth="1"/>
+    <col min="11" max="11" width="15" style="34" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="14" width="17" customWidth="1"/>
     <col min="15" max="24" width="15" customWidth="1"/>
@@ -20311,29 +20308,29 @@
     <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -20359,7 +20356,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="37"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -20408,7 +20405,7 @@
         <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $I$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(I3,"$###.##") &amp; """","}")</f>
         <v>{"description": "Ingreso laboral promedio", "value":"$364.45"}</v>
       </c>
-      <c r="K3" s="36" t="str">
+      <c r="K3" s="32" t="str">
         <f>CONCATENATE("""" &amp; "category3" &amp;""": [",D3,",",F3,",",H3,",",J3,"]")</f>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"48%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$364.45"}]</v>
       </c>
@@ -20460,7 +20457,7 @@
         <f t="shared" ref="J4:J47" si="3">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $I$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(I4,"$###.##") &amp; """","}")</f>
         <v>{"description": "Ingreso laboral promedio", "value":"$299.93"}</v>
       </c>
-      <c r="K4" s="36" t="str">
+      <c r="K4" s="32" t="str">
         <f t="shared" ref="K4:K47" si="4">CONCATENATE("""" &amp; "category3" &amp;""": [",D4,",",F4,",",H4,",",J4,"]")</f>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"56%"},{"description": "Tasa de ocupación femenina", "value":"40%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$299.93"}]</v>
       </c>
@@ -20512,7 +20509,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$300.99"}</v>
       </c>
-      <c r="K5" s="36" t="str">
+      <c r="K5" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$300.99"}]</v>
       </c>
@@ -20567,7 +20564,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$246.95"}</v>
       </c>
-      <c r="K6" s="36" t="str">
+      <c r="K6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"41%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"86%"},{"description": "Ingreso laboral promedio", "value":"$246.95"}]</v>
       </c>
@@ -20619,7 +20616,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$260.37"}</v>
       </c>
-      <c r="K7" s="36" t="str">
+      <c r="K7" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"54%"},{"description": "Tasa de ocupación femenina", "value":"37%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$260.37"}]</v>
       </c>
@@ -20671,7 +20668,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$256."}</v>
       </c>
-      <c r="K8" s="36" t="str">
+      <c r="K8" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"34%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"89%"},{"description": "Ingreso laboral promedio", "value":"$256."}]</v>
       </c>
@@ -20723,7 +20720,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$468.05"}</v>
       </c>
-      <c r="K9" s="36" t="str">
+      <c r="K9" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"68%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"86%"},{"description": "Ingreso laboral promedio", "value":"$468.05"}]</v>
       </c>
@@ -20775,7 +20772,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$276.5"}</v>
       </c>
-      <c r="K10" s="36" t="str">
+      <c r="K10" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"90%"},{"description": "Ingreso laboral promedio", "value":"$276.5"}]</v>
       </c>
@@ -20827,7 +20824,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$246.77"}</v>
       </c>
-      <c r="K11" s="36" t="str">
+      <c r="K11" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"43%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"89%"},{"description": "Ingreso laboral promedio", "value":"$246.77"}]</v>
       </c>
@@ -20879,7 +20876,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$268.26"}</v>
       </c>
-      <c r="K12" s="36" t="str">
+      <c r="K12" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"37%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"78%"},{"description": "Ingreso laboral promedio", "value":"$268.26"}]</v>
       </c>
@@ -20931,7 +20928,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$351.89"}</v>
       </c>
-      <c r="K13" s="36" t="str">
+      <c r="K13" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$351.89"}]</v>
       </c>
@@ -20983,7 +20980,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$339.88"}</v>
       </c>
-      <c r="K14" s="36" t="str">
+      <c r="K14" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$339.88"}]</v>
       </c>
@@ -21035,7 +21032,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$350.12"}</v>
       </c>
-      <c r="K15" s="36" t="str">
+      <c r="K15" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"52%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"66%"},{"description": "Ingreso laboral promedio", "value":"$350.12"}]</v>
       </c>
@@ -21087,7 +21084,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$391.38"}</v>
       </c>
-      <c r="K16" s="36" t="str">
+      <c r="K16" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"55%"},{"description": "Ingreso laboral promedio", "value":"$391.38"}]</v>
       </c>
@@ -21139,7 +21136,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$551.08"}</v>
       </c>
-      <c r="K17" s="36" t="str">
+      <c r="K17" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"65%"},{"description": "Tasa de ocupación femenina", "value":"54%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"50%"},{"description": "Ingreso laboral promedio", "value":"$551.08"}]</v>
       </c>
@@ -21191,7 +21188,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$393.05"}</v>
       </c>
-      <c r="K18" s="36" t="str">
+      <c r="K18" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"44%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$393.05"}]</v>
       </c>
@@ -21243,7 +21240,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$431.9"}</v>
       </c>
-      <c r="K19" s="36" t="str">
+      <c r="K19" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"51%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"61%"},{"description": "Ingreso laboral promedio", "value":"$431.9"}]</v>
       </c>
@@ -21295,7 +21292,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$318.18"}</v>
       </c>
-      <c r="K20" s="36" t="str">
+      <c r="K20" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"78%"},{"description": "Ingreso laboral promedio", "value":"$318.18"}]</v>
       </c>
@@ -21347,7 +21344,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$340.48"}</v>
       </c>
-      <c r="K21" s="36" t="str">
+      <c r="K21" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"69%"},{"description": "Tasa de ocupación femenina", "value":"56%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"69%"},{"description": "Ingreso laboral promedio", "value":"$340.48"}]</v>
       </c>
@@ -21399,7 +21396,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$355.23"}</v>
       </c>
-      <c r="K22" s="36" t="str">
+      <c r="K22" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$355.23"}]</v>
       </c>
@@ -21451,7 +21448,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$273.35"}</v>
       </c>
-      <c r="K23" s="36" t="str">
+      <c r="K23" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"51%"},{"description": "Tasa de ocupación femenina", "value":"32%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"91%"},{"description": "Ingreso laboral promedio", "value":"$273.35"}]</v>
       </c>
@@ -21503,7 +21500,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$327.96"}</v>
       </c>
-      <c r="K24" s="36" t="str">
+      <c r="K24" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"41%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$327.96"}]</v>
       </c>
@@ -21555,7 +21552,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$233.44"}</v>
       </c>
-      <c r="K25" s="36" t="str">
+      <c r="K25" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"94%"},{"description": "Ingreso laboral promedio", "value":"$233.44"}]</v>
       </c>
@@ -21607,7 +21604,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$291.59"}</v>
       </c>
-      <c r="K26" s="36" t="str">
+      <c r="K26" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$291.59"}]</v>
       </c>
@@ -21659,7 +21656,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$223.19"}</v>
       </c>
-      <c r="K27" s="36" t="str">
+      <c r="K27" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"36%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"94%"},{"description": "Ingreso laboral promedio", "value":"$223.19"}]</v>
       </c>
@@ -21711,7 +21708,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$389.24"}</v>
       </c>
-      <c r="K28" s="36" t="str">
+      <c r="K28" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"65%"},{"description": "Tasa de ocupación femenina", "value":"54%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$389.24"}]</v>
       </c>
@@ -21763,7 +21760,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$287.78"}</v>
       </c>
-      <c r="K29" s="36" t="str">
+      <c r="K29" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"40%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"81%"},{"description": "Ingreso laboral promedio", "value":"$287.78"}]</v>
       </c>
@@ -21815,7 +21812,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$353.63"}</v>
       </c>
-      <c r="K30" s="36" t="str">
+      <c r="K30" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$353.63"}]</v>
       </c>
@@ -21867,7 +21864,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$512.12"}</v>
       </c>
-      <c r="K31" s="36" t="str">
+      <c r="K31" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"51%"},{"description": "Ingreso laboral promedio", "value":"$512.12"}]</v>
       </c>
@@ -21919,7 +21916,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$400.87"}</v>
       </c>
-      <c r="K32" s="36" t="str">
+      <c r="K32" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"66%"},{"description": "Tasa de ocupación femenina", "value":"55%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"59%"},{"description": "Ingreso laboral promedio", "value":"$400.87"}]</v>
       </c>
@@ -21971,7 +21968,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$452.59"}</v>
       </c>
-      <c r="K33" s="36" t="str">
+      <c r="K33" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"55%"},{"description": "Ingreso laboral promedio", "value":"$452.59"}]</v>
       </c>
@@ -22023,7 +22020,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$428.99"}</v>
       </c>
-      <c r="K34" s="36" t="str">
+      <c r="K34" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"58%"},{"description": "Ingreso laboral promedio", "value":"$428.99"}]</v>
       </c>
@@ -22075,7 +22072,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$287.09"}</v>
       </c>
-      <c r="K35" s="36" t="str">
+      <c r="K35" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"55%"},{"description": "Tasa de ocupación femenina", "value":"36%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$287.09"}]</v>
       </c>
@@ -22127,7 +22124,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$289.02"}</v>
       </c>
-      <c r="K36" s="36" t="str">
+      <c r="K36" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"82%"},{"description": "Ingreso laboral promedio", "value":"$289.02"}]</v>
       </c>
@@ -22179,7 +22176,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$309.25"}</v>
       </c>
-      <c r="K37" s="36" t="str">
+      <c r="K37" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"56%"},{"description": "Tasa de ocupación femenina", "value":"35%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"83%"},{"description": "Ingreso laboral promedio", "value":"$309.25"}]</v>
       </c>
@@ -22231,7 +22228,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$325.52"}</v>
       </c>
-      <c r="K38" s="36" t="str">
+      <c r="K38" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$325.52"}]</v>
       </c>
@@ -22283,7 +22280,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$314.88"}</v>
       </c>
-      <c r="K39" s="36" t="str">
+      <c r="K39" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$314.88"}]</v>
       </c>
@@ -22335,7 +22332,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$305.05"}</v>
       </c>
-      <c r="K40" s="36" t="str">
+      <c r="K40" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"47%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$305.05"}]</v>
       </c>
@@ -22387,7 +22384,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$292.45"}</v>
       </c>
-      <c r="K41" s="36" t="str">
+      <c r="K41" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"66%"},{"description": "Tasa de ocupación femenina", "value":"51%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"77%"},{"description": "Ingreso laboral promedio", "value":"$292.45"}]</v>
       </c>
@@ -22439,7 +22436,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$381.22"}</v>
       </c>
-      <c r="K42" s="36" t="str">
+      <c r="K42" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"47%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$381.22"}]</v>
       </c>
@@ -22491,7 +22488,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$320.37"}</v>
       </c>
-      <c r="K43" s="36" t="str">
+      <c r="K43" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$320.37"}]</v>
       </c>
@@ -22543,7 +22540,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$408.94"}</v>
       </c>
-      <c r="K44" s="36" t="str">
+      <c r="K44" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"69%"},{"description": "Ingreso laboral promedio", "value":"$408.94"}]</v>
       </c>
@@ -22595,7 +22592,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$280.33"}</v>
       </c>
-      <c r="K45" s="36" t="str">
+      <c r="K45" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"43%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$280.33"}]</v>
       </c>
@@ -22647,7 +22644,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$239.43"}</v>
       </c>
-      <c r="K46" s="36" t="str">
+      <c r="K46" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"45%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$239.43"}]</v>
       </c>
@@ -22699,7 +22696,7 @@
         <f t="shared" si="3"/>
         <v>{"description": "Ingreso laboral promedio", "value":"$323.48"}</v>
       </c>
-      <c r="K47" s="36" t="str">
+      <c r="K47" s="32" t="str">
         <f t="shared" si="4"/>
         <v>"category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"83%"},{"description": "Ingreso laboral promedio", "value":"$323.48"}]</v>
       </c>
@@ -23686,7 +23683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1002"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3:O47"/>
     </sheetView>
   </sheetViews>
@@ -23707,27 +23704,27 @@
     <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39"/>
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -23818,7 +23815,7 @@
         <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $M$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(M3,"##%") &amp; """","}")</f>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}</v>
       </c>
-      <c r="O3" s="36" t="str">
+      <c r="O3" s="32" t="str">
         <f>CONCATENATE("""" &amp; "category4" &amp;""": [",D3,",",F3,",",H3,",",J3,",",L3,",",N3,"]")</f>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$700.94"},{"description": "Ingreso per cápita promedio", "value":"$249.42"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}]</v>
       </c>
@@ -23878,7 +23875,7 @@
         <f t="shared" ref="N4:N47" si="5">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $M$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(M4,"##%") &amp; """","}")</f>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"25%"}</v>
       </c>
-      <c r="O4" s="36" t="str">
+      <c r="O4" s="32" t="str">
         <f t="shared" ref="O4:O47" si="6">CONCATENATE("""" &amp; "category4" &amp;""": [",D4,",",F4,",",H4,",",J4,",",L4,",",N4,"]")</f>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$537.08"},{"description": "Ingreso per cápita promedio", "value":"$190.64"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"36%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"25%"}]</v>
       </c>
@@ -23938,7 +23935,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}</v>
       </c>
-      <c r="O5" s="36" t="str">
+      <c r="O5" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$590.5"},{"description": "Ingreso per cápita promedio", "value":"$195.25"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"31%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"40%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"54%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}]</v>
       </c>
@@ -23999,7 +23996,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"14%"}</v>
       </c>
-      <c r="O6" s="36" t="str">
+      <c r="O6" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$461.35"},{"description": "Ingreso per cápita promedio", "value":"$160."},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"44%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"50%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"55%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"14%"}]</v>
       </c>
@@ -24059,7 +24056,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}</v>
       </c>
-      <c r="O7" s="36" t="str">
+      <c r="O7" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$532.97"},{"description": "Ingreso per cápita promedio", "value":"$183.13"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"40%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}]</v>
       </c>
@@ -24119,7 +24116,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}</v>
       </c>
-      <c r="O8" s="36" t="str">
+      <c r="O8" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$507.67"},{"description": "Ingreso per cápita promedio", "value":"$182.89"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"34%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"37%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}]</v>
       </c>
@@ -24179,7 +24176,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"16%"}</v>
       </c>
-      <c r="O9" s="36" t="str">
+      <c r="O9" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$1053.16"},{"description": "Ingreso per cápita promedio", "value":"$415.16"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"13%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"10%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"34%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"16%"}]</v>
       </c>
@@ -24239,7 +24236,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"8%"}</v>
       </c>
-      <c r="O10" s="36" t="str">
+      <c r="O10" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$566.71"},{"description": "Ingreso per cápita promedio", "value":"$197.72"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"27%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"8%"}]</v>
       </c>
@@ -24299,7 +24296,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}</v>
       </c>
-      <c r="O11" s="36" t="str">
+      <c r="O11" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$500.02"},{"description": "Ingreso per cápita promedio", "value":"$189.77"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"20%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}]</v>
       </c>
@@ -24359,7 +24356,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"20%"}</v>
       </c>
-      <c r="O12" s="36" t="str">
+      <c r="O12" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$507.58"},{"description": "Ingreso per cápita promedio", "value":"$174.28"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"36%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"29%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"46%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"20%"}]</v>
       </c>
@@ -24419,7 +24416,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}</v>
       </c>
-      <c r="O13" s="36" t="str">
+      <c r="O13" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$665.8"},{"description": "Ingreso per cápita promedio", "value":"$234.2"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"29%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}]</v>
       </c>
@@ -24479,7 +24476,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"23%"}</v>
       </c>
-      <c r="O14" s="36" t="str">
+      <c r="O14" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$625.22"},{"description": "Ingreso per cápita promedio", "value":"$217.9"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"23%"}]</v>
       </c>
@@ -24539,7 +24536,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"30%"}</v>
       </c>
-      <c r="O15" s="36" t="str">
+      <c r="O15" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$712.54"},{"description": "Ingreso per cápita promedio", "value":"$250.83"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"25%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"30%"}]</v>
       </c>
@@ -24599,7 +24596,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"37%"}</v>
       </c>
-      <c r="O16" s="36" t="str">
+      <c r="O16" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$720.14"},{"description": "Ingreso per cápita promedio", "value":"$241.29"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"37%"}]</v>
       </c>
@@ -24659,7 +24656,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"48%"}</v>
       </c>
-      <c r="O17" s="36" t="str">
+      <c r="O17" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$1079.56"},{"description": "Ingreso per cápita promedio", "value":"$425.97"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"23%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"15%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"48%"}]</v>
       </c>
@@ -24719,7 +24716,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"21%"}</v>
       </c>
-      <c r="O18" s="36" t="str">
+      <c r="O18" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$740.04"},{"description": "Ingreso per cápita promedio", "value":"$257.83"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"38%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"50%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"21%"}]</v>
       </c>
@@ -24779,7 +24776,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"39%"}</v>
       </c>
-      <c r="O19" s="36" t="str">
+      <c r="O19" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$823.32"},{"description": "Ingreso per cápita promedio", "value":"$303.34"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"23%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"24%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"39%"}]</v>
       </c>
@@ -24839,7 +24836,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"21%"}</v>
       </c>
-      <c r="O20" s="36" t="str">
+      <c r="O20" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$587.06"},{"description": "Ingreso per cápita promedio", "value":"$206.52"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"31%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"21%"}]</v>
       </c>
@@ -24899,7 +24896,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"26%"}</v>
       </c>
-      <c r="O21" s="36" t="str">
+      <c r="O21" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$645.35"},{"description": "Ingreso per cápita promedio", "value":"$238.91"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"30%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"40%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"26%"}]</v>
       </c>
@@ -24959,7 +24956,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"28%"}</v>
       </c>
-      <c r="O22" s="36" t="str">
+      <c r="O22" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$674.21"},{"description": "Ingreso per cápita promedio", "value":"$232.65"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"24%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"33%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"47%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"28%"}]</v>
       </c>
@@ -25019,7 +25016,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}</v>
       </c>
-      <c r="O23" s="36" t="str">
+      <c r="O23" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$556.37"},{"description": "Ingreso per cápita promedio", "value":"$196.68"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}]</v>
       </c>
@@ -25079,7 +25076,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"14%"}</v>
       </c>
-      <c r="O24" s="36" t="str">
+      <c r="O24" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$613.89"},{"description": "Ingreso per cápita promedio", "value":"$232.78"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"30%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"47%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"14%"}]</v>
       </c>
@@ -25139,7 +25136,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}</v>
       </c>
-      <c r="O25" s="36" t="str">
+      <c r="O25" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$471.71"},{"description": "Ingreso per cápita promedio", "value":"$157.94"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"39%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"47%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"55%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}]</v>
       </c>
@@ -25199,7 +25196,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}</v>
       </c>
-      <c r="O26" s="36" t="str">
+      <c r="O26" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$581.96"},{"description": "Ingreso per cápita promedio", "value":"$202.34"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"31%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"31%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"44%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}]</v>
       </c>
@@ -25259,7 +25256,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}</v>
       </c>
-      <c r="O27" s="36" t="str">
+      <c r="O27" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$474.03"},{"description": "Ingreso per cápita promedio", "value":"$164.63"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"35%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"36%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"43%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}]</v>
       </c>
@@ -25319,7 +25316,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}</v>
       </c>
-      <c r="O28" s="36" t="str">
+      <c r="O28" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$781.12"},{"description": "Ingreso per cápita promedio", "value":"$290.03"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"21%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}]</v>
       </c>
@@ -25379,7 +25376,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"20%"}</v>
       </c>
-      <c r="O29" s="36" t="str">
+      <c r="O29" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$558.15"},{"description": "Ingreso per cápita promedio", "value":"$196.17"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"36%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"20%"}]</v>
       </c>
@@ -25439,7 +25436,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"25%"}</v>
       </c>
-      <c r="O30" s="36" t="str">
+      <c r="O30" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$694.47"},{"description": "Ingreso per cápita promedio", "value":"$252.61"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"26%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"46%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"25%"}]</v>
       </c>
@@ -25499,7 +25496,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"45%"}</v>
       </c>
-      <c r="O31" s="36" t="str">
+      <c r="O31" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$980.41"},{"description": "Ingreso per cápita promedio", "value":"$350.62"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"20%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"10%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"26%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"45%"}]</v>
       </c>
@@ -25559,7 +25556,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"40%"}</v>
       </c>
-      <c r="O32" s="36" t="str">
+      <c r="O32" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$752.61"},{"description": "Ingreso per cápita promedio", "value":"$279.22"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"17%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"27%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"40%"}]</v>
       </c>
@@ -25619,7 +25616,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"44%"}</v>
       </c>
-      <c r="O33" s="36" t="str">
+      <c r="O33" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$883.96"},{"description": "Ingreso per cápita promedio", "value":"$298.55"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"20%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"11%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"19%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"44%"}]</v>
       </c>
@@ -25679,7 +25676,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"37%"}</v>
       </c>
-      <c r="O34" s="36" t="str">
+      <c r="O34" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$869.33"},{"description": "Ingreso per cápita promedio", "value":"$282.47"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"22%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"37%"}]</v>
       </c>
@@ -25739,7 +25736,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}</v>
       </c>
-      <c r="O35" s="36" t="str">
+      <c r="O35" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$537.2"},{"description": "Ingreso per cápita promedio", "value":"$197.43"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"28%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}]</v>
       </c>
@@ -25799,7 +25796,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"19%"}</v>
       </c>
-      <c r="O36" s="36" t="str">
+      <c r="O36" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$594.2"},{"description": "Ingreso per cápita promedio", "value":"$219.68"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"19%"}]</v>
       </c>
@@ -25859,7 +25856,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}</v>
       </c>
-      <c r="O37" s="36" t="str">
+      <c r="O37" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$593.53"},{"description": "Ingreso per cápita promedio", "value":"$226.78"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"25%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"35%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}]</v>
       </c>
@@ -25919,7 +25916,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}</v>
       </c>
-      <c r="O38" s="36" t="str">
+      <c r="O38" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$602.66"},{"description": "Ingreso per cápita promedio", "value":"$245.87"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"27%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}]</v>
       </c>
@@ -25979,7 +25976,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"24%"}</v>
       </c>
-      <c r="O39" s="36" t="str">
+      <c r="O39" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$580.96"},{"description": "Ingreso per cápita promedio", "value":"$217.76"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"32%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"20%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"34%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"24%"}]</v>
       </c>
@@ -26039,7 +26036,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"23%"}</v>
       </c>
-      <c r="O40" s="36" t="str">
+      <c r="O40" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$628.57"},{"description": "Ingreso per cápita promedio", "value":"$219.63"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"42%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"23%"}]</v>
       </c>
@@ -26099,7 +26096,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}</v>
       </c>
-      <c r="O41" s="36" t="str">
+      <c r="O41" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$618.58"},{"description": "Ingreso per cápita promedio", "value":"$197.85"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"46%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"61%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}]</v>
       </c>
@@ -26159,7 +26156,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}</v>
       </c>
-      <c r="O42" s="36" t="str">
+      <c r="O42" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$725.36"},{"description": "Ingreso per cápita promedio", "value":"$260.01"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}]</v>
       </c>
@@ -26219,7 +26216,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}</v>
       </c>
-      <c r="O43" s="36" t="str">
+      <c r="O43" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$649.71"},{"description": "Ingreso per cápita promedio", "value":"$203.27"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"26%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"35%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"43%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}]</v>
       </c>
@@ -26279,7 +26276,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"29%"}</v>
       </c>
-      <c r="O44" s="36" t="str">
+      <c r="O44" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$738.75"},{"description": "Ingreso per cápita promedio", "value":"$249.48"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"49%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"29%"}]</v>
       </c>
@@ -26339,7 +26336,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}</v>
       </c>
-      <c r="O45" s="36" t="str">
+      <c r="O45" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$502.14"},{"description": "Ingreso per cápita promedio", "value":"$164.58"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"49%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"38%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"59%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}]</v>
       </c>
@@ -26399,7 +26396,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"10%"}</v>
       </c>
-      <c r="O46" s="36" t="str">
+      <c r="O46" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$450.34"},{"description": "Ingreso per cápita promedio", "value":"$183.98"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"42%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"51%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"10%"}]</v>
       </c>
@@ -26459,7 +26456,7 @@
         <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"16%"}</v>
       </c>
-      <c r="O47" s="36" t="str">
+      <c r="O47" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category4": [{"description": "Ingreso familiar promedio", "value":"$587.62"},{"description": "Ingreso per cápita promedio", "value":"$225.99"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"48%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"16%"}]</v>
       </c>
@@ -27440,36 +27437,36 @@
   <dimension ref="A1:P1002"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O47"/>
+      <selection activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="16" width="15" customWidth="1"/>
+    <col min="3" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -27551,10 +27548,10 @@
         <v>154</v>
       </c>
       <c r="N3" s="15" t="str">
-        <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $M$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(M3,"###") &amp; """","}")</f>
+        <f t="shared" ref="N3:N47" si="0">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $M$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; IF(TEXT(M3,"###")="",0,TEXT(M3,"###")) &amp; """","}")</f>
         <v>{"description": "Número de homicidios en 2023", "value":"154"}</v>
       </c>
-      <c r="O3" s="36" t="str">
+      <c r="O3" s="32" t="str">
         <f>CONCATENATE("""" &amp; "category5" &amp;""": [",D3,",",F3,",",H3,",",J3,",",L3,",",N3,"]")</f>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"43%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"37%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"31%"},{"description": "Número de homicidios en 2023", "value":"154"}]</v>
       </c>
@@ -27570,45 +27567,45 @@
         <v>0.16</v>
       </c>
       <c r="D4" s="15" t="str">
-        <f t="shared" ref="D4:D47" si="0">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $C$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(C4,"##%") &amp; """","}")</f>
+        <f t="shared" ref="D4:D47" si="1">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $C$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(C4,"##%") &amp; """","}")</f>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"}</v>
       </c>
       <c r="E4" s="15">
         <v>0.15</v>
       </c>
       <c r="F4" s="15" t="str">
-        <f t="shared" ref="F4:F47" si="1">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $E$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(E4,"##%") &amp; """","}")</f>
+        <f t="shared" ref="F4:F47" si="2">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $E$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(E4,"##%") &amp; """","}")</f>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"15%"}</v>
       </c>
       <c r="G4" s="15">
         <v>0.61</v>
       </c>
       <c r="H4" s="15" t="str">
-        <f t="shared" ref="H4:H47" si="2">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $G$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(G4,"##%") &amp; """","}")</f>
+        <f t="shared" ref="H4:H47" si="3">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $G$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(G4,"##%") &amp; """","}")</f>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"61%"}</v>
       </c>
       <c r="I4" s="15">
         <v>0.27</v>
       </c>
       <c r="J4" s="15" t="str">
-        <f t="shared" ref="J4:J47" si="3">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $I$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(I4,"##%") &amp; """","}")</f>
+        <f t="shared" ref="J4:J47" si="4">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $I$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(I4,"##%") &amp; """","}")</f>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"}</v>
       </c>
       <c r="K4" s="15">
         <v>0.34</v>
       </c>
       <c r="L4" s="15" t="str">
-        <f t="shared" ref="L4:L47" si="4">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $K$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(K4,"##%") &amp; """","}")</f>
+        <f t="shared" ref="L4:L47" si="5">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $K$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(K4,"##%") &amp; """","}")</f>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"34%"}</v>
       </c>
       <c r="M4" s="14">
         <v>3</v>
       </c>
       <c r="N4" s="15" t="str">
-        <f t="shared" ref="N4:N47" si="5">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $M$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(M4,"###") &amp; """","}")</f>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"3"}</v>
       </c>
-      <c r="O4" s="36" t="str">
+      <c r="O4" s="32" t="str">
         <f t="shared" ref="O4:O47" si="6">CONCATENATE("""" &amp; "category5" &amp;""": [",D4,",",F4,",",H4,",",J4,",",L4,",",N4,"]")</f>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"15%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"61%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"34%"},{"description": "Número de homicidios en 2023", "value":"3"}]</v>
       </c>
@@ -27624,45 +27621,45 @@
         <v>0.27</v>
       </c>
       <c r="D5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"27%"}</v>
       </c>
       <c r="E5" s="15">
         <v>0.2</v>
       </c>
       <c r="F5" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"}</v>
       </c>
       <c r="G5" s="15">
         <v>0.6</v>
       </c>
       <c r="H5" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"}</v>
       </c>
       <c r="I5" s="15">
         <v>0.21</v>
       </c>
       <c r="J5" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"21%"}</v>
       </c>
       <c r="K5" s="15">
         <v>0.38</v>
       </c>
       <c r="L5" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"}</v>
       </c>
       <c r="M5" s="14">
         <v>2</v>
       </c>
       <c r="N5" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O5" s="36" t="str">
+      <c r="O5" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"27%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"21%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -27679,45 +27676,45 @@
         <v>0.3</v>
       </c>
       <c r="D6" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"}</v>
       </c>
       <c r="E6" s="15">
         <v>0.28999999999999998</v>
       </c>
       <c r="F6" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"29%"}</v>
       </c>
       <c r="G6" s="15">
         <v>0.71</v>
       </c>
       <c r="H6" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"71%"}</v>
       </c>
       <c r="I6" s="15">
         <v>0.21</v>
       </c>
       <c r="J6" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"21%"}</v>
       </c>
       <c r="K6" s="15">
         <v>0.39</v>
       </c>
       <c r="L6" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"}</v>
       </c>
       <c r="M6" s="14">
         <v>4</v>
       </c>
       <c r="N6" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"4"}</v>
       </c>
-      <c r="O6" s="36" t="str">
+      <c r="O6" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"29%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"71%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"21%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"},{"description": "Número de homicidios en 2023", "value":"4"}]</v>
       </c>
@@ -27733,47 +27730,47 @@
         <v>0.21</v>
       </c>
       <c r="D7" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"}</v>
       </c>
       <c r="E7" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F7" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"}</v>
       </c>
       <c r="G7" s="15">
         <v>0.46</v>
       </c>
       <c r="H7" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"}</v>
       </c>
       <c r="I7" s="15">
         <v>0.25</v>
       </c>
       <c r="J7" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"}</v>
       </c>
       <c r="K7" s="15">
         <v>0.39</v>
       </c>
       <c r="L7" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"}</v>
       </c>
       <c r="M7" s="14">
         <v>0</v>
       </c>
       <c r="N7" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>{"description": "Número de homicidios en 2023", "value":""}</v>
-      </c>
-      <c r="O7" s="36" t="str">
+        <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $M$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; IF(TEXT(M7,"###")="",0,TEXT(M7,"###")) &amp; """","}")</f>
+        <v>{"description": "Número de homicidios en 2023", "value":"0"}</v>
+      </c>
+      <c r="O7" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"},{"description": "Número de homicidios en 2023", "value":""}]</v>
+        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"},{"description": "Número de homicidios en 2023", "value":"0"}]</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27787,45 +27784,45 @@
         <v>0.17</v>
       </c>
       <c r="D8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"17%"}</v>
       </c>
       <c r="E8" s="15">
         <v>0.11</v>
       </c>
       <c r="F8" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"11%"}</v>
       </c>
       <c r="G8" s="15">
         <v>0.54</v>
       </c>
       <c r="H8" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"54%"}</v>
       </c>
       <c r="I8" s="15">
         <v>0.27</v>
       </c>
       <c r="J8" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"}</v>
       </c>
       <c r="K8" s="15">
         <v>0.38</v>
       </c>
       <c r="L8" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"}</v>
       </c>
       <c r="M8" s="14">
         <v>5</v>
       </c>
       <c r="N8" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"5"}</v>
       </c>
-      <c r="O8" s="36" t="str">
+      <c r="O8" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"17%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"11%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"54%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"5"}]</v>
       </c>
@@ -27841,45 +27838,45 @@
         <v>0</v>
       </c>
       <c r="D9" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"%"}</v>
       </c>
       <c r="E9" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"}</v>
       </c>
       <c r="G9" s="15">
         <v>0.26</v>
       </c>
       <c r="H9" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"}</v>
       </c>
       <c r="I9" s="15">
         <v>0.39</v>
       </c>
       <c r="J9" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"39%"}</v>
       </c>
       <c r="K9" s="15">
         <v>0.21</v>
       </c>
       <c r="L9" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"}</v>
       </c>
       <c r="M9" s="14">
         <v>2</v>
       </c>
       <c r="N9" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O9" s="36" t="str">
+      <c r="O9" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"39%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -27895,45 +27892,45 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D10" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"14%"}</v>
       </c>
       <c r="E10" s="15">
         <v>0.13</v>
       </c>
       <c r="F10" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"13%"}</v>
       </c>
       <c r="G10" s="15">
         <v>0.46</v>
       </c>
       <c r="H10" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"}</v>
       </c>
       <c r="I10" s="15">
         <v>0.24</v>
       </c>
       <c r="J10" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"}</v>
       </c>
       <c r="K10" s="15">
         <v>0.23</v>
       </c>
       <c r="L10" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"}</v>
       </c>
       <c r="M10" s="14">
         <v>3</v>
       </c>
       <c r="N10" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"3"}</v>
       </c>
-      <c r="O10" s="36" t="str">
+      <c r="O10" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"14%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"13%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"3"}]</v>
       </c>
@@ -27949,47 +27946,47 @@
         <v>0.09</v>
       </c>
       <c r="D11" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"}</v>
       </c>
       <c r="E11" s="15">
         <v>0.1</v>
       </c>
       <c r="F11" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"}</v>
       </c>
       <c r="G11" s="15">
         <v>0.26</v>
       </c>
       <c r="H11" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"}</v>
       </c>
       <c r="I11" s="15">
         <v>0.26</v>
       </c>
       <c r="J11" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"26%"}</v>
       </c>
       <c r="K11" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="L11" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"}</v>
       </c>
       <c r="M11" s="14">
         <v>0</v>
       </c>
       <c r="N11" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>{"description": "Número de homicidios en 2023", "value":""}</v>
-      </c>
-      <c r="O11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"description": "Número de homicidios en 2023", "value":"0"}</v>
+      </c>
+      <c r="O11" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"26%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":""}]</v>
+        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"26%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":"0"}]</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28003,47 +28000,47 @@
         <v>0.16</v>
       </c>
       <c r="D12" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"}</v>
       </c>
       <c r="E12" s="15">
         <v>0.16</v>
       </c>
       <c r="F12" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"}</v>
       </c>
       <c r="G12" s="15">
         <v>0.77</v>
       </c>
       <c r="H12" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"77%"}</v>
       </c>
       <c r="I12" s="15">
         <v>0.13</v>
       </c>
       <c r="J12" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"}</v>
       </c>
       <c r="K12" s="15">
         <v>0.3</v>
       </c>
       <c r="L12" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"}</v>
       </c>
       <c r="M12" s="14">
         <v>0</v>
       </c>
       <c r="N12" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>{"description": "Número de homicidios en 2023", "value":""}</v>
-      </c>
-      <c r="O12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"description": "Número de homicidios en 2023", "value":"0"}</v>
+      </c>
+      <c r="O12" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"77%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":""}]</v>
+        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"77%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"0"}]</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28057,45 +28054,45 @@
         <v>0.23</v>
       </c>
       <c r="D13" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"}</v>
       </c>
       <c r="E13" s="15">
         <v>0.2</v>
       </c>
       <c r="F13" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"}</v>
       </c>
       <c r="G13" s="15">
         <v>0.44</v>
       </c>
       <c r="H13" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"44%"}</v>
       </c>
       <c r="I13" s="15">
         <v>0.24</v>
       </c>
       <c r="J13" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"}</v>
       </c>
       <c r="K13" s="15">
         <v>0.52</v>
       </c>
       <c r="L13" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"52%"}</v>
       </c>
       <c r="M13" s="14">
         <v>4</v>
       </c>
       <c r="N13" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"4"}</v>
       </c>
-      <c r="O13" s="36" t="str">
+      <c r="O13" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"44%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"52%"},{"description": "Número de homicidios en 2023", "value":"4"}]</v>
       </c>
@@ -28111,45 +28108,45 @@
         <v>0.24</v>
       </c>
       <c r="D14" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"24%"}</v>
       </c>
       <c r="E14" s="15">
         <v>0.09</v>
       </c>
       <c r="F14" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"9%"}</v>
       </c>
       <c r="G14" s="15">
         <v>0.49</v>
       </c>
       <c r="H14" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"49%"}</v>
       </c>
       <c r="I14" s="15">
         <v>0.28999999999999998</v>
       </c>
       <c r="J14" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"29%"}</v>
       </c>
       <c r="K14" s="15">
         <v>0.2</v>
       </c>
       <c r="L14" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"20%"}</v>
       </c>
       <c r="M14" s="14">
         <v>3</v>
       </c>
       <c r="N14" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"3"}</v>
       </c>
-      <c r="O14" s="36" t="str">
+      <c r="O14" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"24%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"9%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"49%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"29%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"20%"},{"description": "Número de homicidios en 2023", "value":"3"}]</v>
       </c>
@@ -28165,45 +28162,45 @@
         <v>0.21</v>
       </c>
       <c r="D15" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"}</v>
       </c>
       <c r="E15" s="15">
         <v>0.14000000000000001</v>
       </c>
       <c r="F15" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"}</v>
       </c>
       <c r="G15" s="15">
         <v>0.44</v>
       </c>
       <c r="H15" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"44%"}</v>
       </c>
       <c r="I15" s="15">
         <v>0.34</v>
       </c>
       <c r="J15" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"34%"}</v>
       </c>
       <c r="K15" s="15">
         <v>0.23</v>
       </c>
       <c r="L15" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"}</v>
       </c>
       <c r="M15" s="14">
         <v>5</v>
       </c>
       <c r="N15" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"5"}</v>
       </c>
-      <c r="O15" s="36" t="str">
+      <c r="O15" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"44%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"34%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"5"}]</v>
       </c>
@@ -28219,45 +28216,45 @@
         <v>0.2</v>
       </c>
       <c r="D16" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"}</v>
       </c>
       <c r="E16" s="15">
         <v>0.16</v>
       </c>
       <c r="F16" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"}</v>
       </c>
       <c r="G16" s="15">
         <v>0.25</v>
       </c>
       <c r="H16" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"25%"}</v>
       </c>
       <c r="I16" s="15">
         <v>0.44</v>
       </c>
       <c r="J16" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"44%"}</v>
       </c>
       <c r="K16" s="15">
         <v>0.35</v>
       </c>
       <c r="L16" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"}</v>
       </c>
       <c r="M16" s="14">
         <v>6</v>
       </c>
       <c r="N16" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"6"}</v>
       </c>
-      <c r="O16" s="36" t="str">
+      <c r="O16" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"25%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"44%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"6"}]</v>
       </c>
@@ -28273,45 +28270,45 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D17" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"14%"}</v>
       </c>
       <c r="E17" s="15">
         <v>0.15</v>
       </c>
       <c r="F17" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"15%"}</v>
       </c>
       <c r="G17" s="15">
         <v>0.14000000000000001</v>
       </c>
       <c r="H17" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"14%"}</v>
       </c>
       <c r="I17" s="15">
         <v>0.46</v>
       </c>
       <c r="J17" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"46%"}</v>
       </c>
       <c r="K17" s="15">
         <v>0.43</v>
       </c>
       <c r="L17" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"43%"}</v>
       </c>
       <c r="M17" s="14">
         <v>2</v>
       </c>
       <c r="N17" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O17" s="36" t="str">
+      <c r="O17" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"14%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"15%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"14%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"46%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"43%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -28327,47 +28324,47 @@
         <v>0.35</v>
       </c>
       <c r="D18" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"35%"}</v>
       </c>
       <c r="E18" s="15">
         <v>0.18</v>
       </c>
       <c r="F18" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"}</v>
       </c>
       <c r="G18" s="15">
         <v>0.55000000000000004</v>
       </c>
       <c r="H18" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"}</v>
       </c>
       <c r="I18" s="15">
         <v>0.24</v>
       </c>
       <c r="J18" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"}</v>
       </c>
       <c r="K18" s="15">
         <v>0.36</v>
       </c>
       <c r="L18" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"36%"}</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
       </c>
       <c r="N18" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>{"description": "Número de homicidios en 2023", "value":""}</v>
-      </c>
-      <c r="O18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"description": "Número de homicidios en 2023", "value":"0"}</v>
+      </c>
+      <c r="O18" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"35%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"36%"},{"description": "Número de homicidios en 2023", "value":""}]</v>
+        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"35%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"36%"},{"description": "Número de homicidios en 2023", "value":"0"}]</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28381,45 +28378,45 @@
         <v>0.21</v>
       </c>
       <c r="D19" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"}</v>
       </c>
       <c r="E19" s="15">
         <v>0.19</v>
       </c>
       <c r="F19" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"19%"}</v>
       </c>
       <c r="G19" s="15">
         <v>0.4</v>
       </c>
       <c r="H19" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"40%"}</v>
       </c>
       <c r="I19" s="15">
         <v>0.37</v>
       </c>
       <c r="J19" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"37%"}</v>
       </c>
       <c r="K19" s="15">
         <v>0.3</v>
       </c>
       <c r="L19" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"}</v>
       </c>
       <c r="M19" s="14">
         <v>4</v>
       </c>
       <c r="N19" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"4"}</v>
       </c>
-      <c r="O19" s="36" t="str">
+      <c r="O19" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"19%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"40%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"37%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"4"}]</v>
       </c>
@@ -28435,45 +28432,45 @@
         <v>0.34</v>
       </c>
       <c r="D20" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"34%"}</v>
       </c>
       <c r="E20" s="15">
         <v>0.16</v>
       </c>
       <c r="F20" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"}</v>
       </c>
       <c r="G20" s="15">
         <v>0.65</v>
       </c>
       <c r="H20" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"65%"}</v>
       </c>
       <c r="I20" s="15">
         <v>0.13</v>
       </c>
       <c r="J20" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"}</v>
       </c>
       <c r="K20" s="15">
         <v>0.21</v>
       </c>
       <c r="L20" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"}</v>
       </c>
       <c r="M20" s="14">
         <v>1</v>
       </c>
       <c r="N20" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"1"}</v>
       </c>
-      <c r="O20" s="36" t="str">
+      <c r="O20" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"34%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"65%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"1"}]</v>
       </c>
@@ -28489,45 +28486,45 @@
         <v>0.26</v>
       </c>
       <c r="D21" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"26%"}</v>
       </c>
       <c r="E21" s="15">
         <v>0.22</v>
       </c>
       <c r="F21" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"22%"}</v>
       </c>
       <c r="G21" s="15">
         <v>0.73</v>
       </c>
       <c r="H21" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"73%"}</v>
       </c>
       <c r="I21" s="15">
         <v>0.16</v>
       </c>
       <c r="J21" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"16%"}</v>
       </c>
       <c r="K21" s="15">
         <v>0.18</v>
       </c>
       <c r="L21" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"18%"}</v>
       </c>
       <c r="M21" s="14">
         <v>2</v>
       </c>
       <c r="N21" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O21" s="36" t="str">
+      <c r="O21" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"26%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"22%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"73%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"16%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"18%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -28543,45 +28540,45 @@
         <v>0.3</v>
       </c>
       <c r="D22" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"}</v>
       </c>
       <c r="E22" s="15">
         <v>0.2</v>
       </c>
       <c r="F22" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"}</v>
       </c>
       <c r="G22" s="15">
         <v>0.67</v>
       </c>
       <c r="H22" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"67%"}</v>
       </c>
       <c r="I22" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="J22" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"28%"}</v>
       </c>
       <c r="K22" s="15">
         <v>0.33</v>
       </c>
       <c r="L22" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"33%"}</v>
       </c>
       <c r="M22" s="14">
         <v>2</v>
       </c>
       <c r="N22" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O22" s="36" t="str">
+      <c r="O22" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"67%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"28%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"33%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -28597,45 +28594,45 @@
         <v>0.44</v>
       </c>
       <c r="D23" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"44%"}</v>
       </c>
       <c r="E23" s="15">
         <v>0.1</v>
       </c>
       <c r="F23" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"}</v>
       </c>
       <c r="G23" s="15">
         <v>0.68</v>
       </c>
       <c r="H23" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"68%"}</v>
       </c>
       <c r="I23" s="15">
         <v>0.35</v>
       </c>
       <c r="J23" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"35%"}</v>
       </c>
       <c r="K23" s="15">
         <v>0.41</v>
       </c>
       <c r="L23" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"41%"}</v>
       </c>
       <c r="M23" s="14">
         <v>2</v>
       </c>
       <c r="N23" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O23" s="36" t="str">
+      <c r="O23" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"44%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"68%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"35%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"41%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -28651,45 +28648,45 @@
         <v>0.25</v>
       </c>
       <c r="D24" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"25%"}</v>
       </c>
       <c r="E24" s="15">
         <v>0.16</v>
       </c>
       <c r="F24" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"}</v>
       </c>
       <c r="G24" s="15">
         <v>0.64</v>
       </c>
       <c r="H24" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"64%"}</v>
       </c>
       <c r="I24" s="15">
         <v>0.43</v>
       </c>
       <c r="J24" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"43%"}</v>
       </c>
       <c r="K24" s="15">
         <v>0.23</v>
       </c>
       <c r="L24" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"}</v>
       </c>
       <c r="M24" s="14">
         <v>7</v>
       </c>
       <c r="N24" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"7"}</v>
       </c>
-      <c r="O24" s="36" t="str">
+      <c r="O24" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"25%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"64%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"43%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"7"}]</v>
       </c>
@@ -28705,45 +28702,45 @@
         <v>0.23</v>
       </c>
       <c r="D25" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"}</v>
       </c>
       <c r="E25" s="15">
         <v>0.16</v>
       </c>
       <c r="F25" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"}</v>
       </c>
       <c r="G25" s="15">
         <v>0.69</v>
       </c>
       <c r="H25" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"69%"}</v>
       </c>
       <c r="I25" s="15">
         <v>0.14000000000000001</v>
       </c>
       <c r="J25" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"14%"}</v>
       </c>
       <c r="K25" s="15">
         <v>0.41</v>
       </c>
       <c r="L25" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"41%"}</v>
       </c>
       <c r="M25" s="14">
         <v>1</v>
       </c>
       <c r="N25" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"1"}</v>
       </c>
-      <c r="O25" s="36" t="str">
+      <c r="O25" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"69%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"14%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"41%"},{"description": "Número de homicidios en 2023", "value":"1"}]</v>
       </c>
@@ -28759,45 +28756,45 @@
         <v>0.23</v>
       </c>
       <c r="D26" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"}</v>
       </c>
       <c r="E26" s="15">
         <v>0.1</v>
       </c>
       <c r="F26" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"}</v>
       </c>
       <c r="G26" s="15">
         <v>0.6</v>
       </c>
       <c r="H26" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"}</v>
       </c>
       <c r="I26" s="15">
         <v>0.31</v>
       </c>
       <c r="J26" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"}</v>
       </c>
       <c r="K26" s="15">
         <v>0.3</v>
       </c>
       <c r="L26" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"}</v>
       </c>
       <c r="M26" s="14">
         <v>2</v>
       </c>
       <c r="N26" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O26" s="36" t="str">
+      <c r="O26" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -28813,45 +28810,45 @@
         <v>0.21</v>
       </c>
       <c r="D27" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"}</v>
       </c>
       <c r="E27" s="15">
         <v>0.11</v>
       </c>
       <c r="F27" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"11%"}</v>
       </c>
       <c r="G27" s="15">
         <v>0.6</v>
       </c>
       <c r="H27" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"}</v>
       </c>
       <c r="I27" s="15">
         <v>0.23</v>
       </c>
       <c r="J27" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"23%"}</v>
       </c>
       <c r="K27" s="15">
         <v>0.35</v>
       </c>
       <c r="L27" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"}</v>
       </c>
       <c r="M27" s="14">
         <v>2</v>
       </c>
       <c r="N27" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O27" s="36" t="str">
+      <c r="O27" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"11%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"23%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -28867,45 +28864,45 @@
         <v>0.3</v>
       </c>
       <c r="D28" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"}</v>
       </c>
       <c r="E28" s="15">
         <v>0.1</v>
       </c>
       <c r="F28" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"}</v>
       </c>
       <c r="G28" s="15">
         <v>0.41</v>
       </c>
       <c r="H28" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"41%"}</v>
       </c>
       <c r="I28" s="15">
         <v>0.5</v>
       </c>
       <c r="J28" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"50%"}</v>
       </c>
       <c r="K28" s="15">
         <v>0.28999999999999998</v>
       </c>
       <c r="L28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"}</v>
       </c>
       <c r="M28" s="14">
         <v>6</v>
       </c>
       <c r="N28" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"6"}</v>
       </c>
-      <c r="O28" s="36" t="str">
+      <c r="O28" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"41%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"50%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"6"}]</v>
       </c>
@@ -28921,45 +28918,45 @@
         <v>0.33</v>
       </c>
       <c r="D29" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"33%"}</v>
       </c>
       <c r="E29" s="15">
         <v>0.19</v>
       </c>
       <c r="F29" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"19%"}</v>
       </c>
       <c r="G29" s="15">
         <v>0.83</v>
       </c>
       <c r="H29" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"83%"}</v>
       </c>
       <c r="I29" s="15">
         <v>0.25</v>
       </c>
       <c r="J29" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"}</v>
       </c>
       <c r="K29" s="15">
         <v>0.26</v>
       </c>
       <c r="L29" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"26%"}</v>
       </c>
       <c r="M29" s="14">
         <v>5</v>
       </c>
       <c r="N29" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"5"}</v>
       </c>
-      <c r="O29" s="36" t="str">
+      <c r="O29" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"33%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"19%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"83%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"26%"},{"description": "Número de homicidios en 2023", "value":"5"}]</v>
       </c>
@@ -28975,47 +28972,47 @@
         <v>0.13</v>
       </c>
       <c r="D30" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"}</v>
       </c>
       <c r="E30" s="15">
         <v>0.14000000000000001</v>
       </c>
       <c r="F30" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"}</v>
       </c>
       <c r="G30" s="15">
         <v>0.37</v>
       </c>
       <c r="H30" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"37%"}</v>
       </c>
       <c r="I30" s="15">
         <v>0.27</v>
       </c>
       <c r="J30" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"}</v>
       </c>
       <c r="K30" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="L30" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"}</v>
       </c>
       <c r="M30" s="14">
         <v>0</v>
       </c>
       <c r="N30" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>{"description": "Número de homicidios en 2023", "value":""}</v>
-      </c>
-      <c r="O30" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"description": "Número de homicidios en 2023", "value":"0"}</v>
+      </c>
+      <c r="O30" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"37%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":""}]</v>
+        <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"37%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":"0"}]</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29029,45 +29026,45 @@
         <v>0.09</v>
       </c>
       <c r="D31" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"}</v>
       </c>
       <c r="E31" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"}</v>
       </c>
       <c r="G31" s="15">
         <v>0.11</v>
       </c>
       <c r="H31" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"11%"}</v>
       </c>
       <c r="I31" s="15">
         <v>0.63</v>
       </c>
       <c r="J31" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"63%"}</v>
       </c>
       <c r="K31" s="15">
         <v>0.37</v>
       </c>
       <c r="L31" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"37%"}</v>
       </c>
       <c r="M31" s="14">
         <v>23</v>
       </c>
       <c r="N31" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"23"}</v>
       </c>
-      <c r="O31" s="36" t="str">
+      <c r="O31" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"11%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"63%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"37%"},{"description": "Número de homicidios en 2023", "value":"23"}]</v>
       </c>
@@ -29083,45 +29080,45 @@
         <v>0.17</v>
       </c>
       <c r="D32" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"17%"}</v>
       </c>
       <c r="E32" s="15">
         <v>0.08</v>
       </c>
       <c r="F32" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"8%"}</v>
       </c>
       <c r="G32" s="15">
         <v>0.21</v>
       </c>
       <c r="H32" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"21%"}</v>
       </c>
       <c r="I32" s="15">
         <v>0.44</v>
       </c>
       <c r="J32" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"44%"}</v>
       </c>
       <c r="K32" s="15">
         <v>0.28999999999999998</v>
       </c>
       <c r="L32" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"}</v>
       </c>
       <c r="M32" s="14">
         <v>3</v>
       </c>
       <c r="N32" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"3"}</v>
       </c>
-      <c r="O32" s="36" t="str">
+      <c r="O32" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"17%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"8%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"21%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"44%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"3"}]</v>
       </c>
@@ -29137,45 +29134,45 @@
         <v>0.06</v>
       </c>
       <c r="D33" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"6%"}</v>
       </c>
       <c r="E33" s="15">
         <v>0.04</v>
       </c>
       <c r="F33" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"4%"}</v>
       </c>
       <c r="G33" s="15">
         <v>0.19</v>
       </c>
       <c r="H33" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"19%"}</v>
       </c>
       <c r="I33" s="15">
         <v>0.6</v>
       </c>
       <c r="J33" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"60%"}</v>
       </c>
       <c r="K33" s="15">
         <v>0.21</v>
       </c>
       <c r="L33" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"}</v>
       </c>
       <c r="M33" s="14">
         <v>10</v>
       </c>
       <c r="N33" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"10"}</v>
       </c>
-      <c r="O33" s="36" t="str">
+      <c r="O33" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"6%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"4%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"19%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"60%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"10"}]</v>
       </c>
@@ -29191,45 +29188,45 @@
         <v>0.32</v>
       </c>
       <c r="D34" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"32%"}</v>
       </c>
       <c r="E34" s="15">
         <v>0.16</v>
       </c>
       <c r="F34" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"}</v>
       </c>
       <c r="G34" s="15">
         <v>0.27</v>
       </c>
       <c r="H34" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"27%"}</v>
       </c>
       <c r="I34" s="15">
         <v>0.42</v>
       </c>
       <c r="J34" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"42%"}</v>
       </c>
       <c r="K34" s="15">
         <v>0.43</v>
       </c>
       <c r="L34" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"43%"}</v>
       </c>
       <c r="M34" s="14">
         <v>2</v>
       </c>
       <c r="N34" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O34" s="36" t="str">
+      <c r="O34" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"32%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"27%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"42%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"43%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -29245,45 +29242,45 @@
         <v>0.22</v>
       </c>
       <c r="D35" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"22%"}</v>
       </c>
       <c r="E35" s="15">
         <v>0.18</v>
       </c>
       <c r="F35" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"}</v>
       </c>
       <c r="G35" s="15">
         <v>0.7</v>
       </c>
       <c r="H35" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"70%"}</v>
       </c>
       <c r="I35" s="15">
         <v>0.19</v>
       </c>
       <c r="J35" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"19%"}</v>
       </c>
       <c r="K35" s="15">
         <v>0.28999999999999998</v>
       </c>
       <c r="L35" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"}</v>
       </c>
       <c r="M35" s="14">
         <v>2</v>
       </c>
       <c r="N35" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O35" s="36" t="str">
+      <c r="O35" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"22%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"70%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"19%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -29299,45 +29296,45 @@
         <v>0.2</v>
       </c>
       <c r="D36" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"}</v>
       </c>
       <c r="E36" s="15">
         <v>0.17</v>
       </c>
       <c r="F36" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"17%"}</v>
       </c>
       <c r="G36" s="15">
         <v>0.36</v>
       </c>
       <c r="H36" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"36%"}</v>
       </c>
       <c r="I36" s="15">
         <v>0.31</v>
       </c>
       <c r="J36" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"}</v>
       </c>
       <c r="K36" s="15">
         <v>0.22</v>
       </c>
       <c r="L36" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"22%"}</v>
       </c>
       <c r="M36" s="14">
         <v>7</v>
       </c>
       <c r="N36" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"7"}</v>
       </c>
-      <c r="O36" s="36" t="str">
+      <c r="O36" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"17%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"36%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"22%"},{"description": "Número de homicidios en 2023", "value":"7"}]</v>
       </c>
@@ -29353,45 +29350,45 @@
         <v>0.15</v>
       </c>
       <c r="D37" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"15%"}</v>
       </c>
       <c r="E37" s="15">
         <v>0.09</v>
       </c>
       <c r="F37" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"9%"}</v>
       </c>
       <c r="G37" s="15">
         <v>0.42</v>
       </c>
       <c r="H37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"42%"}</v>
       </c>
       <c r="I37" s="15">
         <v>0.33</v>
       </c>
       <c r="J37" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"33%"}</v>
       </c>
       <c r="K37" s="15">
         <v>0.26</v>
       </c>
       <c r="L37" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"26%"}</v>
       </c>
       <c r="M37" s="14">
         <v>1</v>
       </c>
       <c r="N37" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"1"}</v>
       </c>
-      <c r="O37" s="36" t="str">
+      <c r="O37" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"15%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"9%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"42%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"33%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"26%"},{"description": "Número de homicidios en 2023", "value":"1"}]</v>
       </c>
@@ -29407,45 +29404,45 @@
         <v>0.27</v>
       </c>
       <c r="D38" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"27%"}</v>
       </c>
       <c r="E38" s="15">
         <v>0.13</v>
       </c>
       <c r="F38" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"13%"}</v>
       </c>
       <c r="G38" s="15">
         <v>0.28999999999999998</v>
       </c>
       <c r="H38" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"29%"}</v>
       </c>
       <c r="I38" s="15">
         <v>0.42</v>
       </c>
       <c r="J38" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"42%"}</v>
       </c>
       <c r="K38" s="15">
         <v>0.47</v>
       </c>
       <c r="L38" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"47%"}</v>
       </c>
       <c r="M38" s="14">
         <v>9</v>
       </c>
       <c r="N38" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"9"}</v>
       </c>
-      <c r="O38" s="36" t="str">
+      <c r="O38" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"27%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"13%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"29%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"42%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"47%"},{"description": "Número de homicidios en 2023", "value":"9"}]</v>
       </c>
@@ -29461,45 +29458,45 @@
         <v>0.13</v>
       </c>
       <c r="D39" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"}</v>
       </c>
       <c r="E39" s="15">
         <v>0.17</v>
       </c>
       <c r="F39" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"17%"}</v>
       </c>
       <c r="G39" s="15">
         <v>0.46</v>
       </c>
       <c r="H39" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"}</v>
       </c>
       <c r="I39" s="15">
         <v>0.28999999999999998</v>
       </c>
       <c r="J39" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"29%"}</v>
       </c>
       <c r="K39" s="15">
         <v>0.27</v>
       </c>
       <c r="L39" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"27%"}</v>
       </c>
       <c r="M39" s="14">
         <v>4</v>
       </c>
       <c r="N39" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"4"}</v>
       </c>
-      <c r="O39" s="36" t="str">
+      <c r="O39" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"17%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"29%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"27%"},{"description": "Número de homicidios en 2023", "value":"4"}]</v>
       </c>
@@ -29515,45 +29512,45 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D40" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"29%"}</v>
       </c>
       <c r="E40" s="15">
         <v>0.26</v>
       </c>
       <c r="F40" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"26%"}</v>
       </c>
       <c r="G40" s="15">
         <v>0.55000000000000004</v>
       </c>
       <c r="H40" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"}</v>
       </c>
       <c r="I40" s="15">
         <v>0.2</v>
       </c>
       <c r="J40" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"20%"}</v>
       </c>
       <c r="K40" s="15">
         <v>0.3</v>
       </c>
       <c r="L40" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"}</v>
       </c>
       <c r="M40" s="14">
         <v>1</v>
       </c>
       <c r="N40" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"1"}</v>
       </c>
-      <c r="O40" s="36" t="str">
+      <c r="O40" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"29%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"26%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"20%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"1"}]</v>
       </c>
@@ -29569,45 +29566,45 @@
         <v>0.32</v>
       </c>
       <c r="D41" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"32%"}</v>
       </c>
       <c r="E41" s="15">
         <v>0.3</v>
       </c>
       <c r="F41" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"30%"}</v>
       </c>
       <c r="G41" s="15">
         <v>0.6</v>
       </c>
       <c r="H41" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"}</v>
       </c>
       <c r="I41" s="15">
         <v>0.18</v>
       </c>
       <c r="J41" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"18%"}</v>
       </c>
       <c r="K41" s="15">
         <v>0.35</v>
       </c>
       <c r="L41" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"}</v>
       </c>
       <c r="M41" s="14">
         <v>2</v>
       </c>
       <c r="N41" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O41" s="36" t="str">
+      <c r="O41" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"32%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"30%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"18%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -29623,45 +29620,45 @@
         <v>0.2</v>
       </c>
       <c r="D42" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"}</v>
       </c>
       <c r="E42" s="15">
         <v>0.14000000000000001</v>
       </c>
       <c r="F42" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"}</v>
       </c>
       <c r="G42" s="15">
         <v>0.25</v>
       </c>
       <c r="H42" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"25%"}</v>
       </c>
       <c r="I42" s="15">
         <v>0.43</v>
       </c>
       <c r="J42" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"43%"}</v>
       </c>
       <c r="K42" s="15">
         <v>0.31</v>
       </c>
       <c r="L42" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"31%"}</v>
       </c>
       <c r="M42" s="14">
         <v>1</v>
       </c>
       <c r="N42" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"1"}</v>
       </c>
-      <c r="O42" s="36" t="str">
+      <c r="O42" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"25%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"43%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"31%"},{"description": "Número de homicidios en 2023", "value":"1"}]</v>
       </c>
@@ -29677,45 +29674,45 @@
         <v>0.4</v>
       </c>
       <c r="D43" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"40%"}</v>
       </c>
       <c r="E43" s="15">
         <v>0.23</v>
       </c>
       <c r="F43" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"23%"}</v>
       </c>
       <c r="G43" s="15">
         <v>0.7</v>
       </c>
       <c r="H43" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"70%"}</v>
       </c>
       <c r="I43" s="15">
         <v>0.23</v>
       </c>
       <c r="J43" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"23%"}</v>
       </c>
       <c r="K43" s="15">
         <v>0.25</v>
       </c>
       <c r="L43" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"25%"}</v>
       </c>
       <c r="M43" s="14">
         <v>4</v>
       </c>
       <c r="N43" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"4"}</v>
       </c>
-      <c r="O43" s="36" t="str">
+      <c r="O43" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"40%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"23%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"70%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"23%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"25%"},{"description": "Número de homicidios en 2023", "value":"4"}]</v>
       </c>
@@ -29731,45 +29728,45 @@
         <v>0.25</v>
       </c>
       <c r="D44" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"25%"}</v>
       </c>
       <c r="E44" s="15">
         <v>0.22</v>
       </c>
       <c r="F44" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"22%"}</v>
       </c>
       <c r="G44" s="15">
         <v>0.5</v>
       </c>
       <c r="H44" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"50%"}</v>
       </c>
       <c r="I44" s="15">
         <v>0.31</v>
       </c>
       <c r="J44" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"}</v>
       </c>
       <c r="K44" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="L44" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"}</v>
       </c>
       <c r="M44" s="14">
         <v>2</v>
       </c>
       <c r="N44" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O44" s="36" t="str">
+      <c r="O44" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"25%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"22%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"50%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -29785,45 +29782,45 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D45" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"29%"}</v>
       </c>
       <c r="E45" s="15">
         <v>0.23</v>
       </c>
       <c r="F45" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"23%"}</v>
       </c>
       <c r="G45" s="15">
         <v>0.36</v>
       </c>
       <c r="H45" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"36%"}</v>
       </c>
       <c r="I45" s="15">
         <v>0.35</v>
       </c>
       <c r="J45" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"35%"}</v>
       </c>
       <c r="K45" s="15">
         <v>0.38</v>
       </c>
       <c r="L45" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"}</v>
       </c>
       <c r="M45" s="14">
         <v>2</v>
       </c>
       <c r="N45" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"2"}</v>
       </c>
-      <c r="O45" s="36" t="str">
+      <c r="O45" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"29%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"23%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"36%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"35%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"2"}]</v>
       </c>
@@ -29839,45 +29836,45 @@
         <v>0.3</v>
       </c>
       <c r="D46" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"}</v>
       </c>
       <c r="E46" s="15">
         <v>0.24</v>
       </c>
       <c r="F46" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"24%"}</v>
       </c>
       <c r="G46" s="15">
         <v>0.83</v>
       </c>
       <c r="H46" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"83%"}</v>
       </c>
       <c r="I46" s="15">
         <v>0.22</v>
       </c>
       <c r="J46" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"22%"}</v>
       </c>
       <c r="K46" s="15">
         <v>0.18</v>
       </c>
       <c r="L46" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"18%"}</v>
       </c>
       <c r="M46" s="14">
         <v>1</v>
       </c>
       <c r="N46" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"1"}</v>
       </c>
-      <c r="O46" s="36" t="str">
+      <c r="O46" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"24%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"83%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"22%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"18%"},{"description": "Número de homicidios en 2023", "value":"1"}]</v>
       </c>
@@ -29893,45 +29890,45 @@
         <v>0.31</v>
       </c>
       <c r="D47" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"31%"}</v>
       </c>
       <c r="E47" s="15">
         <v>0.18</v>
       </c>
       <c r="F47" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"}</v>
       </c>
       <c r="G47" s="15">
         <v>0.69</v>
       </c>
       <c r="H47" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"description": "Porcentaje de hogares sin recolección de basura público", "value":"69%"}</v>
       </c>
       <c r="I47" s="15">
         <v>0.36</v>
       </c>
       <c r="J47" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"description": "Porcentaje de hogares con servicio de internet", "value":"36%"}</v>
       </c>
       <c r="K47" s="15">
         <v>0.32</v>
       </c>
       <c r="L47" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"32%"}</v>
       </c>
       <c r="M47" s="14">
         <v>7</v>
       </c>
       <c r="N47" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>{"description": "Número de homicidios en 2023", "value":"7"}</v>
       </c>
-      <c r="O47" s="36" t="str">
+      <c r="O47" s="32" t="str">
         <f t="shared" si="6"/>
         <v>"category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"31%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"69%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"36%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"32%"},{"description": "Número de homicidios en 2023", "value":"7"}]</v>
       </c>
@@ -30918,11 +30915,11 @@
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -30961,7 +30958,7 @@
         <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $E$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(E3,"$###.##") &amp; """","}")</f>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$197.56"}</v>
       </c>
-      <c r="G3" s="36" t="str">
+      <c r="G3" s="32" t="str">
         <f>CONCATENATE("""" &amp; "category6" &amp;""": [",D3,",",F3,"]")</f>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$197.56"}]</v>
       </c>
@@ -30987,7 +30984,7 @@
         <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $E$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(E4,"$###.##") &amp; """","}")</f>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$212.4"}</v>
       </c>
-      <c r="G4" s="36" t="str">
+      <c r="G4" s="32" t="str">
         <f t="shared" ref="G4:G47" si="1">CONCATENATE("""" &amp; "category6" &amp;""": [",D4,",",F4,"]")</f>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"15%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$212.4"}]</v>
       </c>
@@ -31013,7 +31010,7 @@
         <f>CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $E$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(E5,"$###.##") &amp; """","}")</f>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$157.81"}</v>
       </c>
-      <c r="G5" s="36" t="str">
+      <c r="G5" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"13%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$157.81"}]</v>
       </c>
@@ -31039,7 +31036,7 @@
         <f t="shared" ref="F6:F47" si="2">CONCATENATE("{","""" &amp; "description"  &amp; """", ": ", """" &amp; $E$2 &amp; """", ", """ &amp; "value" &amp;""":", """" &amp; TEXT(E6,"$###.##") &amp; """","}")</f>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$162.85"}</v>
       </c>
-      <c r="G6" s="36" t="str">
+      <c r="G6" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"23%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$162.85"}]</v>
       </c>
@@ -31065,7 +31062,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$191.92"}</v>
       </c>
-      <c r="G7" s="36" t="str">
+      <c r="G7" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"45%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$191.92"}]</v>
       </c>
@@ -31091,7 +31088,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$215.53"}</v>
       </c>
-      <c r="G8" s="36" t="str">
+      <c r="G8" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"50%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$215.53"}]</v>
       </c>
@@ -31117,7 +31114,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$267.2"}</v>
       </c>
-      <c r="G9" s="36" t="str">
+      <c r="G9" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"46%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$267.2"}]</v>
       </c>
@@ -31143,7 +31140,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$255.69"}</v>
       </c>
-      <c r="G10" s="36" t="str">
+      <c r="G10" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"41%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$255.69"}]</v>
       </c>
@@ -31169,7 +31166,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.17"}</v>
       </c>
-      <c r="G11" s="36" t="str">
+      <c r="G11" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"35%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.17"}]</v>
       </c>
@@ -31195,7 +31192,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$193.48"}</v>
       </c>
-      <c r="G12" s="36" t="str">
+      <c r="G12" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"19%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$193.48"}]</v>
       </c>
@@ -31221,7 +31218,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$197.83"}</v>
       </c>
-      <c r="G13" s="36" t="str">
+      <c r="G13" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"17%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$197.83"}]</v>
       </c>
@@ -31247,7 +31244,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$176.21"}</v>
       </c>
-      <c r="G14" s="36" t="str">
+      <c r="G14" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"26%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$176.21"}]</v>
       </c>
@@ -31273,7 +31270,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$211.47"}</v>
       </c>
-      <c r="G15" s="36" t="str">
+      <c r="G15" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"24%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$211.47"}]</v>
       </c>
@@ -31299,7 +31296,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$199.71"}</v>
       </c>
-      <c r="G16" s="36" t="str">
+      <c r="G16" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"18%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$199.71"}]</v>
       </c>
@@ -31325,7 +31322,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$313.63"}</v>
       </c>
-      <c r="G17" s="36" t="str">
+      <c r="G17" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"9%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$313.63"}]</v>
       </c>
@@ -31351,7 +31348,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$200.81"}</v>
       </c>
-      <c r="G18" s="36" t="str">
+      <c r="G18" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$200.81"}]</v>
       </c>
@@ -31377,7 +31374,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$219.84"}</v>
       </c>
-      <c r="G19" s="36" t="str">
+      <c r="G19" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"13%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$219.84"}]</v>
       </c>
@@ -31403,7 +31400,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$194.96"}</v>
       </c>
-      <c r="G20" s="36" t="str">
+      <c r="G20" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"28%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$194.96"}]</v>
       </c>
@@ -31429,7 +31426,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$147.73"}</v>
       </c>
-      <c r="G21" s="36" t="str">
+      <c r="G21" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$147.73"}]</v>
       </c>
@@ -31455,7 +31452,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$205.27"}</v>
       </c>
-      <c r="G22" s="36" t="str">
+      <c r="G22" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"20%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$205.27"}]</v>
       </c>
@@ -31481,7 +31478,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$205.56"}</v>
       </c>
-      <c r="G23" s="36" t="str">
+      <c r="G23" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"60%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$205.56"}]</v>
       </c>
@@ -31507,7 +31504,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$215.53"}</v>
       </c>
-      <c r="G24" s="36" t="str">
+      <c r="G24" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"45%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$215.53"}]</v>
       </c>
@@ -31533,7 +31530,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$168.27"}</v>
       </c>
-      <c r="G25" s="36" t="str">
+      <c r="G25" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"30%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$168.27"}]</v>
       </c>
@@ -31559,7 +31556,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$196.24"}</v>
       </c>
-      <c r="G26" s="36" t="str">
+      <c r="G26" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"39%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$196.24"}]</v>
       </c>
@@ -31585,7 +31582,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$196.14"}</v>
       </c>
-      <c r="G27" s="36" t="str">
+      <c r="G27" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"54%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$196.14"}]</v>
       </c>
@@ -31611,7 +31608,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$176.24"}</v>
       </c>
-      <c r="G28" s="36" t="str">
+      <c r="G28" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"34%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$176.24"}]</v>
       </c>
@@ -31637,7 +31634,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$171.24"}</v>
       </c>
-      <c r="G29" s="36" t="str">
+      <c r="G29" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"36%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$171.24"}]</v>
       </c>
@@ -31663,7 +31660,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$174.37"}</v>
       </c>
-      <c r="G30" s="36" t="str">
+      <c r="G30" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"30%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$174.37"}]</v>
       </c>
@@ -31689,7 +31686,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$209.05"}</v>
       </c>
-      <c r="G31" s="36" t="str">
+      <c r="G31" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"17%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$209.05"}]</v>
       </c>
@@ -31715,7 +31712,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$192.09"}</v>
       </c>
-      <c r="G32" s="36" t="str">
+      <c r="G32" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"18%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$192.09"}]</v>
       </c>
@@ -31741,7 +31738,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$177.96"}</v>
       </c>
-      <c r="G33" s="36" t="str">
+      <c r="G33" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"19%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$177.96"}]</v>
       </c>
@@ -31767,7 +31764,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$230.44"}</v>
       </c>
-      <c r="G34" s="36" t="str">
+      <c r="G34" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"11%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$230.44"}]</v>
       </c>
@@ -31793,7 +31790,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$166.82"}</v>
       </c>
-      <c r="G35" s="36" t="str">
+      <c r="G35" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"35%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$166.82"}]</v>
       </c>
@@ -31819,7 +31816,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$160.79"}</v>
       </c>
-      <c r="G36" s="36" t="str">
+      <c r="G36" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"31%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$160.79"}]</v>
       </c>
@@ -31845,7 +31842,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$216.82"}</v>
       </c>
-      <c r="G37" s="36" t="str">
+      <c r="G37" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"46%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$216.82"}]</v>
       </c>
@@ -31871,7 +31868,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$226.8"}</v>
       </c>
-      <c r="G38" s="36" t="str">
+      <c r="G38" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"31%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$226.8"}]</v>
       </c>
@@ -31897,7 +31894,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$211.1"}</v>
       </c>
-      <c r="G39" s="36" t="str">
+      <c r="G39" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"23%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$211.1"}]</v>
       </c>
@@ -31923,7 +31920,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$276.58"}</v>
       </c>
-      <c r="G40" s="36" t="str">
+      <c r="G40" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$276.58"}]</v>
       </c>
@@ -31949,7 +31946,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$231.18"}</v>
       </c>
-      <c r="G41" s="36" t="str">
+      <c r="G41" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"8%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$231.18"}]</v>
       </c>
@@ -31975,7 +31972,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$238.12"}</v>
       </c>
-      <c r="G42" s="36" t="str">
+      <c r="G42" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$238.12"}]</v>
       </c>
@@ -32001,7 +31998,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$187.55"}</v>
       </c>
-      <c r="G43" s="36" t="str">
+      <c r="G43" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$187.55"}]</v>
       </c>
@@ -32027,7 +32024,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$226.9"}</v>
       </c>
-      <c r="G44" s="36" t="str">
+      <c r="G44" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"14%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$226.9"}]</v>
       </c>
@@ -32053,7 +32050,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.14"}</v>
       </c>
-      <c r="G45" s="36" t="str">
+      <c r="G45" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"27%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.14"}]</v>
       </c>
@@ -32079,7 +32076,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$181.67"}</v>
       </c>
-      <c r="G46" s="36" t="str">
+      <c r="G46" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"34%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$181.67"}]</v>
       </c>
@@ -32105,7 +32102,7 @@
         <f t="shared" si="2"/>
         <v>{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.8"}</v>
       </c>
-      <c r="G47" s="36" t="str">
+      <c r="G47" s="32" t="str">
         <f t="shared" si="1"/>
         <v>"category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"40%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.8"}]</v>
       </c>
@@ -33077,8 +33074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B3:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33100,7 +33097,7 @@
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(General!J3,Población!M3,", ",Educación!K3, ", ",Trabajo!K3,", ",Oportunidades!O3,", ",Servicios!O3,", ",Remesas!G3,"}, ")</f>
-        <v xml:space="preserve">{"name": "El Salvador", "abbreviation":"esv", "highlightTable1": "52% tasa de dependencia", "highlightTable2": "7.3 escolaridad promedio", "highlightTable3": "70% empleo informal", "highlightTable4": "25% pobreza multidimensional", "highlightTable5": "43%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"21,040.56"}, "highlight2":{ "name": "Densidad poblacional", "value":"301.27"}, "highlight3":{ "name": "Número de distritos", "value":"14"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"6,338,881"},{"description": "Porcentaje de personas que residen en el área rural", "value":"38%"},{"description": "Índice de masculinidad", "value":"87.6"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"48%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$364.45"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$700.94"},{"description": "Ingreso per cápita promedio", "value":"$249.42"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"43%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"37%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"31%"},{"description": "Número de homicidios en 2023", "value":"154"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$197.56"}]}, </v>
+        <v xml:space="preserve">{"name": "El Salvador", "abbreviation":"esv", "highlightTable1": "52% tasa de dependencia", "highlightTable2": "7.3 escolaridad promedio", "highlightTable3": "70% empleo informal", "highlightTable4": "25% pobreza multidimensional", "highlightTable5": "43%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"21,040.56"}, "highlight2":{ "name": "Densidad poblacional", "value":"301.27"}, "highlight3":{ "name": "Número de distritos", "value":"14"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"6,338,881"},{"description": "Porcentaje de personas que residen en el área rural", "value":"38%"},{"description": "Índice de masculinidad", "value":"87.6"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"48%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$364.45"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$700.94"},{"description": "Ingreso per cápita promedio", "value":"$249.42"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"43%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"37%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"31%"},{"description": "Número de homicidios en 2023", "value":"154"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$197.56"}]}, </v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -33109,7 +33106,7 @@
       </c>
       <c r="B4" t="str">
         <f>CONCATENATE(General!J4,Población!M4,", ",Educación!K4, ", ",Trabajo!K4,", ",Oportunidades!O4,", ",Servicios!O4,", ",Remesas!G4,"}, ")</f>
-        <v xml:space="preserve">{"name": "Ahuachapán Norte", "abbreviation":"ahn", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.2 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "61%  sin recolección de basura","highlightTable6": "15% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"146.89"}, "highlight2":{ "name": "Densidad poblacional", "value":"493.01"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"72,418"},{"description": "Porcentaje de personas que residen en el área rural", "value":"39%"},{"description": "Índice de masculinidad", "value":"92.87"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"7.2"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"56%"},{"description": "Tasa de ocupación femenina", "value":"40%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$299.93"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$537.08"},{"description": "Ingreso per cápita promedio", "value":"$190.64"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"36%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"25%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"15%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"61%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"34%"},{"description": "Número de homicidios en 2023", "value":"3"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"15%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$212.4"}]}, </v>
+        <v xml:space="preserve">{"name": "Ahuachapán Norte", "abbreviation":"ahn", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.2 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "61%  sin recolección de basura","highlightTable6": "15% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"146.89"}, "highlight2":{ "name": "Densidad poblacional", "value":"493.01"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"72,418"},{"description": "Porcentaje de personas que residen en el área rural", "value":"39%"},{"description": "Índice de masculinidad", "value":"92.87"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"7%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"7.2"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"56%"},{"description": "Tasa de ocupación femenina", "value":"40%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$299.93"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$537.08"},{"description": "Ingreso per cápita promedio", "value":"$190.64"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"36%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"25%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"15%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"61%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"34%"},{"description": "Número de homicidios en 2023", "value":"3"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"15%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$212.4"}]}, </v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -33118,7 +33115,7 @@
       </c>
       <c r="B5" t="str">
         <f>CONCATENATE(General!J5,Población!M5,", ",Educación!K5, ", ",Trabajo!K5,", ",Oportunidades!O5,", ",Servicios!O5,", ",Remesas!G5,"}, ")</f>
-        <v xml:space="preserve">{"name": "Ahuachapán Centro", "abbreviation":"ahc", "highlightTable1": "53% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "40% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "13% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"501.01"}, "highlight2":{ "name": "Densidad poblacional", "value":"360.85"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"18,079"},{"description": "Porcentaje de personas que residen en el área rural", "value":"47%"},{"description": "Índice de masculinidad", "value":"94.42"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"53%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$300.99"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$590.5"},{"description": "Ingreso per cápita promedio", "value":"$195.25"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"31%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"40%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"54%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"27%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"21%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"13%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$157.81"}]}, </v>
+        <v xml:space="preserve">{"name": "Ahuachapán Centro", "abbreviation":"ahc", "highlightTable1": "53% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "40% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "13% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"501.01"}, "highlight2":{ "name": "Densidad poblacional", "value":"360.85"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"18,079"},{"description": "Porcentaje de personas que residen en el área rural", "value":"47%"},{"description": "Índice de masculinidad", "value":"94.42"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"53%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$300.99"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$590.5"},{"description": "Ingreso per cápita promedio", "value":"$195.25"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"31%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"40%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"54%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"27%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"21%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"13%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$157.81"}]}, </v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -33127,7 +33124,7 @@
       </c>
       <c r="B6" t="str">
         <f>CONCATENATE(General!J6,Población!M6,", ",Educación!K6, ", ",Trabajo!K6,", ",Oportunidades!O6,", ",Servicios!O6,", ",Remesas!G6,"}, ")</f>
-        <v xml:space="preserve">{"name": "Ahuachapán Sur", "abbreviation":"ahs", "highlightTable1": "62% tasa de dependencia","highlightTable2": "5.1 escolaridad promedio","highlightTable3": "86% empleo informal","highlightTable4": "50% pobreza multidimensional","highlightTable5": "71%  sin recolección de basura","highlightTable6": "23% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"591.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"193.77"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"114,603"},{"description": "Porcentaje de personas que residen en el área rural", "value":"73%"},{"description": "Índice de masculinidad", "value":"92.85"},{"description": "Índice de envejecimiento", "value":"22%"},{"description": "Tasa de dependencia", "value":"62%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"24%"},{"description": "Escolaridad promedio (en años)", "value":"5.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"59%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"41%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"86%"},{"description": "Ingreso laboral promedio", "value":"$246.95"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$461.35"},{"description": "Ingreso per cápita promedio", "value":"$160."},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"44%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"50%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"55%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"14%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"29%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"71%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"21%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"23%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$162.85"}]}, </v>
+        <v xml:space="preserve">{"name": "Ahuachapán Sur", "abbreviation":"ahs", "highlightTable1": "62% tasa de dependencia","highlightTable2": "5.1 escolaridad promedio","highlightTable3": "86% empleo informal","highlightTable4": "50% pobreza multidimensional","highlightTable5": "71%  sin recolección de basura","highlightTable6": "23% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"591.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"193.77"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"114,603"},{"description": "Porcentaje de personas que residen en el área rural", "value":"73%"},{"description": "Índice de masculinidad", "value":"92.85"},{"description": "Índice de envejecimiento", "value":"22%"},{"description": "Tasa de dependencia", "value":"62%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"19%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"24%"},{"description": "Escolaridad promedio (en años)", "value":"5.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"59%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"41%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"86%"},{"description": "Ingreso laboral promedio", "value":"$246.95"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$461.35"},{"description": "Ingreso per cápita promedio", "value":"$160."},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"44%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"50%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"55%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"14%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"29%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"71%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"21%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"23%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$162.85"}]}, </v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -33136,7 +33133,7 @@
       </c>
       <c r="B7" t="str">
         <f>CONCATENATE(General!J7,Población!M7,", ",Educación!K7, ", ",Trabajo!K7,", ",Oportunidades!O7,", ",Servicios!O7,", ",Remesas!G7,"}, ")</f>
-        <v xml:space="preserve">{"name": "Cabañas Oeste", "abbreviation":"cbo", "highlightTable1": "68% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "45% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"401.84"}, "highlight2":{ "name": "Densidad poblacional", "value":"210.63"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"84,641"},{"description": "Porcentaje de personas que residen en el área rural", "value":"65%"},{"description": "Índice de masculinidad", "value":"87.9"},{"description": "Índice de envejecimiento", "value":"23%"},{"description": "Tasa de dependencia", "value":"68%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"54%"},{"description": "Tasa de ocupación femenina", "value":"37%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$260.37"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$532.97"},{"description": "Ingreso per cápita promedio", "value":"$183.13"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"40%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"},{"description": "Número de homicidios en 2023", "value":""}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"45%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$191.92"}]}, </v>
+        <v xml:space="preserve">{"name": "Cabañas Oeste", "abbreviation":"cbo", "highlightTable1": "68% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "45% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"401.84"}, "highlight2":{ "name": "Densidad poblacional", "value":"210.63"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"84,641"},{"description": "Porcentaje de personas que residen en el área rural", "value":"65%"},{"description": "Índice de masculinidad", "value":"87.9"},{"description": "Índice de envejecimiento", "value":"23%"},{"description": "Tasa de dependencia", "value":"68%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"14%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"54%"},{"description": "Tasa de ocupación femenina", "value":"37%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$260.37"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$532.97"},{"description": "Ingreso per cápita promedio", "value":"$183.13"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"40%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"39%"},{"description": "Número de homicidios en 2023", "value":"0"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"45%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$191.92"}]}, </v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -33145,7 +33142,7 @@
       </c>
       <c r="B8" t="str">
         <f>CONCATENATE(General!J8,Población!M8,", ",Educación!K8, ", ",Trabajo!K8,", ",Oportunidades!O8,", ",Servicios!O8,", ",Remesas!G8,"}, ")</f>
-        <v xml:space="preserve">{"name": "Cabañas Este", "abbreviation":"cbe", "highlightTable1": "67% tasa de dependencia","highlightTable2": "5.6 escolaridad promedio","highlightTable3": "89% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "54%  sin recolección de basura","highlightTable6": "50% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"701.67"}, "highlight2":{ "name": "Densidad poblacional", "value":"98.24"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"6,893"},{"description": "Porcentaje de personas que residen en el área rural", "value":"71%"},{"description": "Índice de masculinidad", "value":"90"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"67%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"5.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"34%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"89%"},{"description": "Ingreso laboral promedio", "value":"$256."}], "category4": [{"description": "Ingreso familiar promedio", "value":"$507.67"},{"description": "Ingreso per cápita promedio", "value":"$182.89"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"34%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"37%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"17%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"11%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"54%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"5"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"50%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$215.53"}]}, </v>
+        <v xml:space="preserve">{"name": "Cabañas Este", "abbreviation":"cbe", "highlightTable1": "67% tasa de dependencia","highlightTable2": "5.6 escolaridad promedio","highlightTable3": "89% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "54%  sin recolección de basura","highlightTable6": "50% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"701.67"}, "highlight2":{ "name": "Densidad poblacional", "value":"98.24"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"6,893"},{"description": "Porcentaje de personas que residen en el área rural", "value":"71%"},{"description": "Índice de masculinidad", "value":"90"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"67%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"5.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"34%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"89%"},{"description": "Ingreso laboral promedio", "value":"$256."}], "category4": [{"description": "Ingreso familiar promedio", "value":"$507.67"},{"description": "Ingreso per cápita promedio", "value":"$182.89"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"34%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"37%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"17%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"11%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"54%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"5"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"50%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$215.53"}]}, </v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -33154,7 +33151,7 @@
       </c>
       <c r="B9" t="str">
         <f>CONCATENATE(General!J9,Población!M9,", ",Educación!K9, ", ",Trabajo!K9,", ",Oportunidades!O9,", ",Servicios!O9,", ",Remesas!G9,"}, ")</f>
-        <v xml:space="preserve">{"name": "Chalatenango Norte", "abbreviation":"chn", "highlightTable1": "65% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "86% empleo informal","highlightTable4": "10% pobreza multidimensional","highlightTable5": "26%  sin recolección de basura","highlightTable6": "46% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"284.11"}, "highlight2":{ "name": "Densidad poblacional", "value":"89.67"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"25,476"},{"description": "Porcentaje de personas que residen en el área rural", "value":"66%"},{"description": "Índice de masculinidad", "value":"88.82"},{"description": "Índice de envejecimiento", "value":"24%"},{"description": "Tasa de dependencia", "value":"65%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"68%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"86%"},{"description": "Ingreso laboral promedio", "value":"$468.05"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$1053.16"},{"description": "Ingreso per cápita promedio", "value":"$415.16"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"13%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"10%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"34%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"16%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"39%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"46%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$267.2"}]}, </v>
+        <v xml:space="preserve">{"name": "Chalatenango Norte", "abbreviation":"chn", "highlightTable1": "65% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "86% empleo informal","highlightTable4": "10% pobreza multidimensional","highlightTable5": "26%  sin recolección de basura","highlightTable6": "46% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"284.11"}, "highlight2":{ "name": "Densidad poblacional", "value":"89.67"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"25,476"},{"description": "Porcentaje de personas que residen en el área rural", "value":"66%"},{"description": "Índice de masculinidad", "value":"88.82"},{"description": "Índice de envejecimiento", "value":"24%"},{"description": "Tasa de dependencia", "value":"65%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"68%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"86%"},{"description": "Ingreso laboral promedio", "value":"$468.05"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$1053.16"},{"description": "Ingreso per cápita promedio", "value":"$415.16"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"13%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"10%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"34%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"16%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"39%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"46%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$267.2"}]}, </v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -33163,7 +33160,7 @@
       </c>
       <c r="B10" t="str">
         <f>CONCATENATE(General!J10,Población!M10,", ",Educación!K10, ", ",Trabajo!K10,", ",Oportunidades!O10,", ",Servicios!O10,", ",Remesas!G10,"}, ")</f>
-        <v xml:space="preserve">{"name": "Chalatenango Centro", "abbreviation":"chc", "highlightTable1": "63% tasa de dependencia","highlightTable2": "5.4 escolaridad promedio","highlightTable3": "90% empleo informal","highlightTable4": "27% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "41% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"1,018.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"83.84"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"85,386"},{"description": "Porcentaje de personas que residen en el área rural", "value":"75%"},{"description": "Índice de masculinidad", "value":"87.92"},{"description": "Índice de envejecimiento", "value":"30%"},{"description": "Tasa de dependencia", "value":"63%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"5.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"90%"},{"description": "Ingreso laboral promedio", "value":"$276.5"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$566.71"},{"description": "Ingreso per cápita promedio", "value":"$197.72"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"27%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"8%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"14%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"13%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"3"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"41%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$255.69"}]}, </v>
+        <v xml:space="preserve">{"name": "Chalatenango Centro", "abbreviation":"chc", "highlightTable1": "63% tasa de dependencia","highlightTable2": "5.4 escolaridad promedio","highlightTable3": "90% empleo informal","highlightTable4": "27% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "41% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"1,018.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"83.84"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"85,386"},{"description": "Porcentaje de personas que residen en el área rural", "value":"75%"},{"description": "Índice de masculinidad", "value":"87.92"},{"description": "Índice de envejecimiento", "value":"30%"},{"description": "Tasa de dependencia", "value":"63%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"16%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"5.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"90%"},{"description": "Ingreso laboral promedio", "value":"$276.5"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$566.71"},{"description": "Ingreso per cápita promedio", "value":"$197.72"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"27%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"8%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"14%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"13%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"3"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"41%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$255.69"}]}, </v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -33172,7 +33169,7 @@
       </c>
       <c r="B11" t="str">
         <f>CONCATENATE(General!J11,Población!M11,", ",Educación!K11, ", ",Trabajo!K11,", ",Oportunidades!O11,", ",Servicios!O11,", ",Remesas!G11,"}, ")</f>
-        <v xml:space="preserve">{"name": "Chalatenango Sur", "abbreviation":"chs", "highlightTable1": "59% tasa de dependencia","highlightTable2": "6.3 escolaridad promedio","highlightTable3": "89% empleo informal","highlightTable4": "20% pobreza multidimensional","highlightTable5": "26%  sin recolección de basura","highlightTable6": "35% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"713.99"}, "highlight2":{ "name": "Densidad poblacional", "value":"94.26"}, "highlight3":{ "name": "Número de distritos", "value":"20"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"67,304"},{"description": "Porcentaje de personas que residen en el área rural", "value":"64%"},{"description": "Índice de masculinidad", "value":"84.81"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"59%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"6.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"43%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"89%"},{"description": "Ingreso laboral promedio", "value":"$246.77"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$500.02"},{"description": "Ingreso per cápita promedio", "value":"$189.77"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"20%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"26%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":""}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"35%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.17"}]}, </v>
+        <v xml:space="preserve">{"name": "Chalatenango Sur", "abbreviation":"chs", "highlightTable1": "59% tasa de dependencia","highlightTable2": "6.3 escolaridad promedio","highlightTable3": "89% empleo informal","highlightTable4": "20% pobreza multidimensional","highlightTable5": "26%  sin recolección de basura","highlightTable6": "35% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"713.99"}, "highlight2":{ "name": "Densidad poblacional", "value":"94.26"}, "highlight3":{ "name": "Número de distritos", "value":"20"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"67,304"},{"description": "Porcentaje de personas que residen en el área rural", "value":"64%"},{"description": "Índice de masculinidad", "value":"84.81"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"59%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"6.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"43%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"89%"},{"description": "Ingreso laboral promedio", "value":"$246.77"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$500.02"},{"description": "Ingreso per cápita promedio", "value":"$189.77"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"20%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"26%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"26%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":"0"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"35%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.17"}]}, </v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -33181,7 +33178,7 @@
       </c>
       <c r="B12" t="str">
         <f>CONCATENATE(General!J12,Población!M12,", ",Educación!K12, ", ",Trabajo!K12,", ",Oportunidades!O12,", ",Servicios!O12,", ",Remesas!G12,"}, ")</f>
-        <v xml:space="preserve">{"name": "Cuscatlán Norte", "abbreviation":"csn", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.1 escolaridad promedio","highlightTable3": "78% empleo informal","highlightTable4": "29% pobreza multidimensional","highlightTable5": "77%  sin recolección de basura","highlightTable6": "19% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"499.17"}, "highlight2":{ "name": "Densidad poblacional", "value":"212.04"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"105,844"},{"description": "Porcentaje de personas que residen en el área rural", "value":"78%"},{"description": "Índice de masculinidad", "value":"87.32"},{"description": "Índice de envejecimiento", "value":"28%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"6.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"37%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"78%"},{"description": "Ingreso laboral promedio", "value":"$268.26"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$507.58"},{"description": "Ingreso per cápita promedio", "value":"$174.28"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"36%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"29%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"46%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"20%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"77%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":""}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"19%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$193.48"}]}, </v>
+        <v xml:space="preserve">{"name": "Cuscatlán Norte", "abbreviation":"csn", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.1 escolaridad promedio","highlightTable3": "78% empleo informal","highlightTable4": "29% pobreza multidimensional","highlightTable5": "77%  sin recolección de basura","highlightTable6": "19% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"499.17"}, "highlight2":{ "name": "Densidad poblacional", "value":"212.04"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"105,844"},{"description": "Porcentaje de personas que residen en el área rural", "value":"78%"},{"description": "Índice de masculinidad", "value":"87.32"},{"description": "Índice de envejecimiento", "value":"28%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"13%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"6.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"37%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"78%"},{"description": "Ingreso laboral promedio", "value":"$268.26"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$507.58"},{"description": "Ingreso per cápita promedio", "value":"$174.28"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"36%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"29%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"46%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"20%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"16%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"77%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"0"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"19%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$193.48"}]}, </v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -33190,7 +33187,7 @@
       </c>
       <c r="B13" t="str">
         <f>CONCATENATE(General!J13,Población!M13,", ",Educación!K13, ", ",Trabajo!K13,", ",Oportunidades!O13,", ",Servicios!O13,", ",Remesas!G13,"}, ")</f>
-        <v xml:space="preserve">{"name": "Cuscatlán Sur", "abbreviation":"css", "highlightTable1": "52% tasa de dependencia","highlightTable2": "7.3 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "29% pobreza multidimensional","highlightTable5": "44%  sin recolección de basura","highlightTable6": "17% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"257.02"}, "highlight2":{ "name": "Densidad poblacional", "value":"630.12"}, "highlight3":{ "name": "Número de distritos", "value":"11"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"161,953"},{"description": "Porcentaje de personas que residen en el área rural", "value":"48%"},{"description": "Índice de masculinidad", "value":"93.61"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$351.89"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$665.8"},{"description": "Ingreso per cápita promedio", "value":"$234.2"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"29%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"44%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"52%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"17%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$197.83"}]}, </v>
+        <v xml:space="preserve">{"name": "Cuscatlán Sur", "abbreviation":"css", "highlightTable1": "52% tasa de dependencia","highlightTable2": "7.3 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "29% pobreza multidimensional","highlightTable5": "44%  sin recolección de basura","highlightTable6": "17% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"257.02"}, "highlight2":{ "name": "Densidad poblacional", "value":"630.12"}, "highlight3":{ "name": "Número de distritos", "value":"11"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"161,953"},{"description": "Porcentaje de personas que residen en el área rural", "value":"48%"},{"description": "Índice de masculinidad", "value":"93.61"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"8%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$351.89"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$665.8"},{"description": "Ingreso per cápita promedio", "value":"$234.2"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"29%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"44%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"52%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"17%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$197.83"}]}, </v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -33199,7 +33196,7 @@
       </c>
       <c r="B14" t="str">
         <f>CONCATENATE(General!J14,Población!M14,", ",Educación!K14, ", ",Trabajo!K14,", ",Oportunidades!O14,", ",Servicios!O14,", ",Remesas!G14,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Libertad Norte", "abbreviation":"lln", "highlightTable1": "49% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "49%  sin recolección de basura","highlightTable6": "26% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"307.39"}, "highlight2":{ "name": "Densidad poblacional", "value":"322.31"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"99,076"},{"description": "Porcentaje de personas que residen en el área rural", "value":"52%"},{"description": "Índice de masculinidad", "value":"90.52"},{"description": "Índice de envejecimiento", "value":"47%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$339.88"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$625.22"},{"description": "Ingreso per cápita promedio", "value":"$217.9"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"23%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"24%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"9%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"49%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"29%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"20%"},{"description": "Número de homicidios en 2023", "value":"3"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"26%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$176.21"}]}, </v>
+        <v xml:space="preserve">{"name": "La Libertad Norte", "abbreviation":"lln", "highlightTable1": "49% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "49%  sin recolección de basura","highlightTable6": "26% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"307.39"}, "highlight2":{ "name": "Densidad poblacional", "value":"322.31"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"99,076"},{"description": "Porcentaje de personas que residen en el área rural", "value":"52%"},{"description": "Índice de masculinidad", "value":"90.52"},{"description": "Índice de envejecimiento", "value":"47%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$339.88"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$625.22"},{"description": "Ingreso per cápita promedio", "value":"$217.9"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"23%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"24%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"9%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"49%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"29%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"20%"},{"description": "Número de homicidios en 2023", "value":"3"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"26%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$176.21"}]}, </v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -33208,7 +33205,7 @@
       </c>
       <c r="B15" t="str">
         <f>CONCATENATE(General!J15,Población!M15,", ",Educación!K15, ", ",Trabajo!K15,", ",Oportunidades!O15,", ",Servicios!O15,", ",Remesas!G15,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Libertad Centro", "abbreviation":"llc", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7. escolaridad promedio","highlightTable3": "66% empleo informal","highlightTable4": "25% pobreza multidimensional","highlightTable5": "44%  sin recolección de basura","highlightTable6": "24% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"305.7"}, "highlight2":{ "name": "Densidad poblacional", "value":"531.15"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"162,373"},{"description": "Porcentaje de personas que residen en el área rural", "value":"32%"},{"description": "Índice de masculinidad", "value":"89.11"},{"description": "Índice de envejecimiento", "value":"41%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"7."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}], "category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"52%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"66%"},{"description": "Ingreso laboral promedio", "value":"$350.12"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$712.54"},{"description": "Ingreso per cápita promedio", "value":"$250.83"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"25%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"30%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"44%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"34%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"5"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"24%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$211.47"}]}, </v>
+        <v xml:space="preserve">{"name": "La Libertad Centro", "abbreviation":"llc", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7. escolaridad promedio","highlightTable3": "66% empleo informal","highlightTable4": "25% pobreza multidimensional","highlightTable5": "44%  sin recolección de basura","highlightTable6": "24% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"305.7"}, "highlight2":{ "name": "Densidad poblacional", "value":"531.15"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"162,373"},{"description": "Porcentaje de personas que residen en el área rural", "value":"32%"},{"description": "Índice de masculinidad", "value":"89.11"},{"description": "Índice de envejecimiento", "value":"41%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"7."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}], "category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"52%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"66%"},{"description": "Ingreso laboral promedio", "value":"$350.12"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$712.54"},{"description": "Ingreso per cápita promedio", "value":"$250.83"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"25%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"30%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"44%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"34%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"5"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"24%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$211.47"}]}, </v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -33217,7 +33214,7 @@
       </c>
       <c r="B16" t="str">
         <f>CONCATENATE(General!J16,Población!M16,", ",Educación!K16, ", ",Trabajo!K16,", ",Oportunidades!O16,", ",Servicios!O16,", ",Remesas!G16,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Libertad Oeste", "abbreviation":"llo", "highlightTable1": "45% tasa de dependencia","highlightTable2": "7. escolaridad promedio","highlightTable3": "55% empleo informal","highlightTable4": "25% pobreza multidimensional","highlightTable5": "25%  sin recolección de basura","highlightTable6": "18% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"276.98"}, "highlight2":{ "name": "Densidad poblacional", "value":"652.96"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"180,856"},{"description": "Porcentaje de personas que residen en el área rural", "value":"15%"},{"description": "Índice de masculinidad", "value":"87.84"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"45%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}], "category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"55%"},{"description": "Ingreso laboral promedio", "value":"$391.38"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$720.14"},{"description": "Ingreso per cápita promedio", "value":"$241.29"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"37%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"25%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"44%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"6"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"18%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$199.71"}]}, </v>
+        <v xml:space="preserve">{"name": "La Libertad Oeste", "abbreviation":"llo", "highlightTable1": "45% tasa de dependencia","highlightTable2": "7. escolaridad promedio","highlightTable3": "55% empleo informal","highlightTable4": "25% pobreza multidimensional","highlightTable5": "25%  sin recolección de basura","highlightTable6": "18% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"276.98"}, "highlight2":{ "name": "Densidad poblacional", "value":"652.96"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"180,856"},{"description": "Porcentaje de personas que residen en el área rural", "value":"15%"},{"description": "Índice de masculinidad", "value":"87.84"},{"description": "Índice de envejecimiento", "value":"38%"},{"description": "Tasa de dependencia", "value":"45%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"7."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}], "category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"55%"},{"description": "Ingreso laboral promedio", "value":"$391.38"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$720.14"},{"description": "Ingreso per cápita promedio", "value":"$241.29"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"25%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"37%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"25%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"44%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"6"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"18%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$199.71"}]}, </v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -33226,7 +33223,7 @@
       </c>
       <c r="B17" t="str">
         <f>CONCATENATE(General!J17,Población!M17,", ",Educación!K17, ", ",Trabajo!K17,", ",Oportunidades!O17,", ",Servicios!O17,", ",Remesas!G17,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Libertad Este", "abbreviation":"lle", "highlightTable1": "42% tasa de dependencia","highlightTable2": "8.9 escolaridad promedio","highlightTable3": "50% empleo informal","highlightTable4": "15% pobreza multidimensional","highlightTable5": "14%  sin recolección de basura","highlightTable6": "9% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"134.58"}, "highlight2":{ "name": "Densidad poblacional", "value":"860.52"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"115,809"},{"description": "Porcentaje de personas que residen en el área rural", "value":"%"},{"description": "Índice de masculinidad", "value":"88.81"},{"description": "Índice de envejecimiento", "value":"51%"},{"description": "Tasa de dependencia", "value":"42%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"8.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"81%"}], "category3": [{"description": "Tasa de ocupación", "value":"65%"},{"description": "Tasa de ocupación femenina", "value":"54%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"50%"},{"description": "Ingreso laboral promedio", "value":"$551.08"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$1079.56"},{"description": "Ingreso per cápita promedio", "value":"$425.97"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"23%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"15%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"48%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"14%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"15%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"14%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"46%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"43%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"9%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$313.63"}]}, </v>
+        <v xml:space="preserve">{"name": "La Libertad Este", "abbreviation":"lle", "highlightTable1": "42% tasa de dependencia","highlightTable2": "8.9 escolaridad promedio","highlightTable3": "50% empleo informal","highlightTable4": "15% pobreza multidimensional","highlightTable5": "14%  sin recolección de basura","highlightTable6": "9% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"134.58"}, "highlight2":{ "name": "Densidad poblacional", "value":"860.52"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"115,809"},{"description": "Porcentaje de personas que residen en el área rural", "value":"%"},{"description": "Índice de masculinidad", "value":"88.81"},{"description": "Índice de envejecimiento", "value":"51%"},{"description": "Tasa de dependencia", "value":"42%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"8.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"81%"}], "category3": [{"description": "Tasa de ocupación", "value":"65%"},{"description": "Tasa de ocupación femenina", "value":"54%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"50%"},{"description": "Ingreso laboral promedio", "value":"$551.08"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$1079.56"},{"description": "Ingreso per cápita promedio", "value":"$425.97"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"23%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"15%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"48%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"14%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"15%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"14%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"46%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"43%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"9%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$313.63"}]}, </v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -33235,7 +33232,7 @@
       </c>
       <c r="B18" t="str">
         <f>CONCATENATE(General!J18,Población!M18,", ",Educación!K18, ", ",Trabajo!K18,", ",Oportunidades!O18,", ",Servicios!O18,", ",Remesas!G18,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Libertad Costa", "abbreviation":"llco", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6. escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "38% pobreza multidimensional","highlightTable5": "55%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"440.98"}, "highlight2":{ "name": "Densidad poblacional", "value":"234.78"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"103,532"},{"description": "Porcentaje de personas que residen en el área rural", "value":"56%"},{"description": "Índice de masculinidad", "value":"81.3"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"55%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"20%"},{"description": "Escolaridad promedio (en años)", "value":"6."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"44%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$393.05"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$740.04"},{"description": "Ingreso per cápita promedio", "value":"$257.83"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"38%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"50%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"21%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"35%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"36%"},{"description": "Número de homicidios en 2023", "value":""}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$200.81"}]}, </v>
+        <v xml:space="preserve">{"name": "La Libertad Costa", "abbreviation":"llco", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6. escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "38% pobreza multidimensional","highlightTable5": "55%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"440.98"}, "highlight2":{ "name": "Densidad poblacional", "value":"234.78"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"103,532"},{"description": "Porcentaje de personas que residen en el área rural", "value":"56%"},{"description": "Índice de masculinidad", "value":"81.3"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"55%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"20%"},{"description": "Escolaridad promedio (en años)", "value":"6."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"44%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$393.05"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$740.04"},{"description": "Ingreso per cápita promedio", "value":"$257.83"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"38%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"50%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"21%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"35%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"24%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"36%"},{"description": "Número de homicidios en 2023", "value":"0"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$200.81"}]}, </v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -33244,7 +33241,7 @@
       </c>
       <c r="B19" t="str">
         <f>CONCATENATE(General!J19,Población!M19,", ",Educación!K19, ", ",Trabajo!K19,", ",Oportunidades!O19,", ",Servicios!O19,", ",Remesas!G19,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Libertad Sur", "abbreviation":"lls", "highlightTable1": "38% tasa de dependencia","highlightTable2": "8.3 escolaridad promedio","highlightTable3": "61% empleo informal","highlightTable4": "24% pobreza multidimensional","highlightTable5": "40%  sin recolección de basura","highlightTable6": "13% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"187.25"}, "highlight2":{ "name": "Densidad poblacional", "value":"759.88"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"142,287"},{"description": "Porcentaje de personas que residen en el área rural", "value":"48%"},{"description": "Índice de masculinidad", "value":"91.81"},{"description": "Índice de envejecimiento", "value":"65%"},{"description": "Tasa de dependencia", "value":"38%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"77%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"51%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"61%"},{"description": "Ingreso laboral promedio", "value":"$431.9"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$823.32"},{"description": "Ingreso per cápita promedio", "value":"$303.34"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"23%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"24%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"39%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"19%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"40%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"37%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"13%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$219.84"}]}, </v>
+        <v xml:space="preserve">{"name": "La Libertad Sur", "abbreviation":"lls", "highlightTable1": "38% tasa de dependencia","highlightTable2": "8.3 escolaridad promedio","highlightTable3": "61% empleo informal","highlightTable4": "24% pobreza multidimensional","highlightTable5": "40%  sin recolección de basura","highlightTable6": "13% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"187.25"}, "highlight2":{ "name": "Densidad poblacional", "value":"759.88"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"142,287"},{"description": "Porcentaje de personas que residen en el área rural", "value":"48%"},{"description": "Índice de masculinidad", "value":"91.81"},{"description": "Índice de envejecimiento", "value":"65%"},{"description": "Tasa de dependencia", "value":"38%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"5%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"77%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"51%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"61%"},{"description": "Ingreso laboral promedio", "value":"$431.9"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$823.32"},{"description": "Ingreso per cápita promedio", "value":"$303.34"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"23%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"24%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"39%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"19%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"40%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"37%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"13%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$219.84"}]}, </v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -33253,7 +33250,7 @@
       </c>
       <c r="B20" t="str">
         <f>CONCATENATE(General!J20,Población!M20,", ",Educación!K20, ", ",Trabajo!K20,", ",Oportunidades!O20,", ",Servicios!O20,", ",Remesas!G20,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Paz Centro", "abbreviation":"lpc", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.4 escolaridad promedio","highlightTable3": "78% empleo informal","highlightTable4": "31% pobreza multidimensional","highlightTable5": "65%  sin recolección de basura","highlightTable6": "28% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"450.42"}, "highlight2":{ "name": "Densidad poblacional", "value":"288.18"}, "highlight3":{ "name": "Número de distritos", "value":"12"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"129,803"},{"description": "Porcentaje de personas que residen en el área rural", "value":"58%"},{"description": "Índice de masculinidad", "value":"88.99"},{"description": "Índice de envejecimiento", "value":"31%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"78%"},{"description": "Ingreso laboral promedio", "value":"$318.18"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$587.06"},{"description": "Ingreso per cápita promedio", "value":"$206.52"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"31%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"21%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"34%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"65%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"28%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$194.96"}]}, </v>
+        <v xml:space="preserve">{"name": "La Paz Centro", "abbreviation":"lpc", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.4 escolaridad promedio","highlightTable3": "78% empleo informal","highlightTable4": "31% pobreza multidimensional","highlightTable5": "65%  sin recolección de basura","highlightTable6": "28% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"450.42"}, "highlight2":{ "name": "Densidad poblacional", "value":"288.18"}, "highlight3":{ "name": "Número de distritos", "value":"12"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"129,803"},{"description": "Porcentaje de personas que residen en el área rural", "value":"58%"},{"description": "Índice de masculinidad", "value":"88.99"},{"description": "Índice de envejecimiento", "value":"31%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"11%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"78%"},{"description": "Ingreso laboral promedio", "value":"$318.18"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$587.06"},{"description": "Ingreso per cápita promedio", "value":"$206.52"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"31%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"21%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"34%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"65%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"13%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"28%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$194.96"}]}, </v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -33262,7 +33259,7 @@
       </c>
       <c r="B21" t="str">
         <f>CONCATENATE(General!J21,Población!M21,", ",Educación!K21, ", ",Trabajo!K21,", ",Oportunidades!O21,", ",Servicios!O21,", ",Remesas!G21,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Paz Oeste", "abbreviation":"lpo", "highlightTable1": "48% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "69% empleo informal","highlightTable4": "30% pobreza multidimensional","highlightTable5": "73%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"381.23"}, "highlight2":{ "name": "Densidad poblacional", "value":"308.74"}, "highlight3":{ "name": "Número de distritos", "value":"7"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"117,701"},{"description": "Porcentaje de personas que residen en el área rural", "value":"37%"},{"description": "Índice de masculinidad", "value":"90.83"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"48%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"69%"},{"description": "Tasa de ocupación femenina", "value":"56%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"69%"},{"description": "Ingreso laboral promedio", "value":"$340.48"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$645.35"},{"description": "Ingreso per cápita promedio", "value":"$238.91"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"30%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"40%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"26%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"26%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"22%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"73%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"16%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"18%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$147.73"}]}, </v>
+        <v xml:space="preserve">{"name": "La Paz Oeste", "abbreviation":"lpo", "highlightTable1": "48% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "69% empleo informal","highlightTable4": "30% pobreza multidimensional","highlightTable5": "73%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"381.23"}, "highlight2":{ "name": "Densidad poblacional", "value":"308.74"}, "highlight3":{ "name": "Número de distritos", "value":"7"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"117,701"},{"description": "Porcentaje de personas que residen en el área rural", "value":"37%"},{"description": "Índice de masculinidad", "value":"90.83"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"48%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"69%"},{"description": "Tasa de ocupación femenina", "value":"56%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"69%"},{"description": "Ingreso laboral promedio", "value":"$340.48"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$645.35"},{"description": "Ingreso per cápita promedio", "value":"$238.91"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"30%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"40%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"26%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"26%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"22%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"73%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"16%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"18%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$147.73"}]}, </v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -33271,7 +33268,7 @@
       </c>
       <c r="B22" t="str">
         <f>CONCATENATE(General!J22,Población!M22,", ",Educación!K22, ", ",Trabajo!K22,", ",Oportunidades!O22,", ",Servicios!O22,", ",Remesas!G22,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Paz Este", "abbreviation":"lpe", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.7 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "33% pobreza multidimensional","highlightTable5": "67%  sin recolección de basura","highlightTable6": "20% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"391.96"}, "highlight2":{ "name": "Densidad poblacional", "value":"285.85"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"112,041"},{"description": "Porcentaje de personas que residen en el área rural", "value":"50%"},{"description": "Índice de masculinidad", "value":"92.97"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"7.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$355.23"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$674.21"},{"description": "Ingreso per cápita promedio", "value":"$232.65"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"24%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"33%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"47%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"28%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"67%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"28%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"33%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"20%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$205.27"}]}, </v>
+        <v xml:space="preserve">{"name": "La Paz Este", "abbreviation":"lpe", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.7 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "33% pobreza multidimensional","highlightTable5": "67%  sin recolección de basura","highlightTable6": "20% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"391.96"}, "highlight2":{ "name": "Densidad poblacional", "value":"285.85"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"112,041"},{"description": "Porcentaje de personas que residen en el área rural", "value":"50%"},{"description": "Índice de masculinidad", "value":"92.97"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"7%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"7.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$355.23"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$674.21"},{"description": "Ingreso per cápita promedio", "value":"$232.65"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"24%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"33%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"47%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"28%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"20%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"67%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"28%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"33%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"20%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$205.27"}]}, </v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -33280,7 +33277,7 @@
       </c>
       <c r="B23" t="str">
         <f>CONCATENATE(General!J23,Población!M23,", ",Educación!K23, ", ",Trabajo!K23,", ",Oportunidades!O23,", ",Servicios!O23,", ",Remesas!G23,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Unión Norte", "abbreviation":"lun", "highlightTable1": "76% tasa de dependencia","highlightTable2": "5.2 escolaridad promedio","highlightTable3": "91% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "68%  sin recolección de basura","highlightTable6": "60% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"1,155.65"}, "highlight2":{ "name": "Densidad poblacional", "value":"93.17"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"107,674"},{"description": "Porcentaje de personas que residen en el área rural", "value":"79%"},{"description": "Índice de masculinidad", "value":"87.53"},{"description": "Índice de envejecimiento", "value":"30%"},{"description": "Tasa de dependencia", "value":"76%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"5.2"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}], "category3": [{"description": "Tasa de ocupación", "value":"51%"},{"description": "Tasa de ocupación femenina", "value":"32%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"91%"},{"description": "Ingreso laboral promedio", "value":"$273.35"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$556.37"},{"description": "Ingreso per cápita promedio", "value":"$196.68"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"44%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"68%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"35%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"41%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"60%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$205.56"}]}, </v>
+        <v xml:space="preserve">{"name": "La Unión Norte", "abbreviation":"lun", "highlightTable1": "76% tasa de dependencia","highlightTable2": "5.2 escolaridad promedio","highlightTable3": "91% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "68%  sin recolección de basura","highlightTable6": "60% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"1,155.65"}, "highlight2":{ "name": "Densidad poblacional", "value":"93.17"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"107,674"},{"description": "Porcentaje de personas que residen en el área rural", "value":"79%"},{"description": "Índice de masculinidad", "value":"87.53"},{"description": "Índice de envejecimiento", "value":"30%"},{"description": "Tasa de dependencia", "value":"76%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"5.2"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}], "category3": [{"description": "Tasa de ocupación", "value":"51%"},{"description": "Tasa de ocupación femenina", "value":"32%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"91%"},{"description": "Ingreso laboral promedio", "value":"$273.35"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$556.37"},{"description": "Ingreso per cápita promedio", "value":"$196.68"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"44%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"68%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"35%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"41%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"60%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$205.56"}]}, </v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -33289,7 +33286,7 @@
       </c>
       <c r="B24" t="str">
         <f>CONCATENATE(General!J24,Población!M24,", ",Educación!K24, ", ",Trabajo!K24,", ",Oportunidades!O24,", ",Servicios!O24,", ",Remesas!G24,"}, ")</f>
-        <v xml:space="preserve">{"name": "La Unión Sur", "abbreviation":"lus", "highlightTable1": "72% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "30% pobreza multidimensional","highlightTable5": "64%  sin recolección de basura","highlightTable6": "45% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"918.74"}, "highlight2":{ "name": "Densidad poblacional", "value":"131.39"}, "highlight3":{ "name": "Número de distritos", "value":"8"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"120,712"},{"description": "Porcentaje de personas que residen en el área rural", "value":"60%"},{"description": "Índice de masculinidad", "value":"80.84"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"72%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}], "category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"41%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$327.96"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$613.89"},{"description": "Ingreso per cápita promedio", "value":"$232.78"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"30%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"47%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"14%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"25%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"64%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"43%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"7"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"45%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$215.53"}]}, </v>
+        <v xml:space="preserve">{"name": "La Unión Sur", "abbreviation":"lus", "highlightTable1": "72% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "30% pobreza multidimensional","highlightTable5": "64%  sin recolección de basura","highlightTable6": "45% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"918.74"}, "highlight2":{ "name": "Densidad poblacional", "value":"131.39"}, "highlight3":{ "name": "Número de distritos", "value":"8"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"120,712"},{"description": "Porcentaje de personas que residen en el área rural", "value":"60%"},{"description": "Índice de masculinidad", "value":"80.84"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"72%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}], "category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"41%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$327.96"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$613.89"},{"description": "Ingreso per cápita promedio", "value":"$232.78"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"30%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"47%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"14%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"25%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"64%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"43%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"23%"},{"description": "Número de homicidios en 2023", "value":"7"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"45%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$215.53"}]}, </v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -33298,7 +33295,7 @@
       </c>
       <c r="B25" t="str">
         <f>CONCATENATE(General!J25,Población!M25,", ",Educación!K25, ", ",Trabajo!K25,", ",Oportunidades!O25,", ",Servicios!O25,", ",Remesas!G25,"}, ")</f>
-        <v xml:space="preserve">{"name": "Morazán Norte", "abbreviation":"mzn", "highlightTable1": "63% tasa de dependencia","highlightTable2": "5.5 escolaridad promedio","highlightTable3": "94% empleo informal","highlightTable4": "47% pobreza multidimensional","highlightTable5": "69%  sin recolección de basura","highlightTable6": "30% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"735.15"}, "highlight2":{ "name": "Densidad poblacional", "value":"86.26"}, "highlight3":{ "name": "Número de distritos", "value":"11"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"63,417"},{"description": "Porcentaje de personas que residen en el área rural", "value":"85%"},{"description": "Índice de masculinidad", "value":"89.66"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"63%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"5.5"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"94%"},{"description": "Ingreso laboral promedio", "value":"$233.44"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$471.71"},{"description": "Ingreso per cápita promedio", "value":"$157.94"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"39%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"47%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"55%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"69%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"14%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"41%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"30%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$168.27"}]}, </v>
+        <v xml:space="preserve">{"name": "Morazán Norte", "abbreviation":"mzn", "highlightTable1": "63% tasa de dependencia","highlightTable2": "5.5 escolaridad promedio","highlightTable3": "94% empleo informal","highlightTable4": "47% pobreza multidimensional","highlightTable5": "69%  sin recolección de basura","highlightTable6": "30% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"735.15"}, "highlight2":{ "name": "Densidad poblacional", "value":"86.26"}, "highlight3":{ "name": "Número de distritos", "value":"11"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"63,417"},{"description": "Porcentaje de personas que residen en el área rural", "value":"85%"},{"description": "Índice de masculinidad", "value":"89.66"},{"description": "Índice de envejecimiento", "value":"27%"},{"description": "Tasa de dependencia", "value":"63%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"5.5"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"67%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"94%"},{"description": "Ingreso laboral promedio", "value":"$233.44"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$471.71"},{"description": "Ingreso per cápita promedio", "value":"$157.94"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"39%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"47%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"55%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"69%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"14%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"41%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"30%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$168.27"}]}, </v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -33307,7 +33304,7 @@
       </c>
       <c r="B26" t="str">
         <f>CONCATENATE(General!J26,Población!M26,", ",Educación!K26, ", ",Trabajo!K26,", ",Oportunidades!O26,", ",Servicios!O26,", ",Remesas!G26,"}, ")</f>
-        <v xml:space="preserve">{"name": "Morazán Sur", "abbreviation":"mzs", "highlightTable1": "58% tasa de dependencia","highlightTable2": "6.1 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "31% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "39% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"712.3"}, "highlight2":{ "name": "Densidad poblacional", "value":"183.73"}, "highlight3":{ "name": "Número de distritos", "value":"15"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"13,087"},{"description": "Porcentaje de personas que residen en el área rural", "value":"67%"},{"description": "Índice de masculinidad", "value":"90"},{"description": "Índice de envejecimiento", "value":"32%"},{"description": "Tasa de dependencia", "value":"58%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"18%"},{"description": "Escolaridad promedio (en años)", "value":"6.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$291.59"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$581.96"},{"description": "Ingreso per cápita promedio", "value":"$202.34"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"31%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"31%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"44%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"39%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$196.24"}]}, </v>
+        <v xml:space="preserve">{"name": "Morazán Sur", "abbreviation":"mzs", "highlightTable1": "58% tasa de dependencia","highlightTable2": "6.1 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "31% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "39% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"712.3"}, "highlight2":{ "name": "Densidad poblacional", "value":"183.73"}, "highlight3":{ "name": "Número de distritos", "value":"15"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"13,087"},{"description": "Porcentaje de personas que residen en el área rural", "value":"67%"},{"description": "Índice de masculinidad", "value":"90"},{"description": "Índice de envejecimiento", "value":"32%"},{"description": "Tasa de dependencia", "value":"58%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"18%"},{"description": "Escolaridad promedio (en años)", "value":"6.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"42%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$291.59"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$581.96"},{"description": "Ingreso per cápita promedio", "value":"$202.34"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"31%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"31%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"44%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"23%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"39%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$196.24"}]}, </v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -33316,7 +33313,7 @@
       </c>
       <c r="B27" t="str">
         <f>CONCATENATE(General!J27,Población!M27,", ",Educación!K27, ", ",Trabajo!K27,", ",Oportunidades!O27,", ",Servicios!O27,", ",Remesas!G27,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Miguel Norte", "abbreviation":"smn", "highlightTable1": "66% tasa de dependencia","highlightTable2": "5.1 escolaridad promedio","highlightTable3": "94% empleo informal","highlightTable4": "36% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "54% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"758.96"}, "highlight2":{ "name": "Densidad poblacional", "value":"107.46"}, "highlight3":{ "name": "Número de distritos", "value":"8"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"81,558"},{"description": "Porcentaje de personas que residen en el área rural", "value":"73%"},{"description": "Índice de masculinidad", "value":"84.47"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"66%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"23%"},{"description": "Escolaridad promedio (en años)", "value":"5.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"64%"}], "category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"36%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"94%"},{"description": "Ingreso laboral promedio", "value":"$223.19"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$474.03"},{"description": "Ingreso per cápita promedio", "value":"$164.63"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"35%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"36%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"43%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"11%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"23%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"54%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$196.14"}]}, </v>
+        <v xml:space="preserve">{"name": "San Miguel Norte", "abbreviation":"smn", "highlightTable1": "66% tasa de dependencia","highlightTable2": "5.1 escolaridad promedio","highlightTable3": "94% empleo informal","highlightTable4": "36% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "54% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"758.96"}, "highlight2":{ "name": "Densidad poblacional", "value":"107.46"}, "highlight3":{ "name": "Número de distritos", "value":"8"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"81,558"},{"description": "Porcentaje de personas que residen en el área rural", "value":"73%"},{"description": "Índice de masculinidad", "value":"84.47"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"66%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"20%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"23%"},{"description": "Escolaridad promedio (en años)", "value":"5.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"64%"}], "category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"36%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"94%"},{"description": "Ingreso laboral promedio", "value":"$223.19"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$474.03"},{"description": "Ingreso per cápita promedio", "value":"$164.63"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"35%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"36%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"43%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"6%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"21%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"11%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"23%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"54%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$196.14"}]}, </v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -33325,7 +33322,7 @@
       </c>
       <c r="B28" t="str">
         <f>CONCATENATE(General!J28,Población!M28,", ",Educación!K28, ", ",Trabajo!K28,", ",Oportunidades!O28,", ",Servicios!O28,", ",Remesas!G28,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Miguel Centro", "abbreviation":"smc", "highlightTable1": "54% tasa de dependencia","highlightTable2": "8. escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "41%  sin recolección de basura","highlightTable6": "34% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"997.08"}, "highlight2":{ "name": "Densidad poblacional", "value":"281.39"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"28,057"},{"description": "Porcentaje de personas que residen en el área rural", "value":"36%"},{"description": "Índice de masculinidad", "value":"88.57"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"54%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"8."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}], "category3": [{"description": "Tasa de ocupación", "value":"65%"},{"description": "Tasa de ocupación femenina", "value":"54%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$389.24"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$781.12"},{"description": "Ingreso per cápita promedio", "value":"$290.03"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"21%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"41%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"50%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"6"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"34%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$176.24"}]}, </v>
+        <v xml:space="preserve">{"name": "San Miguel Centro", "abbreviation":"smc", "highlightTable1": "54% tasa de dependencia","highlightTable2": "8. escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "41%  sin recolección de basura","highlightTable6": "34% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"997.08"}, "highlight2":{ "name": "Densidad poblacional", "value":"281.39"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"28,057"},{"description": "Porcentaje de personas que residen en el área rural", "value":"36%"},{"description": "Índice de masculinidad", "value":"88.57"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"54%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"10%"},{"description": "Escolaridad promedio (en años)", "value":"8."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}], "category3": [{"description": "Tasa de ocupación", "value":"65%"},{"description": "Tasa de ocupación femenina", "value":"54%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$389.24"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$781.12"},{"description": "Ingreso per cápita promedio", "value":"$290.03"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"21%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"10%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"41%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"50%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"6"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"34%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$176.24"}]}, </v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -33334,7 +33331,7 @@
       </c>
       <c r="B29" t="str">
         <f>CONCATENATE(General!J29,Población!M29,", ",Educación!K29, ", ",Trabajo!K29,", ",Oportunidades!O29,", ",Servicios!O29,", ",Remesas!G29,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Miguel Oeste", "abbreviation":"smo", "highlightTable1": "61% tasa de dependencia","highlightTable2": "6.4 escolaridad promedio","highlightTable3": "81% empleo informal","highlightTable4": "36% pobreza multidimensional","highlightTable5": "83%  sin recolección de basura","highlightTable6": "36% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"321.06"}, "highlight2":{ "name": "Densidad poblacional", "value":"317.83"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"102,043"},{"description": "Porcentaje de personas que residen en el área rural", "value":"71%"},{"description": "Índice de masculinidad", "value":"86.19"},{"description": "Índice de envejecimiento", "value":"39%"},{"description": "Tasa de dependencia", "value":"61%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"6.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"40%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"81%"},{"description": "Ingreso laboral promedio", "value":"$287.78"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$558.15"},{"description": "Ingreso per cápita promedio", "value":"$196.17"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"36%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"20%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"33%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"19%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"83%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"26%"},{"description": "Número de homicidios en 2023", "value":"5"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"36%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$171.24"}]}, </v>
+        <v xml:space="preserve">{"name": "San Miguel Oeste", "abbreviation":"smo", "highlightTable1": "61% tasa de dependencia","highlightTable2": "6.4 escolaridad promedio","highlightTable3": "81% empleo informal","highlightTable4": "36% pobreza multidimensional","highlightTable5": "83%  sin recolección de basura","highlightTable6": "36% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"321.06"}, "highlight2":{ "name": "Densidad poblacional", "value":"317.83"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"102,043"},{"description": "Porcentaje de personas que residen en el área rural", "value":"71%"},{"description": "Índice de masculinidad", "value":"86.19"},{"description": "Índice de envejecimiento", "value":"39%"},{"description": "Tasa de dependencia", "value":"61%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"6.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"57%"},{"description": "Tasa de ocupación femenina", "value":"40%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"81%"},{"description": "Ingreso laboral promedio", "value":"$287.78"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$558.15"},{"description": "Ingreso per cápita promedio", "value":"$196.17"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"36%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"45%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"20%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"33%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"19%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"83%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"25%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"26%"},{"description": "Número de homicidios en 2023", "value":"5"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"36%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$171.24"}]}, </v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -33343,7 +33340,7 @@
       </c>
       <c r="B30" t="str">
         <f>CONCATENATE(General!J30,Población!M30,", ",Educación!K30, ", ",Trabajo!K30,", ",Oportunidades!O30,", ",Servicios!O30,", ",Remesas!G30,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Salvador Norte", "abbreviation":"ssn", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "37%  sin recolección de basura","highlightTable6": "30% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"222.86"}, "highlight2":{ "name": "Densidad poblacional", "value":"337.77"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"75,275"},{"description": "Porcentaje de personas que residen en el área rural", "value":"29%"},{"description": "Índice de masculinidad", "value":"79.55"},{"description": "Índice de envejecimiento", "value":"46%"},{"description": "Tasa de dependencia", "value":"55%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}], "category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$353.63"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$694.47"},{"description": "Ingreso per cápita promedio", "value":"$252.61"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"26%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"46%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"25%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"37%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":""}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"30%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$174.37"}]}, </v>
+        <v xml:space="preserve">{"name": "San Salvador Norte", "abbreviation":"ssn", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "73% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "37%  sin recolección de basura","highlightTable6": "30% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"222.86"}, "highlight2":{ "name": "Densidad poblacional", "value":"337.77"}, "highlight3":{ "name": "Número de distritos", "value":"3"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"75,275"},{"description": "Porcentaje de personas que residen en el área rural", "value":"29%"},{"description": "Índice de masculinidad", "value":"79.55"},{"description": "Índice de envejecimiento", "value":"46%"},{"description": "Tasa de dependencia", "value":"55%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"13%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}], "category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"50%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"73%"},{"description": "Ingreso laboral promedio", "value":"$353.63"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$694.47"},{"description": "Ingreso per cápita promedio", "value":"$252.61"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"26%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"46%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"25%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"37%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"27%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":"0"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"30%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$174.37"}]}, </v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -33352,7 +33349,7 @@
       </c>
       <c r="B31" t="str">
         <f>CONCATENATE(General!J31,Población!M31,", ",Educación!K31, ", ",Trabajo!K31,", ",Oportunidades!O31,", ",Servicios!O31,", ",Remesas!G31,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Salvador Centro", "abbreviation":"ssc", "highlightTable1": "45% tasa de dependencia","highlightTable2": "9.8 escolaridad promedio","highlightTable3": "51% empleo informal","highlightTable4": "10% pobreza multidimensional","highlightTable5": "11%  sin recolección de basura","highlightTable6": "17% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"141.6"}, "highlight2":{ "name": "Densidad poblacional", "value":"4,984.52"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"705,808"},{"description": "Porcentaje de personas que residen en el área rural", "value":"2%"},{"description": "Índice de masculinidad", "value":"82.91"},{"description": "Índice de envejecimiento", "value":"76%"},{"description": "Tasa de dependencia", "value":"45%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"9.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"80%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"51%"},{"description": "Ingreso laboral promedio", "value":"$512.12"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$980.41"},{"description": "Ingreso per cápita promedio", "value":"$350.62"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"20%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"10%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"26%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"45%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"11%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"63%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"37%"},{"description": "Número de homicidios en 2023", "value":"23"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"17%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$209.05"}]}, </v>
+        <v xml:space="preserve">{"name": "San Salvador Centro", "abbreviation":"ssc", "highlightTable1": "45% tasa de dependencia","highlightTable2": "9.8 escolaridad promedio","highlightTable3": "51% empleo informal","highlightTable4": "10% pobreza multidimensional","highlightTable5": "11%  sin recolección de basura","highlightTable6": "17% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"141.6"}, "highlight2":{ "name": "Densidad poblacional", "value":"4,984.52"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"705,808"},{"description": "Porcentaje de personas que residen en el área rural", "value":"2%"},{"description": "Índice de masculinidad", "value":"82.91"},{"description": "Índice de envejecimiento", "value":"76%"},{"description": "Tasa de dependencia", "value":"45%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"3%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"9.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"80%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"51%"},{"description": "Ingreso laboral promedio", "value":"$512.12"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$980.41"},{"description": "Ingreso per cápita promedio", "value":"$350.62"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"20%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"10%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"26%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"45%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"9%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"7%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"11%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"63%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"37%"},{"description": "Número de homicidios en 2023", "value":"23"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"17%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$209.05"}]}, </v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -33361,7 +33358,7 @@
       </c>
       <c r="B32" t="str">
         <f>CONCATENATE(General!J32,Población!M32,", ",Educación!K32, ", ",Trabajo!K32,", ",Oportunidades!O32,", ",Servicios!O32,", ",Remesas!G32,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Salvador Oeste", "abbreviation":"sso", "highlightTable1": "45% tasa de dependencia","highlightTable2": "8. escolaridad promedio","highlightTable3": "59% empleo informal","highlightTable4": "17% pobreza multidimensional","highlightTable5": "21%  sin recolección de basura","highlightTable6": "18% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"135.2"}, "highlight2":{ "name": "Densidad poblacional", "value":"1,418.12"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"19,173"},{"description": "Porcentaje de personas que residen en el área rural", "value":"11%"},{"description": "Índice de masculinidad", "value":"83.72"},{"description": "Índice de envejecimiento", "value":"39%"},{"description": "Tasa de dependencia", "value":"45%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}], "category3": [{"description": "Tasa de ocupación", "value":"66%"},{"description": "Tasa de ocupación femenina", "value":"55%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"59%"},{"description": "Ingreso laboral promedio", "value":"$400.87"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$752.61"},{"description": "Ingreso per cápita promedio", "value":"$279.22"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"17%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"27%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"40%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"17%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"8%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"21%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"44%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"3"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"18%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$192.09"}]}, </v>
+        <v xml:space="preserve">{"name": "San Salvador Oeste", "abbreviation":"sso", "highlightTable1": "45% tasa de dependencia","highlightTable2": "8. escolaridad promedio","highlightTable3": "59% empleo informal","highlightTable4": "17% pobreza multidimensional","highlightTable5": "21%  sin recolección de basura","highlightTable6": "18% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"135.2"}, "highlight2":{ "name": "Densidad poblacional", "value":"1,418.12"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"19,173"},{"description": "Porcentaje de personas que residen en el área rural", "value":"11%"},{"description": "Índice de masculinidad", "value":"83.72"},{"description": "Índice de envejecimiento", "value":"39%"},{"description": "Tasa de dependencia", "value":"45%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8."},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}], "category3": [{"description": "Tasa de ocupación", "value":"66%"},{"description": "Tasa de ocupación femenina", "value":"55%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"59%"},{"description": "Ingreso laboral promedio", "value":"$400.87"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$752.61"},{"description": "Ingreso per cápita promedio", "value":"$279.22"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"17%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"27%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"40%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"17%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"8%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"21%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"44%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"3"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"18%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$192.09"}]}, </v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -33370,7 +33367,7 @@
       </c>
       <c r="B33" t="str">
         <f>CONCATENATE(General!J33,Población!M33,", ",Educación!K33, ", ",Trabajo!K33,", ",Oportunidades!O33,", ",Servicios!O33,", ",Remesas!G33,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Salvador Este", "abbreviation":"sse", "highlightTable1": "43% tasa de dependencia","highlightTable2": "8.7 escolaridad promedio","highlightTable3": "55% empleo informal","highlightTable4": "11% pobreza multidimensional","highlightTable5": "19%  sin recolección de basura","highlightTable6": "19% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"187.74"}, "highlight2":{ "name": "Densidad poblacional", "value":"3,056.67"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"57,386"},{"description": "Porcentaje de personas que residen en el área rural", "value":"5%"},{"description": "Índice de masculinidad", "value":"86.25"},{"description": "Índice de envejecimiento", "value":"44%"},{"description": "Tasa de dependencia", "value":"43%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"8.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"55%"},{"description": "Ingreso laboral promedio", "value":"$452.59"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$883.96"},{"description": "Ingreso per cápita promedio", "value":"$298.55"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"20%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"11%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"19%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"44%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"6%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"4%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"19%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"60%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"10"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"19%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$177.96"}]}, </v>
+        <v xml:space="preserve">{"name": "San Salvador Este", "abbreviation":"sse", "highlightTable1": "43% tasa de dependencia","highlightTable2": "8.7 escolaridad promedio","highlightTable3": "55% empleo informal","highlightTable4": "11% pobreza multidimensional","highlightTable5": "19%  sin recolección de basura","highlightTable6": "19% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"187.74"}, "highlight2":{ "name": "Densidad poblacional", "value":"3,056.67"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"57,386"},{"description": "Porcentaje de personas que residen en el área rural", "value":"5%"},{"description": "Índice de masculinidad", "value":"86.25"},{"description": "Índice de envejecimiento", "value":"44%"},{"description": "Tasa de dependencia", "value":"43%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"5%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"5%"},{"description": "Escolaridad promedio (en años)", "value":"8.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"55%"},{"description": "Ingreso laboral promedio", "value":"$452.59"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$883.96"},{"description": "Ingreso per cápita promedio", "value":"$298.55"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"20%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"11%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"19%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"44%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"6%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"4%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"19%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"60%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"21%"},{"description": "Número de homicidios en 2023", "value":"10"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"19%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$177.96"}]}, </v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -33379,7 +33376,7 @@
       </c>
       <c r="B34" t="str">
         <f>CONCATENATE(General!J34,Población!M34,", ",Educación!K34, ", ",Trabajo!K34,", ",Oportunidades!O34,", ",Servicios!O34,", ",Remesas!G34,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Salvador Sur", "abbreviation":"sss", "highlightTable1": "51% tasa de dependencia","highlightTable2": "8.3 escolaridad promedio","highlightTable3": "58% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "27%  sin recolección de basura","highlightTable6": "11% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"198.75"}, "highlight2":{ "name": "Densidad poblacional", "value":"924.66"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"183,776"},{"description": "Porcentaje de personas que residen en el área rural", "value":"30%"},{"description": "Índice de masculinidad", "value":"82.89"},{"description": "Índice de envejecimiento", "value":"45%"},{"description": "Tasa de dependencia", "value":"51%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}], "category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"58%"},{"description": "Ingreso laboral promedio", "value":"$428.99"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$869.33"},{"description": "Ingreso per cápita promedio", "value":"$282.47"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"22%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"37%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"32%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"27%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"42%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"43%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"11%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$230.44"}]}, </v>
+        <v xml:space="preserve">{"name": "San Salvador Sur", "abbreviation":"sss", "highlightTable1": "51% tasa de dependencia","highlightTable2": "8.3 escolaridad promedio","highlightTable3": "58% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "27%  sin recolección de basura","highlightTable6": "11% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"198.75"}, "highlight2":{ "name": "Densidad poblacional", "value":"924.66"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"183,776"},{"description": "Porcentaje de personas que residen en el área rural", "value":"30%"},{"description": "Índice de masculinidad", "value":"82.89"},{"description": "Índice de envejecimiento", "value":"45%"},{"description": "Tasa de dependencia", "value":"51%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"6%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"8%"},{"description": "Escolaridad promedio (en años)", "value":"8.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"73%"}], "category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"53%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"58%"},{"description": "Ingreso laboral promedio", "value":"$428.99"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$869.33"},{"description": "Ingreso per cápita promedio", "value":"$282.47"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"22%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"38%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"37%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"32%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"16%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"27%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"42%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"43%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"11%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$230.44"}]}, </v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -33388,7 +33385,7 @@
       </c>
       <c r="B35" t="str">
         <f>CONCATENATE(General!J35,Población!M35,", ",Educación!K35, ", ",Trabajo!K35,", ",Oportunidades!O35,", ",Servicios!O35,", ",Remesas!G35,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Vicente Norte", "abbreviation":"svn", "highlightTable1": "56% tasa de dependencia","highlightTable2": "7.1 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "28% pobreza multidimensional","highlightTable5": "70%  sin recolección de basura","highlightTable6": "35% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"556.48"}, "highlight2":{ "name": "Densidad poblacional", "value":"122.58"}, "highlight3":{ "name": "Número de distritos", "value":"7"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"68,211"},{"description": "Porcentaje de personas que residen en el área rural", "value":"75%"},{"description": "Índice de masculinidad", "value":"93.06"},{"description": "Índice de envejecimiento", "value":"34%"},{"description": "Tasa de dependencia", "value":"56%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"7.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"55%"},{"description": "Tasa de ocupación femenina", "value":"36%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$287.09"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$537.2"},{"description": "Ingreso per cápita promedio", "value":"$197.43"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"28%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"22%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"70%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"19%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"35%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$166.82"}]}, </v>
+        <v xml:space="preserve">{"name": "San Vicente Norte", "abbreviation":"svn", "highlightTable1": "56% tasa de dependencia","highlightTable2": "7.1 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "28% pobreza multidimensional","highlightTable5": "70%  sin recolección de basura","highlightTable6": "35% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"556.48"}, "highlight2":{ "name": "Densidad poblacional", "value":"122.58"}, "highlight3":{ "name": "Número de distritos", "value":"7"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"68,211"},{"description": "Porcentaje de personas que residen en el área rural", "value":"75%"},{"description": "Índice de masculinidad", "value":"93.06"},{"description": "Índice de envejecimiento", "value":"34%"},{"description": "Tasa de dependencia", "value":"56%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"14%"},{"description": "Escolaridad promedio (en años)", "value":"7.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"69%"}], "category3": [{"description": "Tasa de ocupación", "value":"55%"},{"description": "Tasa de ocupación femenina", "value":"36%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$287.09"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$537.2"},{"description": "Ingreso per cápita promedio", "value":"$197.43"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"28%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"41%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"22%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"70%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"19%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"29%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"35%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$166.82"}]}, </v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -33397,7 +33394,7 @@
       </c>
       <c r="B36" t="str">
         <f>CONCATENATE(General!J36,Población!M36,", ",Educación!K36, ", ",Trabajo!K36,", ",Oportunidades!O36,", ",Servicios!O36,", ",Remesas!G36,"}, ")</f>
-        <v xml:space="preserve">{"name": "San Vicente Sur", "abbreviation":"svs", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.7 escolaridad promedio","highlightTable3": "82% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "36%  sin recolección de basura","highlightTable6": "31% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"627.54"}, "highlight2":{ "name": "Densidad poblacional", "value":"169.68"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"106,482"},{"description": "Porcentaje de personas que residen en el área rural", "value":"42%"},{"description": "Índice de masculinidad", "value":"91.92"},{"description": "Índice de envejecimiento", "value":"35%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"82%"},{"description": "Ingreso laboral promedio", "value":"$289.02"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$594.2"},{"description": "Ingreso per cápita promedio", "value":"$219.68"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"19%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"17%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"36%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"22%"},{"description": "Número de homicidios en 2023", "value":"7"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"31%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$160.79"}]}, </v>
+        <v xml:space="preserve">{"name": "San Vicente Sur", "abbreviation":"svs", "highlightTable1": "52% tasa de dependencia","highlightTable2": "6.7 escolaridad promedio","highlightTable3": "82% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "36%  sin recolección de basura","highlightTable6": "31% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"627.54"}, "highlight2":{ "name": "Densidad poblacional", "value":"169.68"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"106,482"},{"description": "Porcentaje de personas que residen en el área rural", "value":"42%"},{"description": "Índice de masculinidad", "value":"91.92"},{"description": "Índice de envejecimiento", "value":"35%"},{"description": "Tasa de dependencia", "value":"52%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"12%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.7"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"74%"}], "category3": [{"description": "Tasa de ocupación", "value":"64%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"82%"},{"description": "Ingreso laboral promedio", "value":"$289.02"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$594.2"},{"description": "Ingreso per cápita promedio", "value":"$219.68"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"19%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"17%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"36%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"22%"},{"description": "Número de homicidios en 2023", "value":"7"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"31%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$160.79"}]}, </v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -33406,7 +33403,7 @@
       </c>
       <c r="B37" t="str">
         <f>CONCATENATE(General!J37,Población!M37,", ",Educación!K37, ", ",Trabajo!K37,", ",Oportunidades!O37,", ",Servicios!O37,", ",Remesas!G37,"}, ")</f>
-        <v xml:space="preserve">{"name": "Santa Ana Norte", "abbreviation":"san", "highlightTable1": "60% tasa de dependencia","highlightTable2": "5.6 escolaridad promedio","highlightTable3": "83% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "42%  sin recolección de basura","highlightTable6": "46% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"956.97"}, "highlight2":{ "name": "Densidad poblacional", "value":"106.35"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"101,775"},{"description": "Porcentaje de personas que residen en el área rural", "value":"72%"},{"description": "Índice de masculinidad", "value":"92.02"},{"description": "Índice de envejecimiento", "value":"34%"},{"description": "Tasa de dependencia", "value":"60%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"5.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}], "category3": [{"description": "Tasa de ocupación", "value":"56%"},{"description": "Tasa de ocupación femenina", "value":"35%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"83%"},{"description": "Ingreso laboral promedio", "value":"$309.25"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$593.53"},{"description": "Ingreso per cápita promedio", "value":"$226.78"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"25%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"35%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"15%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"9%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"42%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"33%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"26%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"46%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$216.82"}]}, </v>
+        <v xml:space="preserve">{"name": "Santa Ana Norte", "abbreviation":"san", "highlightTable1": "60% tasa de dependencia","highlightTable2": "5.6 escolaridad promedio","highlightTable3": "83% empleo informal","highlightTable4": "21% pobreza multidimensional","highlightTable5": "42%  sin recolección de basura","highlightTable6": "46% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"956.97"}, "highlight2":{ "name": "Densidad poblacional", "value":"106.35"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"101,775"},{"description": "Porcentaje de personas que residen en el área rural", "value":"72%"},{"description": "Índice de masculinidad", "value":"92.02"},{"description": "Índice de envejecimiento", "value":"34%"},{"description": "Tasa de dependencia", "value":"60%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"17%"},{"description": "Escolaridad promedio (en años)", "value":"5.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"68%"}], "category3": [{"description": "Tasa de ocupación", "value":"56%"},{"description": "Tasa de ocupación femenina", "value":"35%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"83%"},{"description": "Ingreso laboral promedio", "value":"$309.25"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$593.53"},{"description": "Ingreso per cápita promedio", "value":"$226.78"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"25%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"21%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"35%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"15%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"15%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"9%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"42%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"33%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"26%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"46%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$216.82"}]}, </v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -33415,7 +33412,7 @@
       </c>
       <c r="B38" t="str">
         <f>CONCATENATE(General!J38,Población!M38,", ",Educación!K38, ", ",Trabajo!K38,", ",Oportunidades!O38,", ",Servicios!O38,", ",Remesas!G38,"}, ")</f>
-        <v xml:space="preserve">{"name": "Santa Ana Centro", "abbreviation":"sac", "highlightTable1": "49% tasa de dependencia","highlightTable2": "6.8 escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "27% pobreza multidimensional","highlightTable5": "29%  sin recolección de basura","highlightTable6": "31% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"400.05"}, "highlight2":{ "name": "Densidad poblacional", "value":"625.72"}, "highlight3":{ "name": "Número de distritos", "value":"1"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"250,318"},{"description": "Porcentaje de personas que residen en el área rural", "value":"17%"},{"description": "Índice de masculinidad", "value":"86.77"},{"description": "Índice de envejecimiento", "value":"43%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$325.52"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$602.66"},{"description": "Ingreso per cápita promedio", "value":"$245.87"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"27%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"27%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"13%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"29%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"42%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"47%"},{"description": "Número de homicidios en 2023", "value":"9"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"31%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$226.8"}]}, </v>
+        <v xml:space="preserve">{"name": "Santa Ana Centro", "abbreviation":"sac", "highlightTable1": "49% tasa de dependencia","highlightTable2": "6.8 escolaridad promedio","highlightTable3": "76% empleo informal","highlightTable4": "27% pobreza multidimensional","highlightTable5": "29%  sin recolección de basura","highlightTable6": "31% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"400.05"}, "highlight2":{ "name": "Densidad poblacional", "value":"625.72"}, "highlight3":{ "name": "Número de distritos", "value":"1"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"250,318"},{"description": "Porcentaje de personas que residen en el área rural", "value":"17%"},{"description": "Índice de masculinidad", "value":"86.77"},{"description": "Índice de envejecimiento", "value":"43%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"13%"},{"description": "Escolaridad promedio (en años)", "value":"6.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}], "category3": [{"description": "Tasa de ocupación", "value":"59%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"76%"},{"description": "Ingreso laboral promedio", "value":"$325.52"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$602.66"},{"description": "Ingreso per cápita promedio", "value":"$245.87"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"27%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"32%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"27%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"13%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"29%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"42%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"47%"},{"description": "Número de homicidios en 2023", "value":"9"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"31%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$226.8"}]}, </v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -33424,7 +33421,7 @@
       </c>
       <c r="B39" t="str">
         <f>CONCATENATE(General!J39,Población!M39,", ",Educación!K39, ", ",Trabajo!K39,", ",Oportunidades!O39,", ",Servicios!O39,", ",Remesas!G39,"}, ")</f>
-        <v xml:space="preserve">{"name": "Santa Ana Oeste", "abbreviation":"sao", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "20% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "23% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"447.87"}, "highlight2":{ "name": "Densidad poblacional", "value":"314.89"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"14,103"},{"description": "Porcentaje de personas que residen en el área rural", "value":"45%"},{"description": "Índice de masculinidad", "value":"88.06"},{"description": "Índice de envejecimiento", "value":"40%"},{"description": "Tasa de dependencia", "value":"55%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$314.88"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$580.96"},{"description": "Ingreso per cápita promedio", "value":"$217.76"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"32%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"20%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"34%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"24%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"17%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"29%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"27%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"23%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$211.1"}]}, </v>
+        <v xml:space="preserve">{"name": "Santa Ana Oeste", "abbreviation":"sao", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "20% pobreza multidimensional","highlightTable5": "46%  sin recolección de basura","highlightTable6": "23% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"447.87"}, "highlight2":{ "name": "Densidad poblacional", "value":"314.89"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"14,103"},{"description": "Porcentaje de personas que residen en el área rural", "value":"45%"},{"description": "Índice de masculinidad", "value":"88.06"},{"description": "Índice de envejecimiento", "value":"40%"},{"description": "Tasa de dependencia", "value":"55%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"72%"}], "category3": [{"description": "Tasa de ocupación", "value":"61%"},{"description": "Tasa de ocupación femenina", "value":"46%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$314.88"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$580.96"},{"description": "Ingreso per cápita promedio", "value":"$217.76"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"32%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"20%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"34%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"24%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"13%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"17%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"46%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"29%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"27%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"23%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$211.1"}]}, </v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -33433,7 +33430,7 @@
       </c>
       <c r="B40" t="str">
         <f>CONCATENATE(General!J40,Población!M40,", ",Educación!K40, ", ",Trabajo!K40,", ",Oportunidades!O40,", ",Servicios!O40,", ",Remesas!G40,"}, ")</f>
-        <v xml:space="preserve">{"name": "Santa Ana Este", "abbreviation":"sae", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.3 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "55%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"218.28"}, "highlight2":{ "name": "Densidad poblacional", "value":"308.71"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"67,385"},{"description": "Porcentaje de personas que residen en el área rural", "value":"52%"},{"description": "Índice de masculinidad", "value":"88.48"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"55%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"62%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"47%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$305.05"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$628.57"},{"description": "Ingreso per cápita promedio", "value":"$219.63"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"42%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"23%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"29%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"26%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"20%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$276.58"}]}, </v>
+        <v xml:space="preserve">{"name": "Santa Ana Este", "abbreviation":"sae", "highlightTable1": "55% tasa de dependencia","highlightTable2": "6.3 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "55%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"218.28"}, "highlight2":{ "name": "Densidad poblacional", "value":"308.71"}, "highlight3":{ "name": "Número de distritos", "value":"2"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"67,385"},{"description": "Porcentaje de personas que residen en el área rural", "value":"52%"},{"description": "Índice de masculinidad", "value":"88.48"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"55%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"10%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"12%"},{"description": "Escolaridad promedio (en años)", "value":"6.3"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"62%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"47%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$305.05"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$628.57"},{"description": "Ingreso per cápita promedio", "value":"$219.63"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"42%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"23%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"29%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"26%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"55%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"20%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"30%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$276.58"}]}, </v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -33442,7 +33439,7 @@
       </c>
       <c r="B41" t="str">
         <f>CONCATENATE(General!J41,Población!M41,", ",Educación!K41, ", ",Trabajo!K41,", ",Oportunidades!O41,", ",Servicios!O41,", ",Remesas!G41,"}, ")</f>
-        <v xml:space="preserve">{"name": "Sonsonate Norte", "abbreviation":"snn", "highlightTable1": "56% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "77% empleo informal","highlightTable4": "46% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "8% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"186.91"}, "highlight2":{ "name": "Densidad poblacional", "value":"537.12"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"100,393"},{"description": "Porcentaje de personas que residen en el área rural", "value":"49%"},{"description": "Índice de masculinidad", "value":"89.55"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"56%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}], "category3": [{"description": "Tasa de ocupación", "value":"66%"},{"description": "Tasa de ocupación femenina", "value":"51%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"77%"},{"description": "Ingreso laboral promedio", "value":"$292.45"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$618.58"},{"description": "Ingreso per cápita promedio", "value":"$197.85"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"46%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"61%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"32%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"30%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"18%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"8%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$231.18"}]}, </v>
+        <v xml:space="preserve">{"name": "Sonsonate Norte", "abbreviation":"snn", "highlightTable1": "56% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "77% empleo informal","highlightTable4": "46% pobreza multidimensional","highlightTable5": "60%  sin recolección de basura","highlightTable6": "8% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"186.91"}, "highlight2":{ "name": "Densidad poblacional", "value":"537.12"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"100,393"},{"description": "Porcentaje de personas que residen en el área rural", "value":"49%"},{"description": "Índice de masculinidad", "value":"89.55"},{"description": "Índice de envejecimiento", "value":"26%"},{"description": "Tasa de dependencia", "value":"56%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"11%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"15%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}], "category3": [{"description": "Tasa de ocupación", "value":"66%"},{"description": "Tasa de ocupación femenina", "value":"51%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"77%"},{"description": "Ingreso laboral promedio", "value":"$292.45"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$618.58"},{"description": "Ingreso per cápita promedio", "value":"$197.85"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"29%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"46%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"61%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"22%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"32%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"30%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"60%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"18%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"35%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"8%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$231.18"}]}, </v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -33451,7 +33448,7 @@
       </c>
       <c r="B42" t="str">
         <f>CONCATENATE(General!J42,Población!M42,", ",Educación!K42, ", ",Trabajo!K42,", ",Oportunidades!O42,", ",Servicios!O42,", ",Remesas!G42,"}, ")</f>
-        <v xml:space="preserve">{"name": "Sonsonate Centro", "abbreviation":"snc", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.8 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "25%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"329.38"}, "highlight2":{ "name": "Densidad poblacional", "value":"482.76"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"159,011"},{"description": "Porcentaje de personas que residen en el área rural", "value":"22%"},{"description": "Índice de masculinidad", "value":"91.79"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"7.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"47%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$381.22"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$725.36"},{"description": "Ingreso per cápita promedio", "value":"$260.01"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"25%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"43%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"31%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$238.12"}]}, </v>
+        <v xml:space="preserve">{"name": "Sonsonate Centro", "abbreviation":"snc", "highlightTable1": "49% tasa de dependencia","highlightTable2": "7.8 escolaridad promedio","highlightTable3": "70% empleo informal","highlightTable4": "23% pobreza multidimensional","highlightTable5": "25%  sin recolección de basura","highlightTable6": "22% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"329.38"}, "highlight2":{ "name": "Densidad poblacional", "value":"482.76"}, "highlight3":{ "name": "Número de distritos", "value":"5"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"159,011"},{"description": "Porcentaje de personas que residen en el área rural", "value":"22%"},{"description": "Índice de masculinidad", "value":"91.79"},{"description": "Índice de envejecimiento", "value":"33%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"7.8"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"70%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"47%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"70%"},{"description": "Ingreso laboral promedio", "value":"$381.22"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$725.36"},{"description": "Ingreso per cápita promedio", "value":"$260.01"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"30%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"23%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"39%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"20%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"14%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"25%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"43%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"31%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"22%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$238.12"}]}, </v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -33460,7 +33457,7 @@
       </c>
       <c r="B43" t="str">
         <f>CONCATENATE(General!J43,Población!M43,", ",Educación!K43, ", ",Trabajo!K43,", ",Oportunidades!O43,", ",Servicios!O43,", ",Remesas!G43,"}, ")</f>
-        <v xml:space="preserve">{"name": "Sonsonate Oeste", "abbreviation":"sno", "highlightTable1": "49% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "35% pobreza multidimensional","highlightTable5": "70%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"166.59"}, "highlight2":{ "name": "Densidad poblacional", "value":"350.81"}, "highlight3":{ "name": "Número de distritos", "value":"1"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"58,442"},{"description": "Porcentaje de personas que residen en el área rural", "value":"46%"},{"description": "Índice de masculinidad", "value":"89.35"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"18%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"63%"}], "category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$320.37"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$649.71"},{"description": "Ingreso per cápita promedio", "value":"$203.27"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"26%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"35%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"43%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"40%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"23%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"70%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"23%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"25%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$187.55"}]}, </v>
+        <v xml:space="preserve">{"name": "Sonsonate Oeste", "abbreviation":"sno", "highlightTable1": "49% tasa de dependencia","highlightTable2": "5.9 escolaridad promedio","highlightTable3": "75% empleo informal","highlightTable4": "35% pobreza multidimensional","highlightTable5": "70%  sin recolección de basura","highlightTable6": "25% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"166.59"}, "highlight2":{ "name": "Densidad poblacional", "value":"350.81"}, "highlight3":{ "name": "Número de distritos", "value":"1"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"58,442"},{"description": "Porcentaje de personas que residen en el área rural", "value":"46%"},{"description": "Índice de masculinidad", "value":"89.35"},{"description": "Índice de envejecimiento", "value":"36%"},{"description": "Tasa de dependencia", "value":"49%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"15%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"18%"},{"description": "Escolaridad promedio (en años)", "value":"5.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"63%"}], "category3": [{"description": "Tasa de ocupación", "value":"63%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"75%"},{"description": "Ingreso laboral promedio", "value":"$320.37"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$649.71"},{"description": "Ingreso per cápita promedio", "value":"$203.27"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"26%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"35%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"43%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"27%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"40%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"23%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"70%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"23%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"25%"},{"description": "Número de homicidios en 2023", "value":"4"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"25%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$187.55"}]}, </v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -33469,7 +33466,7 @@
       </c>
       <c r="B44" t="str">
         <f>CONCATENATE(General!J44,Población!M44,", ",Educación!K44, ", ",Trabajo!K44,", ",Oportunidades!O44,", ",Servicios!O44,", ",Remesas!G44,"}, ")</f>
-        <v xml:space="preserve">{"name": "Sonsonate Este", "abbreviation":"sne", "highlightTable1": "53% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "69% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "50%  sin recolección de basura","highlightTable6": "14% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"542.89"}, "highlight2":{ "name": "Densidad poblacional", "value":"347.83"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"188,836"},{"description": "Porcentaje de personas que residen en el área rural", "value":"49%"},{"description": "Índice de masculinidad", "value":"88.09"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"53%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"69%"},{"description": "Ingreso laboral promedio", "value":"$408.94"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$738.75"},{"description": "Ingreso per cápita promedio", "value":"$249.48"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"49%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"29%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"25%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"22%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"50%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"14%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$226.9"}]}, </v>
+        <v xml:space="preserve">{"name": "Sonsonate Este", "abbreviation":"sne", "highlightTable1": "53% tasa de dependencia","highlightTable2": "6.9 escolaridad promedio","highlightTable3": "69% empleo informal","highlightTable4": "26% pobreza multidimensional","highlightTable5": "50%  sin recolección de basura","highlightTable6": "14% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"542.89"}, "highlight2":{ "name": "Densidad poblacional", "value":"347.83"}, "highlight3":{ "name": "Número de distritos", "value":"6"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"188,836"},{"description": "Porcentaje de personas que residen en el área rural", "value":"49%"},{"description": "Índice de masculinidad", "value":"88.09"},{"description": "Índice de envejecimiento", "value":"29%"},{"description": "Tasa de dependencia", "value":"53%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"9%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"11%"},{"description": "Escolaridad promedio (en años)", "value":"6.9"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"69%"},{"description": "Ingreso laboral promedio", "value":"$408.94"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$738.75"},{"description": "Ingreso per cápita promedio", "value":"$249.48"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"28%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"26%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"49%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"29%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"25%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"22%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"50%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"31%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"28%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"14%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$226.9"}]}, </v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -33478,7 +33475,7 @@
       </c>
       <c r="B45" t="str">
         <f>CONCATENATE(General!J45,Población!M45,", ",Educación!K45, ", ",Trabajo!K45,", ",Oportunidades!O45,", ",Servicios!O45,", ",Remesas!G45,"}, ")</f>
-        <v xml:space="preserve">{"name": "Usulután Norte", "abbreviation":"usn", "highlightTable1": "63% tasa de dependencia","highlightTable2": "7.1 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "38% pobreza multidimensional","highlightTable5": "36%  sin recolección de basura","highlightTable6": "27% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"551.69"}, "highlight2":{ "name": "Densidad poblacional", "value":"202.82"}, "highlight3":{ "name": "Número de distritos", "value":"9"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"111,892"},{"description": "Porcentaje de personas que residen en el área rural", "value":"34%"},{"description": "Índice de masculinidad", "value":"84.97"},{"description": "Índice de envejecimiento", "value":"35%"},{"description": "Tasa de dependencia", "value":"63%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"7.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}], "category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"43%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$280.33"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$502.14"},{"description": "Ingreso per cápita promedio", "value":"$164.58"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"49%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"38%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"59%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"29%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"23%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"36%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"35%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"27%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.14"}]}, </v>
+        <v xml:space="preserve">{"name": "Usulután Norte", "abbreviation":"usn", "highlightTable1": "63% tasa de dependencia","highlightTable2": "7.1 escolaridad promedio","highlightTable3": "85% empleo informal","highlightTable4": "38% pobreza multidimensional","highlightTable5": "36%  sin recolección de basura","highlightTable6": "27% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"551.69"}, "highlight2":{ "name": "Densidad poblacional", "value":"202.82"}, "highlight3":{ "name": "Número de distritos", "value":"9"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"111,892"},{"description": "Porcentaje de personas que residen en el área rural", "value":"34%"},{"description": "Índice de masculinidad", "value":"84.97"},{"description": "Índice de envejecimiento", "value":"35%"},{"description": "Tasa de dependencia", "value":"63%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"17%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"21%"},{"description": "Escolaridad promedio (en años)", "value":"7.1"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"76%"}], "category3": [{"description": "Tasa de ocupación", "value":"52%"},{"description": "Tasa de ocupación femenina", "value":"43%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"85%"},{"description": "Ingreso laboral promedio", "value":"$280.33"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$502.14"},{"description": "Ingreso per cápita promedio", "value":"$164.58"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"49%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"38%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"59%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"11%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"29%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"23%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"36%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"35%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"38%"},{"description": "Número de homicidios en 2023", "value":"2"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"27%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.14"}]}, </v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -33487,7 +33484,7 @@
       </c>
       <c r="B46" t="str">
         <f>CONCATENATE(General!J46,Población!M46,", ",Educación!K46, ", ",Trabajo!K46,", ",Oportunidades!O46,", ",Servicios!O46,", ",Remesas!G46,"}, ")</f>
-        <v xml:space="preserve">{"name": "Usulután Oeste", "abbreviation":"uso", "highlightTable1": "61% tasa de dependencia","highlightTable2": "5.4 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "42% pobreza multidimensional","highlightTable5": "83%  sin recolección de basura","highlightTable6": "34% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"747.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"104.03"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"77,755"},{"description": "Porcentaje de personas que residen en el área rural", "value":"54%"},{"description": "Índice de masculinidad", "value":"85.56"},{"description": "Índice de envejecimiento", "value":"25%"},{"description": "Tasa de dependencia", "value":"61%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"23%"},{"description": "Escolaridad promedio (en años)", "value":"5.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"45%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$239.43"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$450.34"},{"description": "Ingreso per cápita promedio", "value":"$183.98"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"42%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"51%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"10%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"24%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"83%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"22%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"18%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"34%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$181.67"}]}, </v>
+        <v xml:space="preserve">{"name": "Usulután Oeste", "abbreviation":"uso", "highlightTable1": "61% tasa de dependencia","highlightTable2": "5.4 escolaridad promedio","highlightTable3": "88% empleo informal","highlightTable4": "42% pobreza multidimensional","highlightTable5": "83%  sin recolección de basura","highlightTable6": "34% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"747.43"}, "highlight2":{ "name": "Densidad poblacional", "value":"104.03"}, "highlight3":{ "name": "Número de distritos", "value":"4"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"77,755"},{"description": "Porcentaje de personas que residen en el área rural", "value":"54%"},{"description": "Índice de masculinidad", "value":"85.56"},{"description": "Índice de envejecimiento", "value":"25%"},{"description": "Tasa de dependencia", "value":"61%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"18%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"23%"},{"description": "Escolaridad promedio (en años)", "value":"5.4"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"71%"}], "category3": [{"description": "Tasa de ocupación", "value":"62%"},{"description": "Tasa de ocupación femenina", "value":"45%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"88%"},{"description": "Ingreso laboral promedio", "value":"$239.43"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$450.34"},{"description": "Ingreso per cápita promedio", "value":"$183.98"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"33%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"42%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"51%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"10%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"30%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"24%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"83%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"22%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"18%"},{"description": "Número de homicidios en 2023", "value":"1"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"34%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$181.67"}]}, </v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -33496,7 +33493,7 @@
       </c>
       <c r="B47" t="str">
         <f>CONCATENATE(General!J47,Población!M47,", ",Educación!K47, ", ",Trabajo!K47,", ",Oportunidades!O47,", ",Servicios!O47,", ",Remesas!G47,"}, ")</f>
-        <v xml:space="preserve">{"name": "Usulután Este", "abbreviation":"use", "highlightTable1": "59% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "83% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "69%  sin recolección de basura","highlightTable6": "40% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"831.32"}, "highlight2":{ "name": "Densidad poblacional", "value":"191.54"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"159,235"},{"description": "Porcentaje de personas que residen en el área rural", "value":"56%"},{"description": "Índice de masculinidad", "value":"89.35"},{"description": "Índice de envejecimiento", "value":"32%"},{"description": "Tasa de dependencia", "value":"59%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":""},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"83%"},{"description": "Ingreso laboral promedio", "value":"$323.48"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$587.62"},{"description": "Ingreso per cápita promedio", "value":"$225.99"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"48%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"16%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"31%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"69%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"36%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"32%"},{"description": "Número de homicidios en 2023", "value":"7"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"40%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.8"}]}, </v>
+        <v xml:space="preserve">{"name": "Usulután Este", "abbreviation":"use", "highlightTable1": "59% tasa de dependencia","highlightTable2": "6.6 escolaridad promedio","highlightTable3": "83% empleo informal","highlightTable4": "34% pobreza multidimensional","highlightTable5": "69%  sin recolección de basura","highlightTable6": "40% receptores de remesas", "highlight1":{ "name": "Extensión territorial", "value":"831.32"}, "highlight2":{ "name": "Densidad poblacional", "value":"191.54"}, "highlight3":{ "name": "Número de distritos", "value":"10"}, "category1": [{"description": "Población proyectada para 2023 (habitantes)", "value":"159,235"},{"description": "Porcentaje de personas que residen en el área rural", "value":"56%"},{"description": "Índice de masculinidad", "value":"89.35"},{"description": "Índice de envejecimiento", "value":"32%"},{"description": "Tasa de dependencia", "value":"59%"}], "category2": [{"description": "Tasa de analfabetismo (población de 10 años y más)", "value":"14%"},{"description": "Tasa de analfabetismo de mujeres (mujeres de 10 años y más)", "value":"16%"},{"description": "Escolaridad promedio (en años)", "value":"6.6"},{"description": "Tasa de escolaridad en niños y niñas de 0 a 17 años", "value":"75%"}], "category3": [{"description": "Tasa de ocupación", "value":"60%"},{"description": "Tasa de ocupación femenina", "value":"49%"},{"description": "Porcentaje de personas ocupadas con un empleo informal", "value":"83%"},{"description": "Ingreso laboral promedio", "value":"$323.48"}], "category4": [{"description": "Ingreso familiar promedio", "value":"$587.62"},{"description": "Ingreso per cápita promedio", "value":"$225.99"},{"description": "Porcentaje de hogares en situación de pobreza monetaria", "value":"27%"},{"description": "Porcentaje de hogares en pobreza multidimensional", "value":"34%"},{"description": "Porcentaje de personas en hacinamiento (+3 personas por habitación)", "value":"48%"},{"description": "Porcentaje de personas con seguro médico (público o privado)", "value":"16%"}], "category5": [{"description": "Porcentaje de hogares sin servicio de agua por cañería", "value":"31%"},{"description": "Porcentaje de hogares sin electricidad en su vivienda", "value":"18%"},{"description": "Porcentaje de hogares sin recolección de basura público", "value":"69%"},{"description": "Porcentaje de hogares con servicio de internet", "value":"36%"},{"description": "Porcentaje de hogares sin acceso a un espacio público", "value":"32%"},{"description": "Número de homicidios en 2023", "value":"7"}], "category6": [{"description": "Porcentaje de hogares receptores de remesas en divisas", "value":"40%"},{"description": "Ingreso mensual promedio de remesas en divisas", "value":"$178.8"}]}, </v>
       </c>
     </row>
   </sheetData>
